--- a/prices_for_processing/price_sota/price_sota(xlsx)/Sota_price_bn.xlsx
+++ b/prices_for_processing/price_sota/price_sota(xlsx)/Sota_price_bn.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vnsto\AppData\Local\Temp\Rar$DIa11384.28306\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Common\Price\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D7CE35-A5B5-4AE4-936A-B9474EB028F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="811" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="811" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="7" r:id="rId1"/>
@@ -26,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Сергей Жук</author>
   </authors>
   <commentList>
-    <comment ref="K195" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="K195" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K196" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="K196" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K197" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="K197" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K200" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="K200" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K201" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="K201" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -109,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K202" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="K202" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K203" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="K203" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -139,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K204" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="K204" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K205" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="K205" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -171,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K206" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="K206" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -187,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K207" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+    <comment ref="K207" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -203,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K210" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+    <comment ref="K210" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -218,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K211" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+    <comment ref="K211" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -234,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K212" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
+    <comment ref="K212" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -249,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K213" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
+    <comment ref="K213" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -264,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K214" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
+    <comment ref="K214" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -280,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K215" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
+    <comment ref="K215" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -296,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K216" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
+    <comment ref="K216" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -312,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K217" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
+    <comment ref="K217" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -328,7 +327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K218" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
+    <comment ref="K218" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -344,7 +343,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K219" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
+    <comment ref="K219" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -360,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K220" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
+    <comment ref="K220" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -376,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K221" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
+    <comment ref="K221" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -392,7 +391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K222" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
+    <comment ref="K222" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1318,6 +1317,9 @@
     </r>
   </si>
   <si>
+    <t>HX-HSCA-RD/EE</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -5538,14 +5540,11 @@
       <t>Cloud Core 7.1</t>
     </r>
   </si>
-  <si>
-    <t>HX-HSCA-RD</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.0_);[Red]\(&quot;$&quot;#,##0.0\)"/>
     <numFmt numFmtId="165" formatCode="0_);[Red]\(0\)"/>
@@ -7872,16 +7871,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="0,0_x000a__x000a_NA_x000a__x000a_" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal_Sheet1" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="0,0_x000a__x000a_NA_x000a__x000a_" xfId="1"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="2"/>
+    <cellStyle name="Normal_Sheet1" xfId="3"/>
     <cellStyle name="Гиперссылка" xfId="4" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Обычный_KVR" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Стиль_названий" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="一般 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="一般 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Обычный 2" xfId="5"/>
+    <cellStyle name="Обычный_KVR" xfId="6"/>
+    <cellStyle name="Стиль_названий" xfId="7"/>
+    <cellStyle name="一般 2" xfId="8"/>
+    <cellStyle name="一般 3" xfId="9"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -7915,11 +7914,6 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="291841" name="Picture 1" descr="LogoS">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001740400}"/>
-            </a:ext>
-          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -7995,11 +7989,6 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="291159" name="Picture 3">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000057710400}"/>
-            </a:ext>
-          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -8070,11 +8059,6 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="291160" name="Picture 1452">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000058710400}"/>
-            </a:ext>
-          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -8145,11 +8129,6 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="291161" name="Рисунок 1" descr="&lt;strong&gt;HyperX&lt;/strong&gt; lanza la memoria FURY DDR4 y añade kits de alta ...">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000059710400}"/>
-            </a:ext>
-          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -8218,13 +8197,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="291162" name="Рисунок 5" descr="https://mms.businesswire.com/media/20210601005659/en/881787/5/Kingston_FURY_logo_2021-CMYK_%28002%29.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005A710400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="291162" name="Рисунок 5" descr="https://mms.businesswire.com/media/20210601005659/en/881787/5/Kingston_FURY_logo_2021-CMYK_%28002%29.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8297,13 +8270,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292865" name="Picture 77">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292865" name="Picture 77"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8371,13 +8338,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292866" name="Picture 77">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292866" name="Picture 77"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8445,13 +8406,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292867" name="Picture 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292867" name="Picture 84"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8519,13 +8474,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292868" name="Picture 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292868" name="Picture 84"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8593,13 +8542,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292869" name="Picture 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292869" name="Picture 87"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8667,13 +8610,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292870" name="Picture 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292870" name="Picture 87"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8741,13 +8678,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292871" name="Picture 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292871" name="Picture 87"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8815,13 +8746,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292872" name="Picture 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292872" name="Picture 87"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8889,13 +8814,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292873" name="Picture 4615">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292873" name="Picture 4615"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8963,13 +8882,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292874" name="Picture 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292874" name="Picture 84"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9037,13 +8950,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292875" name="Picture 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292875" name="Picture 84"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9111,13 +9018,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292876" name="Picture 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292876" name="Picture 84"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9185,13 +9086,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292877" name="Picture 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292877" name="Picture 84"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9259,13 +9154,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292878" name="Picture 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292878" name="Picture 84"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9333,13 +9222,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292879" name="Picture 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292879" name="Picture 84"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9407,13 +9290,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292880" name="Picture 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292880" name="Picture 84"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9481,13 +9358,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292881" name="Picture 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292881" name="Picture 87"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9555,13 +9426,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292882" name="Picture 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292882" name="Picture 84"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9629,13 +9494,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292883" name="Picture 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292883" name="Picture 84"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9703,13 +9562,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292884" name="Picture 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292884" name="Picture 84"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9777,13 +9630,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292885" name="Picture 4615">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292885" name="Picture 4615"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9851,13 +9698,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292886" name="Picture 184">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292886" name="Picture 184"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9925,13 +9766,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292887" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292887" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9999,13 +9834,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292888" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292888" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10073,13 +9902,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292889" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292889" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10147,13 +9970,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292890" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292890" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10221,13 +10038,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292891" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292891" name="Picture 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10295,13 +10106,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292892" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292892" name="Picture 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10369,13 +10174,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292893" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292893" name="Picture 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10443,13 +10242,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292894" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292894" name="Picture 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10517,13 +10310,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292895" name="Picture 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292895" name="Picture 18"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10591,13 +10378,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292896" name="Picture 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292896" name="Picture 19"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10665,13 +10446,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292897" name="Picture 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292897" name="Picture 20"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10739,13 +10514,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292898" name="Picture 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292898" name="Picture 21"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10813,13 +10582,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292899" name="Picture 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292899" name="Picture 23"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10887,13 +10650,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292900" name="Picture 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292900" name="Picture 24"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10961,13 +10718,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292901" name="Picture 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292901" name="Picture 25"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11035,13 +10786,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292902" name="Picture 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000026780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292902" name="Picture 26"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11109,13 +10854,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292903" name="Picture 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000027780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292903" name="Picture 27"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11183,13 +10922,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292904" name="Picture 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292904" name="Picture 28"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11257,13 +10990,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292905" name="Picture 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292905" name="Picture 30"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11331,13 +11058,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292906" name="Picture 70367">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292906" name="Picture 70367"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11405,13 +11126,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292907" name="Picture 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292907" name="Picture 22"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11479,13 +11194,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292908" name="Picture 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292908" name="Picture 23"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11553,13 +11262,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292909" name="Picture 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292909" name="Picture 28"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11627,13 +11330,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292910" name="Picture 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292910" name="Picture 29"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11701,13 +11398,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292911" name="Picture 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292911" name="Picture 30"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11775,13 +11466,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292912" name="Picture 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292912" name="Picture 32"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11849,19 +11534,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292913" name="Picture 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000031780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292913" name="Picture 33"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -11923,19 +11602,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292914" name="Picture 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000032780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292914" name="Picture 36"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -11997,19 +11670,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292915" name="Picture 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292915" name="Picture 37"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12071,19 +11738,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292916" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292916" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12145,19 +11806,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292917" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292917" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12219,19 +11874,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292918" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292918" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12293,19 +11942,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292919" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292919" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12367,19 +12010,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292920" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292920" name="Picture 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12441,19 +12078,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292921" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292921" name="Picture 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12515,19 +12146,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292922" name="Picture 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292922" name="Picture 21"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12589,19 +12214,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292923" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292923" name="Picture 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12663,19 +12282,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292924" name="Picture 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292924" name="Picture 24"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12737,19 +12350,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292925" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292925" name="Picture 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12811,19 +12418,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292926" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292926" name="Picture 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12885,19 +12486,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292927" name="Picture 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292927" name="Picture 23"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12959,19 +12554,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292928" name="Picture 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292928" name="Picture 26"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -13033,19 +12622,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292929" name="Picture 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000041780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292929" name="Picture 27"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -13107,19 +12690,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292930" name="Picture 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292930" name="Picture 29"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -13181,19 +12758,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292931" name="Picture 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000043780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292931" name="Picture 30"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -13255,19 +12826,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292932" name="Picture 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292932" name="Picture 32"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -13329,19 +12894,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292933" name="Picture 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000045780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292933" name="Picture 33"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -13403,19 +12962,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292934" name="Picture 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292934" name="Picture 34"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -13477,19 +13030,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292935" name="Рисунок 109" descr="https://cdn.transcend-info.com/products/images/ModelPic/329/RC-PCMCIA-Spec.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000047780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292935" name="Рисунок 109" descr="https://cdn.transcend-info.com/products/images/ModelPic/329/RC-PCMCIA-Spec.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -13551,19 +13098,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292936" name="Рисунок 112" descr="https://cdn.transcend-info.com/products/images/ModelPic/674/Pp_RDF2_02.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000048780400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="292936" name="Рисунок 112" descr="https://cdn.transcend-info.com/products/images/ModelPic/674/Pp_RDF2_02.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -13630,34 +13171,22 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="293889" name="Группа 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000017C0400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="293889" name="Группа 1"/>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks noChangeAspect="1"/>
         </xdr:cNvGrpSpPr>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="600075" y="5270126"/>
-          <a:ext cx="6120093" cy="2809875"/>
+          <a:off x="600075" y="5257800"/>
+          <a:ext cx="6124575" cy="2809875"/>
           <a:chOff x="9847607" y="5175329"/>
           <a:chExt cx="7191789" cy="3638743"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="293890" name="Рисунок 2" descr="SP-LAMP-034_200.jpg">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000027C0400}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="293890" name="Рисунок 2" descr="SP-LAMP-034_200.jpg"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -13710,13 +13239,7 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="293891" name="Рисунок 3" descr="TLPLV6_200.jpg">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000037C0400}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="293891" name="Рисунок 3" descr="TLPLV6_200.jpg"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -13769,13 +13292,7 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="293892" name="Рисунок 4" descr="ELPLP09_V13H010L09_200.jpg">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000047C0400}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="293892" name="Рисунок 4" descr="ELPLP09_V13H010L09_200.jpg"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -13828,13 +13345,7 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="293893" name="Рисунок 5" descr="ELPLP31_V13H010L31_200.jpg">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000057C0400}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="293893" name="Рисунок 5" descr="ELPLP31_V13H010L31_200.jpg"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -13887,13 +13398,7 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="293894" name="Рисунок 6" descr="ELPLP32_V13H010L32_200.jpg">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000067C0400}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="293894" name="Рисунок 6" descr="ELPLP32_V13H010L32_200.jpg"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -13946,13 +13451,7 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="293895" name="Рисунок 7" descr="DT00491_200.jpg">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000077C0400}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="293895" name="Рисунок 7" descr="DT00491_200.jpg"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -14005,13 +13504,7 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="293896" name="Рисунок 8" descr="SP-LAMP-006_200.jpg">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000087C0400}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="293896" name="Рисунок 8" descr="SP-LAMP-006_200.jpg"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -14064,13 +13557,7 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="293897" name="Рисунок 9" descr="SP-LAMP-LP4_200.jpg">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000097C0400}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="293897" name="Рисунок 9" descr="SP-LAMP-LP4_200.jpg"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -14123,13 +13610,7 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="293898" name="Рисунок 10" descr="ET-LA057_200.jpg">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A7C0400}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="293898" name="Рисунок 10" descr="ET-LA057_200.jpg"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -14182,13 +13663,7 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="293899" name="Рисунок 11" descr="ET-LAC50_200.jpg">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B7C0400}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="293899" name="Рисунок 11" descr="ET-LAC50_200.jpg"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -14241,13 +13716,7 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="Прямоугольник 12">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="13" name="Прямоугольник 12"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1"/>
           </xdr:cNvSpPr>
@@ -14695,7 +14164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:O34"/>
   <sheetViews>
@@ -14810,7 +14279,7 @@
       <c r="D6" s="15"/>
       <c r="E6" s="23"/>
       <c r="F6" s="35" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="30"/>
@@ -14911,7 +14380,7 @@
       <c r="F11" s="291"/>
       <c r="G11" s="291"/>
       <c r="H11" s="277" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I11" s="278"/>
       <c r="J11" s="295" t="s">
@@ -14955,7 +14424,7 @@
       <c r="F13" s="308"/>
       <c r="G13" s="309"/>
       <c r="H13" s="277" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I13" s="278"/>
       <c r="J13" s="295" t="s">
@@ -14982,11 +14451,11 @@
       <c r="F14" s="305"/>
       <c r="G14" s="306"/>
       <c r="H14" s="277" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I14" s="278"/>
       <c r="J14" s="275" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K14" s="276"/>
       <c r="L14" s="279" t="s">
@@ -15009,15 +14478,15 @@
       <c r="F15" s="274"/>
       <c r="G15" s="274"/>
       <c r="H15" s="272" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I15" s="273"/>
       <c r="J15" s="270" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="K15" s="274"/>
       <c r="L15" s="270" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M15" s="271"/>
       <c r="N15" s="8"/>
@@ -15097,7 +14566,7 @@
       <c r="J19" s="260"/>
       <c r="K19" s="261"/>
       <c r="L19" s="262" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M19" s="263"/>
       <c r="N19" s="8"/>
@@ -15111,13 +14580,13 @@
     <row r="22" spans="1:14">
       <c r="A22" s="20"/>
       <c r="B22" s="39" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="20"/>
       <c r="B23" s="39" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C23" s="41"/>
       <c r="D23" s="41"/>
@@ -15327,12 +14796,12 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="J11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="L11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="J14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="L15" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J15" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J13" r:id="rId1"/>
+    <hyperlink ref="J11" r:id="rId2"/>
+    <hyperlink ref="L11" r:id="rId3"/>
+    <hyperlink ref="J14" r:id="rId4"/>
+    <hyperlink ref="L15" r:id="rId5"/>
+    <hyperlink ref="J15" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -15341,7 +14810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист3">
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
@@ -15352,7 +14821,7 @@
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -15379,7 +14848,7 @@
         <v>2</v>
       </c>
       <c r="K1" s="155">
-        <v>44622</v>
+        <v>44623</v>
       </c>
     </row>
     <row r="2" spans="2:11">
@@ -15528,7 +14997,7 @@
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C12" s="177" t="s">
         <v>145</v>
@@ -15558,13 +15027,13 @@
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C13" s="177" t="s">
         <v>143</v>
       </c>
       <c r="D13" s="178" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E13" s="179"/>
       <c r="F13" s="180">
@@ -15588,13 +15057,13 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C14" s="177" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D14" s="178" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E14" s="179"/>
       <c r="F14" s="180">
@@ -15618,13 +15087,13 @@
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>144</v>
       </c>
       <c r="D15" s="178" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E15" s="179"/>
       <c r="F15" s="180">
@@ -15648,13 +15117,13 @@
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C16" s="177" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D16" s="178" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E16" s="179"/>
       <c r="F16" s="180">
@@ -15678,13 +15147,13 @@
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C17" s="177" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D17" s="178" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E17" s="179"/>
       <c r="F17" s="180">
@@ -15708,13 +15177,13 @@
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C18" s="177" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D18" s="178" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E18" s="179"/>
       <c r="F18" s="180">
@@ -15738,7 +15207,7 @@
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C19" s="177" t="s">
         <v>147</v>
@@ -15768,7 +15237,7 @@
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C20" s="177" t="s">
         <v>149</v>
@@ -15798,13 +15267,13 @@
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C21" s="177" t="s">
-        <v>913</v>
+        <v>151</v>
       </c>
       <c r="D21" s="183" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E21" s="179"/>
       <c r="F21" s="180">
@@ -15828,13 +15297,13 @@
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C22" s="177" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D22" s="178" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E22" s="179"/>
       <c r="F22" s="184">
@@ -15858,13 +15327,13 @@
     </row>
     <row r="23" spans="2:11" ht="13.5" thickBot="1">
       <c r="B23" s="218" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C23" s="219" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D23" s="220" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E23" s="221"/>
       <c r="F23" s="222">
@@ -15888,13 +15357,13 @@
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C24" s="63" t="s">
+        <v>874</v>
+      </c>
+      <c r="D24" s="178" t="s">
         <v>873</v>
-      </c>
-      <c r="D24" s="178" t="s">
-        <v>872</v>
       </c>
       <c r="E24" s="179"/>
       <c r="F24" s="180">
@@ -15910,13 +15379,13 @@
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C25" s="63" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D25" s="178" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E25" s="179"/>
       <c r="F25" s="180">
@@ -15932,13 +15401,13 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="214" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C26" s="214" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D26" s="215" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E26" s="179"/>
       <c r="F26" s="216">
@@ -15962,13 +15431,13 @@
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C27" s="63" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D27" s="178" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E27" s="179"/>
       <c r="F27" s="180">
@@ -15992,13 +15461,13 @@
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C28" s="63" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D28" s="178" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E28" s="179"/>
       <c r="F28" s="180">
@@ -16022,13 +15491,13 @@
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C29" s="63" t="s">
+        <v>878</v>
+      </c>
+      <c r="D29" s="178" t="s">
         <v>877</v>
-      </c>
-      <c r="D29" s="178" t="s">
-        <v>876</v>
       </c>
       <c r="E29" s="179"/>
       <c r="F29" s="180">
@@ -16044,13 +15513,13 @@
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C30" s="63" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D30" s="178" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E30" s="179"/>
       <c r="F30" s="180">
@@ -16066,13 +15535,13 @@
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C31" s="63" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D31" s="178" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="E31" s="179"/>
       <c r="F31" s="180">
@@ -16096,13 +15565,13 @@
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C32" s="63" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D32" s="178" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E32" s="179"/>
       <c r="F32" s="180">
@@ -16126,13 +15595,13 @@
     </row>
     <row r="33" spans="2:11">
       <c r="B33" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C33" s="63" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D33" s="182" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E33" s="179"/>
       <c r="F33" s="180">
@@ -16156,13 +15625,13 @@
     </row>
     <row r="34" spans="2:11">
       <c r="B34" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C34" s="63" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D34" s="182" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E34" s="179"/>
       <c r="F34" s="180">
@@ -16186,13 +15655,13 @@
     </row>
     <row r="35" spans="2:11">
       <c r="B35" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C35" s="63" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D35" s="182" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E35" s="179"/>
       <c r="F35" s="180">
@@ -16216,13 +15685,13 @@
     </row>
     <row r="36" spans="2:11">
       <c r="B36" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C36" s="63" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D36" s="182" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E36" s="179"/>
       <c r="F36" s="180">
@@ -16246,13 +15715,13 @@
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C37" s="63" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D37" s="182" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180">
@@ -16276,13 +15745,13 @@
     </row>
     <row r="38" spans="2:11">
       <c r="B38" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C38" s="63" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D38" s="182" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180">
@@ -16306,13 +15775,13 @@
     </row>
     <row r="39" spans="2:11">
       <c r="B39" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C39" s="63" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D39" s="178" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="184">
@@ -16336,13 +15805,13 @@
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C40" s="63" t="s">
+        <v>880</v>
+      </c>
+      <c r="D40" s="178" t="s">
         <v>879</v>
-      </c>
-      <c r="D40" s="178" t="s">
-        <v>878</v>
       </c>
       <c r="E40" s="179"/>
       <c r="F40" s="184">
@@ -16358,13 +15827,13 @@
     </row>
     <row r="41" spans="2:11">
       <c r="B41" s="251" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C41" s="251" t="s">
+        <v>882</v>
+      </c>
+      <c r="D41" s="252" t="s">
         <v>881</v>
-      </c>
-      <c r="D41" s="252" t="s">
-        <v>880</v>
       </c>
       <c r="E41" s="135"/>
       <c r="F41" s="253">
@@ -16380,7 +15849,7 @@
     </row>
     <row r="42" spans="2:11">
       <c r="B42" s="91" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C42" s="92"/>
       <c r="D42" s="92"/>
@@ -16394,13 +15863,13 @@
     </row>
     <row r="43" spans="2:11">
       <c r="B43" s="214" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C43" s="67" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D43" s="215" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E43" s="179"/>
       <c r="F43" s="227">
@@ -16424,13 +15893,13 @@
     </row>
     <row r="44" spans="2:11" ht="13.5" thickBot="1">
       <c r="B44" s="218" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C44" s="219" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D44" s="220" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E44" s="221"/>
       <c r="F44" s="222">
@@ -16454,13 +15923,13 @@
     </row>
     <row r="45" spans="2:11">
       <c r="B45" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C45" s="63" t="s">
+        <v>872</v>
+      </c>
+      <c r="D45" s="178" t="s">
         <v>871</v>
-      </c>
-      <c r="D45" s="178" t="s">
-        <v>870</v>
       </c>
       <c r="E45" s="179"/>
       <c r="F45" s="184">
@@ -16476,13 +15945,13 @@
     </row>
     <row r="46" spans="2:11">
       <c r="B46" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C46" s="63" t="s">
+        <v>870</v>
+      </c>
+      <c r="D46" s="178" t="s">
         <v>869</v>
-      </c>
-      <c r="D46" s="178" t="s">
-        <v>868</v>
       </c>
       <c r="E46" s="179"/>
       <c r="F46" s="184">
@@ -16498,13 +15967,13 @@
     </row>
     <row r="47" spans="2:11">
       <c r="B47" s="238" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C47" s="238" t="s">
+        <v>840</v>
+      </c>
+      <c r="D47" s="239" t="s">
         <v>839</v>
-      </c>
-      <c r="D47" s="239" t="s">
-        <v>838</v>
       </c>
       <c r="E47" s="135"/>
       <c r="F47" s="240">
@@ -16528,7 +15997,7 @@
     </row>
     <row r="48" spans="2:11">
       <c r="B48" s="91" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C48" s="92"/>
       <c r="D48" s="92"/>
@@ -16542,13 +16011,13 @@
     </row>
     <row r="49" spans="2:11" ht="13.5" thickBot="1">
       <c r="B49" s="244" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C49" s="245" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D49" s="246" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E49" s="221"/>
       <c r="F49" s="247">
@@ -16572,13 +16041,13 @@
     </row>
     <row r="50" spans="2:11">
       <c r="B50" s="214" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C50" s="214" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D50" s="215" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E50" s="179"/>
       <c r="F50" s="227">
@@ -16602,13 +16071,13 @@
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C51" s="63" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D51" s="178" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E51" s="179"/>
       <c r="F51" s="184">
@@ -16632,13 +16101,13 @@
     </row>
     <row r="52" spans="2:11">
       <c r="B52" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C52" s="63" t="s">
+        <v>884</v>
+      </c>
+      <c r="D52" s="178" t="s">
         <v>883</v>
-      </c>
-      <c r="D52" s="178" t="s">
-        <v>882</v>
       </c>
       <c r="E52" s="179"/>
       <c r="F52" s="184">
@@ -16654,13 +16123,13 @@
     </row>
     <row r="53" spans="2:11">
       <c r="B53" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C53" s="63" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D53" s="178" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E53" s="179"/>
       <c r="F53" s="184">
@@ -16676,13 +16145,13 @@
     </row>
     <row r="54" spans="2:11">
       <c r="B54" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C54" s="63" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D54" s="178" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E54" s="179"/>
       <c r="F54" s="184">
@@ -16706,13 +16175,13 @@
     </row>
     <row r="55" spans="2:11">
       <c r="B55" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C55" s="63" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D55" s="178" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E55" s="179"/>
       <c r="F55" s="184">
@@ -16736,13 +16205,13 @@
     </row>
     <row r="56" spans="2:11">
       <c r="B56" s="251" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C56" s="251" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D56" s="252" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E56" s="135"/>
       <c r="F56" s="253">
@@ -16766,7 +16235,7 @@
     </row>
     <row r="57" spans="2:11">
       <c r="B57" s="91" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C57" s="92"/>
       <c r="D57" s="92"/>
@@ -16780,13 +16249,13 @@
     </row>
     <row r="58" spans="2:11">
       <c r="B58" s="214" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C58" s="67" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D58" s="215" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="E58" s="179"/>
       <c r="F58" s="227">
@@ -16810,13 +16279,13 @@
     </row>
     <row r="59" spans="2:11">
       <c r="B59" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C59" s="177" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D59" s="178" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E59" s="179"/>
       <c r="F59" s="184">
@@ -16840,13 +16309,13 @@
     </row>
     <row r="60" spans="2:11">
       <c r="B60" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C60" s="177" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D60" s="178" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E60" s="179"/>
       <c r="F60" s="184">
@@ -16870,13 +16339,13 @@
     </row>
     <row r="61" spans="2:11">
       <c r="B61" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C61" s="177" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D61" s="178" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E61" s="179"/>
       <c r="F61" s="184">
@@ -16900,13 +16369,13 @@
     </row>
     <row r="62" spans="2:11" ht="13.5" thickBot="1">
       <c r="B62" s="218" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C62" s="219" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D62" s="220" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E62" s="221"/>
       <c r="F62" s="222">
@@ -16930,13 +16399,13 @@
     </row>
     <row r="63" spans="2:11">
       <c r="B63" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C63" s="63" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D63" s="178" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="E63" s="179"/>
       <c r="F63" s="184">
@@ -16952,13 +16421,13 @@
     </row>
     <row r="64" spans="2:11">
       <c r="B64" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C64" s="63" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D64" s="178" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E64" s="179"/>
       <c r="F64" s="184">
@@ -16974,13 +16443,13 @@
     </row>
     <row r="65" spans="2:11">
       <c r="B65" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C65" s="63" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D65" s="178" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="E65" s="179"/>
       <c r="F65" s="184">
@@ -16996,13 +16465,13 @@
     </row>
     <row r="66" spans="2:11">
       <c r="B66" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C66" s="63" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D66" s="178" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E66" s="179"/>
       <c r="F66" s="184">
@@ -17018,13 +16487,13 @@
     </row>
     <row r="67" spans="2:11">
       <c r="B67" s="214" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C67" s="214" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D67" s="215" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E67" s="179"/>
       <c r="F67" s="227">
@@ -17048,13 +16517,13 @@
     </row>
     <row r="68" spans="2:11">
       <c r="B68" s="251" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C68" s="251" t="s">
+        <v>894</v>
+      </c>
+      <c r="D68" s="252" t="s">
         <v>893</v>
-      </c>
-      <c r="D68" s="252" t="s">
-        <v>892</v>
       </c>
       <c r="E68" s="135"/>
       <c r="F68" s="253">
@@ -17070,7 +16539,7 @@
     </row>
     <row r="69" spans="2:11">
       <c r="B69" s="91" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C69" s="92"/>
       <c r="D69" s="92"/>
@@ -17084,13 +16553,13 @@
     </row>
     <row r="70" spans="2:11">
       <c r="B70" s="214" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C70" s="67" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D70" s="228" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E70" s="179"/>
       <c r="F70" s="227">
@@ -17114,13 +16583,13 @@
     </row>
     <row r="71" spans="2:11" ht="13.5" thickBot="1">
       <c r="B71" s="218" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C71" s="219" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D71" s="229" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E71" s="221"/>
       <c r="F71" s="222">
@@ -17144,13 +16613,13 @@
     </row>
     <row r="72" spans="2:11">
       <c r="B72" s="214" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C72" s="214" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D72" s="228" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E72" s="179"/>
       <c r="F72" s="227">
@@ -17174,13 +16643,13 @@
     </row>
     <row r="73" spans="2:11">
       <c r="B73" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C73" s="63" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D73" s="185" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E73" s="179"/>
       <c r="F73" s="184">
@@ -17204,13 +16673,13 @@
     </row>
     <row r="74" spans="2:11">
       <c r="B74" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C74" s="63" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D74" s="185" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E74" s="179"/>
       <c r="F74" s="184">
@@ -17234,13 +16703,13 @@
     </row>
     <row r="75" spans="2:11">
       <c r="B75" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C75" s="63" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="D75" s="185" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E75" s="179"/>
       <c r="F75" s="184">
@@ -17254,13 +16723,13 @@
     </row>
     <row r="76" spans="2:11">
       <c r="B76" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C76" s="63" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D76" s="185" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E76" s="179"/>
       <c r="F76" s="186">
@@ -17284,13 +16753,13 @@
     </row>
     <row r="77" spans="2:11">
       <c r="B77" s="251" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C77" s="251" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D77" s="256" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E77" s="135"/>
       <c r="F77" s="257">
@@ -17306,7 +16775,7 @@
     </row>
     <row r="78" spans="2:11">
       <c r="B78" s="91" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C78" s="92"/>
       <c r="D78" s="92"/>
@@ -17320,13 +16789,13 @@
     </row>
     <row r="79" spans="2:11">
       <c r="B79" s="214" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C79" s="67" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D79" s="228" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E79" s="179"/>
       <c r="F79" s="227">
@@ -17367,10 +16836,10 @@
         <v>5</v>
       </c>
       <c r="C81" s="67" t="s">
+        <v>708</v>
+      </c>
+      <c r="D81" s="61" t="s">
         <v>707</v>
-      </c>
-      <c r="D81" s="61" t="s">
-        <v>706</v>
       </c>
       <c r="E81" s="104"/>
       <c r="F81" s="109"/>
@@ -17395,10 +16864,10 @@
         <v>5</v>
       </c>
       <c r="C82" s="67" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D82" s="61" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E82" s="104"/>
       <c r="F82" s="109"/>
@@ -17423,10 +16892,10 @@
         <v>5</v>
       </c>
       <c r="C83" s="67" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D83" s="61" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E83" s="104"/>
       <c r="F83" s="109"/>
@@ -17474,7 +16943,7 @@
         <v>75</v>
       </c>
       <c r="D85" s="61" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E85" s="104"/>
       <c r="F85" s="109"/>
@@ -17502,7 +16971,7 @@
         <v>93</v>
       </c>
       <c r="D86" s="61" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E86" s="104"/>
       <c r="F86" s="109"/>
@@ -17527,10 +16996,10 @@
         <v>5</v>
       </c>
       <c r="C87" s="60" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D87" s="61" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E87" s="104"/>
       <c r="F87" s="109"/>
@@ -17555,10 +17024,10 @@
         <v>5</v>
       </c>
       <c r="C88" s="60" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D88" s="61" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E88" s="104"/>
       <c r="F88" s="109"/>
@@ -17583,10 +17052,10 @@
         <v>38</v>
       </c>
       <c r="C89" s="60" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D89" s="61" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E89" s="104"/>
       <c r="F89" s="109"/>
@@ -17611,10 +17080,10 @@
         <v>38</v>
       </c>
       <c r="C90" s="60" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D90" s="61" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E90" s="104"/>
       <c r="F90" s="109"/>
@@ -17695,10 +17164,10 @@
         <v>5</v>
       </c>
       <c r="C94" s="33" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D94" s="153" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E94" s="104"/>
       <c r="F94" s="103"/>
@@ -17723,10 +17192,10 @@
         <v>5</v>
       </c>
       <c r="C95" s="33" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D95" s="153" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E95" s="104"/>
       <c r="F95" s="103"/>
@@ -17751,10 +17220,10 @@
         <v>5</v>
       </c>
       <c r="C96" s="33" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D96" s="153" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E96" s="104"/>
       <c r="F96" s="103"/>
@@ -17905,10 +17374,10 @@
         <v>5</v>
       </c>
       <c r="C102" s="60" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D102" s="90" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E102" s="104"/>
       <c r="F102" s="105"/>
@@ -17933,10 +17402,10 @@
         <v>5</v>
       </c>
       <c r="C103" s="60" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D103" s="90" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E103" s="104"/>
       <c r="F103" s="105"/>
@@ -17961,10 +17430,10 @@
         <v>5</v>
       </c>
       <c r="C104" s="60" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D104" s="90" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E104" s="104"/>
       <c r="F104" s="105"/>
@@ -18003,10 +17472,10 @@
         <v>5</v>
       </c>
       <c r="C106" s="59" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D106" s="59" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E106" s="104"/>
       <c r="F106" s="105"/>
@@ -18031,10 +17500,10 @@
         <v>5</v>
       </c>
       <c r="C107" s="59" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D107" s="59" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E107" s="104"/>
       <c r="F107" s="105"/>
@@ -18059,10 +17528,10 @@
         <v>5</v>
       </c>
       <c r="C108" s="59" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D108" s="59" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E108" s="104"/>
       <c r="F108" s="105"/>
@@ -18087,10 +17556,10 @@
         <v>5</v>
       </c>
       <c r="C109" s="59" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D109" s="59" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E109" s="104"/>
       <c r="F109" s="105"/>
@@ -18115,10 +17584,10 @@
         <v>5</v>
       </c>
       <c r="C110" s="68" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D110" s="59" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E110" s="104"/>
       <c r="F110" s="105"/>
@@ -18143,10 +17612,10 @@
         <v>5</v>
       </c>
       <c r="C111" s="68" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D111" s="59" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E111" s="104"/>
       <c r="F111" s="105"/>
@@ -18171,10 +17640,10 @@
         <v>5</v>
       </c>
       <c r="C112" s="68" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D112" s="59" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E112" s="104"/>
       <c r="F112" s="105"/>
@@ -18199,10 +17668,10 @@
         <v>5</v>
       </c>
       <c r="C113" s="59" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D113" s="59" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E113" s="104"/>
       <c r="F113" s="105"/>
@@ -18227,10 +17696,10 @@
         <v>5</v>
       </c>
       <c r="C114" s="59" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D114" s="59" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="E114" s="104"/>
       <c r="F114" s="105"/>
@@ -18255,10 +17724,10 @@
         <v>5</v>
       </c>
       <c r="C115" s="68" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D115" s="59" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="E115" s="104"/>
       <c r="F115" s="105"/>
@@ -18283,10 +17752,10 @@
         <v>5</v>
       </c>
       <c r="C116" s="59" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D116" s="59" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E116" s="104"/>
       <c r="F116" s="105"/>
@@ -18443,10 +17912,10 @@
         <v>5</v>
       </c>
       <c r="C122" s="58" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D122" s="58" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E122" s="104"/>
       <c r="F122" s="105"/>
@@ -18471,10 +17940,10 @@
         <v>5</v>
       </c>
       <c r="C123" s="59" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D123" s="59" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E123" s="104"/>
       <c r="F123" s="105"/>
@@ -18499,10 +17968,10 @@
         <v>5</v>
       </c>
       <c r="C124" s="59" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D124" s="59" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E124" s="104"/>
       <c r="F124" s="105"/>
@@ -18527,10 +17996,10 @@
         <v>5</v>
       </c>
       <c r="C125" s="59" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D125" s="59" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="E125" s="104"/>
       <c r="F125" s="105"/>
@@ -18555,10 +18024,10 @@
         <v>38</v>
       </c>
       <c r="C126" s="58" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D126" s="58" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E126" s="104"/>
       <c r="F126" s="105"/>
@@ -18583,10 +18052,10 @@
         <v>38</v>
       </c>
       <c r="C127" s="58" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D127" s="58" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E127" s="104"/>
       <c r="F127" s="105"/>
@@ -18622,7 +18091,7 @@
     </row>
     <row r="129" spans="2:11">
       <c r="B129" s="127" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C129" s="122"/>
       <c r="D129" s="123"/>
@@ -18639,10 +18108,10 @@
         <v>5</v>
       </c>
       <c r="C130" s="126" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D130" s="62" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E130" s="104"/>
       <c r="F130" s="77"/>
@@ -18667,10 +18136,10 @@
         <v>5</v>
       </c>
       <c r="C131" s="126" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D131" s="62" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E131" s="104"/>
       <c r="F131" s="77"/>
@@ -18693,10 +18162,10 @@
         <v>5</v>
       </c>
       <c r="C132" s="126" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D132" s="62" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E132" s="104"/>
       <c r="F132" s="77"/>
@@ -18721,10 +18190,10 @@
         <v>5</v>
       </c>
       <c r="C133" s="126" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D133" s="62" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E133" s="104"/>
       <c r="F133" s="77"/>
@@ -18749,10 +18218,10 @@
         <v>5</v>
       </c>
       <c r="C134" s="126" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D134" s="62" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E134" s="104"/>
       <c r="F134" s="77"/>
@@ -18777,10 +18246,10 @@
         <v>5</v>
       </c>
       <c r="C135" s="126" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D135" s="62" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="E135" s="104"/>
       <c r="F135" s="77"/>
@@ -18803,10 +18272,10 @@
         <v>5</v>
       </c>
       <c r="C136" s="126" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D136" s="62" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E136" s="104"/>
       <c r="F136" s="77"/>
@@ -18831,10 +18300,10 @@
         <v>5</v>
       </c>
       <c r="C137" s="126" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D137" s="62" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E137" s="104"/>
       <c r="F137" s="77"/>
@@ -18859,10 +18328,10 @@
         <v>5</v>
       </c>
       <c r="C138" s="126" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D138" s="62" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E138" s="104"/>
       <c r="F138" s="77"/>
@@ -18887,10 +18356,10 @@
         <v>5</v>
       </c>
       <c r="C139" s="126" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D139" s="62" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E139" s="104"/>
       <c r="F139" s="77"/>
@@ -18907,10 +18376,10 @@
         <v>5</v>
       </c>
       <c r="C140" s="126" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D140" s="62" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E140" s="104"/>
       <c r="F140" s="77"/>
@@ -18927,10 +18396,10 @@
         <v>5</v>
       </c>
       <c r="C141" s="126" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D141" s="62" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E141" s="104"/>
       <c r="F141" s="77"/>
@@ -18947,10 +18416,10 @@
         <v>5</v>
       </c>
       <c r="C142" s="126" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D142" s="62" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E142" s="104"/>
       <c r="F142" s="77"/>
@@ -18967,10 +18436,10 @@
         <v>5</v>
       </c>
       <c r="C143" s="126" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D143" s="62" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E143" s="104"/>
       <c r="F143" s="77"/>
@@ -18987,10 +18456,10 @@
         <v>5</v>
       </c>
       <c r="C144" s="126" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D144" s="62" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E144" s="104"/>
       <c r="F144" s="77"/>
@@ -19007,10 +18476,10 @@
         <v>5</v>
       </c>
       <c r="C145" s="126" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D145" s="62" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E145" s="104"/>
       <c r="F145" s="77"/>
@@ -19035,10 +18504,10 @@
         <v>5</v>
       </c>
       <c r="C146" s="126" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D146" s="62" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E146" s="104"/>
       <c r="F146" s="77"/>
@@ -19063,10 +18532,10 @@
         <v>5</v>
       </c>
       <c r="C147" s="126" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D147" s="62" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E147" s="104"/>
       <c r="F147" s="77"/>
@@ -19091,10 +18560,10 @@
         <v>5</v>
       </c>
       <c r="C148" s="126" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D148" s="62" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E148" s="104"/>
       <c r="F148" s="77"/>
@@ -19119,10 +18588,10 @@
         <v>5</v>
       </c>
       <c r="C149" s="126" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D149" s="62" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="E149" s="104"/>
       <c r="F149" s="77"/>
@@ -19147,10 +18616,10 @@
         <v>5</v>
       </c>
       <c r="C150" s="126" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D150" s="62" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E150" s="104"/>
       <c r="F150" s="77"/>
@@ -19175,10 +18644,10 @@
         <v>5</v>
       </c>
       <c r="C151" s="126" t="s">
+        <v>864</v>
+      </c>
+      <c r="D151" s="62" t="s">
         <v>863</v>
-      </c>
-      <c r="D151" s="62" t="s">
-        <v>862</v>
       </c>
       <c r="E151" s="104"/>
       <c r="F151" s="77"/>
@@ -19203,10 +18672,10 @@
         <v>5</v>
       </c>
       <c r="C152" s="126" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D152" s="62" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="E152" s="104"/>
       <c r="F152" s="77"/>
@@ -19231,10 +18700,10 @@
         <v>5</v>
       </c>
       <c r="C153" s="126" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D153" s="62" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="E153" s="104"/>
       <c r="F153" s="77"/>
@@ -19273,10 +18742,10 @@
         <v>38</v>
       </c>
       <c r="C155" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="D155" s="58" t="s">
         <v>233</v>
-      </c>
-      <c r="D155" s="58" t="s">
-        <v>232</v>
       </c>
       <c r="E155" s="104"/>
       <c r="F155" s="77"/>
@@ -19329,7 +18798,7 @@
         <v>5</v>
       </c>
       <c r="C157" s="59" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D157" s="58" t="s">
         <v>62</v>
@@ -19385,7 +18854,7 @@
         <v>5</v>
       </c>
       <c r="C159" s="59" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D159" s="59" t="s">
         <v>64</v>
@@ -19413,10 +18882,10 @@
         <v>5</v>
       </c>
       <c r="C160" s="59" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D160" s="58" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E160" s="104"/>
       <c r="F160" s="77"/>
@@ -19433,10 +18902,10 @@
         <v>5</v>
       </c>
       <c r="C161" s="59" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D161" s="58" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E161" s="104"/>
       <c r="F161" s="77"/>
@@ -19461,10 +18930,10 @@
         <v>38</v>
       </c>
       <c r="C162" s="59" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D162" s="58" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="E162" s="104"/>
       <c r="F162" s="77"/>
@@ -19489,10 +18958,10 @@
         <v>38</v>
       </c>
       <c r="C163" s="59" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D163" s="58" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E163" s="104"/>
       <c r="F163" s="77"/>
@@ -19517,10 +18986,10 @@
         <v>38</v>
       </c>
       <c r="C164" s="59" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D164" s="58" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E164" s="104"/>
       <c r="F164" s="77"/>
@@ -19579,7 +19048,7 @@
         <v>5</v>
       </c>
       <c r="C167" s="59" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D167" s="58" t="s">
         <v>69</v>
@@ -19635,7 +19104,7 @@
         <v>5</v>
       </c>
       <c r="C169" s="59" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D169" s="58" t="s">
         <v>70</v>
@@ -19663,10 +19132,10 @@
         <v>5</v>
       </c>
       <c r="C170" s="59" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D170" s="58" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E170" s="104"/>
       <c r="F170" s="77"/>
@@ -19691,10 +19160,10 @@
         <v>5</v>
       </c>
       <c r="C171" s="59" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D171" s="58" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E171" s="104"/>
       <c r="F171" s="77"/>
@@ -19719,10 +19188,10 @@
         <v>5</v>
       </c>
       <c r="C172" s="59" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D172" s="58" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E172" s="104"/>
       <c r="F172" s="77"/>
@@ -19739,10 +19208,10 @@
         <v>38</v>
       </c>
       <c r="C173" s="59" t="s">
+        <v>794</v>
+      </c>
+      <c r="D173" s="58" t="s">
         <v>793</v>
-      </c>
-      <c r="D173" s="58" t="s">
-        <v>792</v>
       </c>
       <c r="E173" s="104"/>
       <c r="F173" s="77"/>
@@ -19767,10 +19236,10 @@
         <v>38</v>
       </c>
       <c r="C174" s="59" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D174" s="58" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E174" s="104"/>
       <c r="F174" s="77"/>
@@ -19795,10 +19264,10 @@
         <v>38</v>
       </c>
       <c r="C175" s="59" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D175" s="58" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E175" s="104"/>
       <c r="F175" s="77"/>
@@ -19815,10 +19284,10 @@
         <v>38</v>
       </c>
       <c r="C176" s="59" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D176" s="58" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E176" s="104"/>
       <c r="F176" s="77"/>
@@ -19835,10 +19304,10 @@
         <v>38</v>
       </c>
       <c r="C177" s="59" t="s">
+        <v>694</v>
+      </c>
+      <c r="D177" s="58" t="s">
         <v>693</v>
-      </c>
-      <c r="D177" s="58" t="s">
-        <v>692</v>
       </c>
       <c r="E177" s="104"/>
       <c r="F177" s="77"/>
@@ -19852,7 +19321,7 @@
     </row>
     <row r="178" spans="2:11">
       <c r="B178" s="129" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C178" s="130"/>
       <c r="D178" s="130"/>
@@ -19897,10 +19366,10 @@
         <v>38</v>
       </c>
       <c r="C180" s="126" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D180" s="72" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E180" s="104"/>
       <c r="F180" s="77"/>
@@ -19925,10 +19394,10 @@
         <v>5</v>
       </c>
       <c r="C181" s="59" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D181" s="71" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E181" s="104"/>
       <c r="F181" s="77"/>
@@ -19953,10 +19422,10 @@
         <v>5</v>
       </c>
       <c r="C182" s="59" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D182" s="71" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E182" s="104"/>
       <c r="F182" s="77"/>
@@ -19981,10 +19450,10 @@
         <v>5</v>
       </c>
       <c r="C183" s="59" t="s">
+        <v>774</v>
+      </c>
+      <c r="D183" s="71" t="s">
         <v>773</v>
-      </c>
-      <c r="D183" s="71" t="s">
-        <v>772</v>
       </c>
       <c r="E183" s="104"/>
       <c r="F183" s="77"/>
@@ -20009,10 +19478,10 @@
         <v>5</v>
       </c>
       <c r="C184" s="59" t="s">
+        <v>912</v>
+      </c>
+      <c r="D184" s="71" t="s">
         <v>911</v>
-      </c>
-      <c r="D184" s="71" t="s">
-        <v>910</v>
       </c>
       <c r="E184" s="104"/>
       <c r="F184" s="77"/>
@@ -20037,10 +19506,10 @@
         <v>5</v>
       </c>
       <c r="C185" s="59" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D185" s="58" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E185" s="104"/>
       <c r="F185" s="77"/>
@@ -20065,7 +19534,7 @@
         <v>5</v>
       </c>
       <c r="C186" s="59" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D186" s="58" t="s">
         <v>106</v>
@@ -20093,10 +19562,10 @@
         <v>5</v>
       </c>
       <c r="C187" s="59" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D187" s="58" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E187" s="104"/>
       <c r="F187" s="77"/>
@@ -20121,10 +19590,10 @@
         <v>5</v>
       </c>
       <c r="C188" s="59" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D188" s="58" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E188" s="104"/>
       <c r="F188" s="77"/>
@@ -20146,7 +19615,7 @@
     </row>
     <row r="189" spans="2:11">
       <c r="B189" s="102" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C189" s="97"/>
       <c r="D189" s="97"/>
@@ -20247,10 +19716,10 @@
         <v>38</v>
       </c>
       <c r="C193" s="60" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D193" s="59" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E193" s="104"/>
       <c r="F193" s="105"/>
@@ -20275,10 +19744,10 @@
         <v>38</v>
       </c>
       <c r="C194" s="60" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D194" s="59" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E194" s="104"/>
       <c r="F194" s="105"/>
@@ -20303,10 +19772,10 @@
         <v>5</v>
       </c>
       <c r="C195" s="95" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D195" s="59" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E195" s="104"/>
       <c r="F195" s="77"/>
@@ -20331,10 +19800,10 @@
         <v>5</v>
       </c>
       <c r="C196" s="95" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D196" s="59" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E196" s="104"/>
       <c r="F196" s="77"/>
@@ -20359,10 +19828,10 @@
         <v>5</v>
       </c>
       <c r="C197" s="95" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D197" s="59" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="E197" s="104"/>
       <c r="F197" s="77"/>
@@ -20384,7 +19853,7 @@
     </row>
     <row r="198" spans="2:11">
       <c r="B198" s="91" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C198" s="92"/>
       <c r="D198" s="92"/>
@@ -20499,10 +19968,10 @@
         <v>5</v>
       </c>
       <c r="C203" s="59" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D203" s="59" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E203" s="104"/>
       <c r="F203" s="77"/>
@@ -20611,10 +20080,10 @@
         <v>5</v>
       </c>
       <c r="C207" s="90" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D207" s="59" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E207" s="104"/>
       <c r="F207" s="77"/>
@@ -20710,7 +20179,7 @@
         <v>122</v>
       </c>
       <c r="D211" s="59" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E211" s="104"/>
       <c r="F211" s="77"/>
@@ -20735,10 +20204,10 @@
         <v>5</v>
       </c>
       <c r="C212" s="59" t="s">
+        <v>720</v>
+      </c>
+      <c r="D212" s="59" t="s">
         <v>719</v>
-      </c>
-      <c r="D212" s="59" t="s">
-        <v>718</v>
       </c>
       <c r="E212" s="104"/>
       <c r="F212" s="77"/>
@@ -20763,10 +20232,10 @@
         <v>5</v>
       </c>
       <c r="C213" s="59" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D213" s="59" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E213" s="104"/>
       <c r="F213" s="77"/>
@@ -20791,10 +20260,10 @@
         <v>5</v>
       </c>
       <c r="C214" s="59" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D214" s="59" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E214" s="104"/>
       <c r="F214" s="77"/>
@@ -20819,10 +20288,10 @@
         <v>5</v>
       </c>
       <c r="C215" s="59" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D215" s="59" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E215" s="104"/>
       <c r="F215" s="77"/>
@@ -20847,10 +20316,10 @@
         <v>5</v>
       </c>
       <c r="C216" s="59" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D216" s="59" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E216" s="104"/>
       <c r="F216" s="77"/>
@@ -20875,10 +20344,10 @@
         <v>5</v>
       </c>
       <c r="C217" s="59" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D217" s="59" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E217" s="104"/>
       <c r="F217" s="77"/>
@@ -20903,10 +20372,10 @@
         <v>5</v>
       </c>
       <c r="C218" s="59" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D218" s="59" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="E218" s="104"/>
       <c r="F218" s="77"/>
@@ -20923,10 +20392,10 @@
         <v>5</v>
       </c>
       <c r="C219" s="59" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D219" s="59" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E219" s="104"/>
       <c r="F219" s="77"/>
@@ -20951,10 +20420,10 @@
         <v>5</v>
       </c>
       <c r="C220" s="59" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D220" s="59" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E220" s="104"/>
       <c r="F220" s="77"/>
@@ -20971,10 +20440,10 @@
         <v>5</v>
       </c>
       <c r="C221" s="59" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D221" s="59" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="E221" s="104"/>
       <c r="F221" s="77"/>
@@ -20991,10 +20460,10 @@
         <v>5</v>
       </c>
       <c r="C222" s="59" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D222" s="59" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E222" s="104"/>
       <c r="F222" s="77"/>
@@ -21007,7 +20476,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E9:E214" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="E9:E214"/>
   <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B10:D10"/>
@@ -21022,7 +20491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -21069,17 +20538,17 @@
     </row>
     <row r="5" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A5" s="318" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B5" s="318"/>
       <c r="C5" s="198" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D5" s="189"/>
     </row>
     <row r="6" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A6" s="199" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B6" s="200"/>
       <c r="C6" s="200"/>
@@ -21087,7 +20556,7 @@
     </row>
     <row r="7" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A7" s="201" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B7" s="202"/>
       <c r="C7" s="203"/>
@@ -21096,46 +20565,46 @@
     <row r="8" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A8" s="314"/>
       <c r="B8" s="204" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C8" s="205" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D8" s="189"/>
     </row>
     <row r="9" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A9" s="314"/>
       <c r="B9" s="204" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C9" s="205" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D9" s="189"/>
     </row>
     <row r="10" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A10" s="314"/>
       <c r="B10" s="204" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C10" s="205" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D10" s="189"/>
     </row>
     <row r="11" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A11" s="314"/>
       <c r="B11" s="204" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C11" s="205" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D11" s="189"/>
     </row>
     <row r="12" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A12" s="201" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B12" s="201"/>
       <c r="C12" s="201"/>
@@ -21144,36 +20613,36 @@
     <row r="13" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A13" s="320"/>
       <c r="B13" s="206" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C13" s="205" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D13" s="189"/>
     </row>
     <row r="14" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A14" s="321"/>
       <c r="B14" s="206" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C14" s="205" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D14" s="189"/>
     </row>
     <row r="15" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A15" s="322"/>
       <c r="B15" s="206" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C15" s="205" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D15" s="189"/>
     </row>
     <row r="16" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A16" s="201" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B16" s="201"/>
       <c r="C16" s="201"/>
@@ -21182,46 +20651,46 @@
     <row r="17" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A17" s="323"/>
       <c r="B17" s="206" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C17" s="205" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D17" s="189"/>
     </row>
     <row r="18" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
       <c r="A18" s="324"/>
       <c r="B18" s="206" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C18" s="205" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D18" s="189"/>
     </row>
     <row r="19" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A19" s="324"/>
       <c r="B19" s="206" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C19" s="205" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D19" s="189"/>
     </row>
     <row r="20" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A20" s="325"/>
       <c r="B20" s="206" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C20" s="205" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D20" s="189"/>
     </row>
     <row r="21" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A21" s="201" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B21" s="201"/>
       <c r="C21" s="201"/>
@@ -21230,76 +20699,76 @@
     <row r="22" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A22" s="319"/>
       <c r="B22" s="206" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C22" s="206" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D22" s="189"/>
     </row>
     <row r="23" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A23" s="319"/>
       <c r="B23" s="206" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C23" s="205" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D23" s="189"/>
     </row>
     <row r="24" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A24" s="319"/>
       <c r="B24" s="206" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C24" s="205" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D24" s="189"/>
     </row>
     <row r="25" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A25" s="319"/>
       <c r="B25" s="206" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C25" s="205" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D25" s="189"/>
     </row>
     <row r="26" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A26" s="319"/>
       <c r="B26" s="206" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C26" s="205" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D26" s="189"/>
     </row>
     <row r="27" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A27" s="319"/>
       <c r="B27" s="206" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C27" s="205" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D27" s="189"/>
     </row>
     <row r="28" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A28" s="319"/>
       <c r="B28" s="206" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C28" s="205" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D28" s="189"/>
     </row>
     <row r="29" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A29" s="201" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B29" s="201"/>
       <c r="C29" s="201"/>
@@ -21308,56 +20777,56 @@
     <row r="30" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A30" s="319"/>
       <c r="B30" s="206" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C30" s="206" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D30" s="189"/>
     </row>
     <row r="31" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A31" s="319"/>
       <c r="B31" s="206" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C31" s="205" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D31" s="189"/>
     </row>
     <row r="32" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A32" s="319"/>
       <c r="B32" s="206" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C32" s="205" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D32" s="189"/>
     </row>
     <row r="33" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
       <c r="A33" s="319"/>
       <c r="B33" s="206" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C33" s="205" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D33" s="189"/>
     </row>
     <row r="34" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A34" s="319"/>
       <c r="B34" s="206" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C34" s="205" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D34" s="189"/>
     </row>
     <row r="35" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A35" s="199" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B35" s="200"/>
       <c r="C35" s="200"/>
@@ -21365,7 +20834,7 @@
     </row>
     <row r="36" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A36" s="201" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B36" s="201"/>
       <c r="C36" s="201"/>
@@ -21374,36 +20843,36 @@
     <row r="37" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A37" s="326"/>
       <c r="B37" s="204" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C37" s="205" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D37" s="189"/>
     </row>
     <row r="38" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A38" s="326"/>
       <c r="B38" s="204" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C38" s="205" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D38" s="189"/>
     </row>
     <row r="39" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A39" s="326"/>
       <c r="B39" s="204" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C39" s="205" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D39" s="189"/>
     </row>
     <row r="40" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A40" s="201" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B40" s="201"/>
       <c r="C40" s="201"/>
@@ -21412,26 +20881,26 @@
     <row r="41" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A41" s="326"/>
       <c r="B41" s="204" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C41" s="205" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D41" s="189"/>
     </row>
     <row r="42" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A42" s="326"/>
       <c r="B42" s="204" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C42" s="205" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D42" s="189"/>
     </row>
     <row r="43" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A43" s="201" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B43" s="201"/>
       <c r="C43" s="201"/>
@@ -21440,46 +20909,46 @@
     <row r="44" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A44" s="326"/>
       <c r="B44" s="204" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C44" s="205" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D44" s="189"/>
     </row>
     <row r="45" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A45" s="326"/>
       <c r="B45" s="204" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C45" s="205" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D45" s="189"/>
     </row>
     <row r="46" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A46" s="326"/>
       <c r="B46" s="204" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C46" s="205" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D46" s="189"/>
     </row>
     <row r="47" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A47" s="326"/>
       <c r="B47" s="204" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C47" s="205" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D47" s="189"/>
     </row>
     <row r="48" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A48" s="201" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B48" s="201"/>
       <c r="C48" s="201"/>
@@ -21488,46 +20957,46 @@
     <row r="49" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A49" s="326"/>
       <c r="B49" s="204" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C49" s="205" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D49" s="189"/>
     </row>
     <row r="50" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A50" s="326"/>
       <c r="B50" s="204" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C50" s="205" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D50" s="189"/>
     </row>
     <row r="51" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A51" s="326"/>
       <c r="B51" s="204" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C51" s="205" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D51" s="189"/>
     </row>
     <row r="52" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
       <c r="A52" s="326"/>
       <c r="B52" s="204" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C52" s="205" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D52" s="189"/>
     </row>
     <row r="53" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A53" s="201" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B53" s="201"/>
       <c r="C53" s="201"/>
@@ -21536,36 +21005,36 @@
     <row r="54" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A54" s="326"/>
       <c r="B54" s="204" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C54" s="205" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D54" s="189"/>
     </row>
     <row r="55" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A55" s="326"/>
       <c r="B55" s="204" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C55" s="205" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D55" s="189"/>
     </row>
     <row r="56" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A56" s="326"/>
       <c r="B56" s="204" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C56" s="205" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D56" s="189"/>
     </row>
     <row r="57" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A57" s="201" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B57" s="201"/>
       <c r="C57" s="201"/>
@@ -21574,56 +21043,56 @@
     <row r="58" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
       <c r="A58" s="319"/>
       <c r="B58" s="206" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C58" s="206" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D58" s="189"/>
     </row>
     <row r="59" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A59" s="319"/>
       <c r="B59" s="206" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C59" s="205" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D59" s="189"/>
     </row>
     <row r="60" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A60" s="319"/>
       <c r="B60" s="206" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C60" s="205" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D60" s="189"/>
     </row>
     <row r="61" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A61" s="319"/>
       <c r="B61" s="206" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C61" s="205" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D61" s="189"/>
     </row>
     <row r="62" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A62" s="319"/>
       <c r="B62" s="206" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C62" s="205" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D62" s="189"/>
     </row>
     <row r="63" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A63" s="201" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B63" s="201"/>
       <c r="C63" s="201"/>
@@ -21632,66 +21101,66 @@
     <row r="64" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A64" s="319"/>
       <c r="B64" s="206" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C64" s="206" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D64" s="189"/>
     </row>
     <row r="65" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A65" s="319"/>
       <c r="B65" s="206" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C65" s="205" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D65" s="189"/>
     </row>
     <row r="66" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A66" s="319"/>
       <c r="B66" s="206" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C66" s="205" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D66" s="189"/>
     </row>
     <row r="67" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
       <c r="A67" s="319"/>
       <c r="B67" s="206" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C67" s="205" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D67" s="189"/>
     </row>
     <row r="68" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A68" s="319"/>
       <c r="B68" s="206" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C68" s="205" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D68" s="189"/>
     </row>
     <row r="69" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A69" s="319"/>
       <c r="B69" s="206" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C69" s="205" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D69" s="189"/>
     </row>
     <row r="70" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A70" s="199" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B70" s="200"/>
       <c r="C70" s="200"/>
@@ -21699,7 +21168,7 @@
     </row>
     <row r="71" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A71" s="201" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B71" s="201"/>
       <c r="C71" s="201"/>
@@ -21708,10 +21177,10 @@
     <row r="72" spans="1:4" s="190" customFormat="1" ht="12.75" customHeight="1">
       <c r="A72" s="319"/>
       <c r="B72" s="206" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C72" s="206" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D72" s="189"/>
     </row>
@@ -21721,7 +21190,7 @@
         <v>59</v>
       </c>
       <c r="C73" s="205" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D73" s="189"/>
     </row>
@@ -21731,7 +21200,7 @@
         <v>58</v>
       </c>
       <c r="C74" s="205" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D74" s="189"/>
     </row>
@@ -21741,23 +21210,23 @@
         <v>57</v>
       </c>
       <c r="C75" s="207" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D75" s="189"/>
     </row>
     <row r="76" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A76" s="319"/>
       <c r="B76" s="206" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C76" s="207" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D76" s="189"/>
     </row>
     <row r="77" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A77" s="201" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B77" s="201"/>
       <c r="C77" s="201"/>
@@ -21766,20 +21235,20 @@
     <row r="78" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A78" s="330"/>
       <c r="B78" s="206" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C78" s="205" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D78" s="189"/>
     </row>
     <row r="79" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A79" s="330"/>
       <c r="B79" s="206" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C79" s="205" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D79" s="189"/>
     </row>
@@ -21789,43 +21258,43 @@
         <v>81</v>
       </c>
       <c r="C80" s="205" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D80" s="189"/>
     </row>
     <row r="81" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
       <c r="A81" s="330"/>
       <c r="B81" s="206" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C81" s="205" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D81" s="189"/>
     </row>
     <row r="82" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A82" s="326"/>
       <c r="B82" s="206" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C82" s="205" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D82" s="189"/>
     </row>
     <row r="83" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A83" s="326"/>
       <c r="B83" s="206" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C83" s="205" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D83" s="189"/>
     </row>
     <row r="84" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A84" s="201" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B84" s="201"/>
       <c r="C84" s="201"/>
@@ -21837,7 +21306,7 @@
         <v>87</v>
       </c>
       <c r="C85" s="205" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D85" s="189"/>
     </row>
@@ -21847,17 +21316,17 @@
         <v>86</v>
       </c>
       <c r="C86" s="205" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D86" s="189"/>
     </row>
     <row r="87" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A87" s="330"/>
       <c r="B87" s="206" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C87" s="205" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D87" s="189"/>
     </row>
@@ -21867,7 +21336,7 @@
         <v>85</v>
       </c>
       <c r="C88" s="205" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D88" s="189"/>
     </row>
@@ -21877,7 +21346,7 @@
         <v>84</v>
       </c>
       <c r="C89" s="205" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D89" s="189"/>
     </row>
@@ -21887,7 +21356,7 @@
         <v>83</v>
       </c>
       <c r="C90" s="205" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D90" s="189"/>
     </row>
@@ -21897,33 +21366,33 @@
         <v>82</v>
       </c>
       <c r="C91" s="205" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D91" s="189"/>
     </row>
     <row r="92" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A92" s="330"/>
       <c r="B92" s="206" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C92" s="205" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D92" s="189"/>
     </row>
     <row r="93" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A93" s="330"/>
       <c r="B93" s="206" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C93" s="205" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D93" s="189"/>
     </row>
     <row r="94" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A94" s="201" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B94" s="201"/>
       <c r="C94" s="201"/>
@@ -21932,56 +21401,56 @@
     <row r="95" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
       <c r="A95" s="330"/>
       <c r="B95" s="206" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C95" s="205" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D95" s="189"/>
     </row>
     <row r="96" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A96" s="330"/>
       <c r="B96" s="206" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C96" s="205" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D96" s="189"/>
     </row>
     <row r="97" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A97" s="330"/>
       <c r="B97" s="206" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C97" s="205" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D97" s="189"/>
     </row>
     <row r="98" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A98" s="330"/>
       <c r="B98" s="206" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C98" s="205" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D98" s="189"/>
     </row>
     <row r="99" spans="1:4" s="190" customFormat="1" ht="38.25" customHeight="1">
       <c r="A99" s="330"/>
       <c r="B99" s="206" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C99" s="205" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D99" s="189"/>
     </row>
     <row r="100" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A100" s="201" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B100" s="201"/>
       <c r="C100" s="201"/>
@@ -21990,10 +21459,10 @@
     <row r="101" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A101" s="314"/>
       <c r="B101" s="206" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C101" s="205" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D101" s="189"/>
     </row>
@@ -22003,13 +21472,13 @@
         <v>88</v>
       </c>
       <c r="C102" s="205" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D102" s="189"/>
     </row>
     <row r="103" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A103" s="199" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B103" s="200"/>
       <c r="C103" s="200"/>
@@ -22017,7 +21486,7 @@
     </row>
     <row r="104" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A104" s="201" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B104" s="201"/>
       <c r="C104" s="201"/>
@@ -22029,7 +21498,7 @@
         <v>66</v>
       </c>
       <c r="C105" s="205" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D105" s="189"/>
     </row>
@@ -22039,43 +21508,43 @@
         <v>65</v>
       </c>
       <c r="C106" s="205" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D106" s="189"/>
     </row>
     <row r="107" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A107" s="334"/>
       <c r="B107" s="206" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C107" s="205" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D107" s="189"/>
     </row>
     <row r="108" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A108" s="334"/>
       <c r="B108" s="206" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C108" s="205" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D108" s="189"/>
     </row>
     <row r="109" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
       <c r="A109" s="335"/>
       <c r="B109" s="206" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C109" s="205" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D109" s="189"/>
     </row>
     <row r="110" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
       <c r="A110" s="201" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B110" s="201"/>
       <c r="C110" s="201"/>
@@ -22084,26 +21553,26 @@
     <row r="111" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
       <c r="A111" s="314"/>
       <c r="B111" s="208" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C111" s="205" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D111" s="189"/>
     </row>
     <row r="112" spans="1:4" s="190" customFormat="1" ht="38.25" customHeight="1">
       <c r="A112" s="314"/>
       <c r="B112" s="206" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C112" s="205" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D112" s="189"/>
     </row>
     <row r="113" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A113" s="199" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B113" s="200"/>
       <c r="C113" s="200"/>
@@ -22111,7 +21580,7 @@
     </row>
     <row r="114" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A114" s="201" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B114" s="201"/>
       <c r="C114" s="201"/>
@@ -22120,10 +21589,10 @@
     <row r="115" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A115" s="327"/>
       <c r="B115" s="206" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C115" s="206" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D115" s="189"/>
     </row>
@@ -22153,7 +21622,7 @@
     </row>
     <row r="120" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A120" s="199" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B120" s="200"/>
       <c r="C120" s="200"/>
@@ -22161,7 +21630,7 @@
     </row>
     <row r="121" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A121" s="201" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B121" s="202"/>
       <c r="C121" s="203"/>
@@ -22170,76 +21639,76 @@
     <row r="122" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
       <c r="A122" s="314"/>
       <c r="B122" s="204" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C122" s="205" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D122" s="189"/>
     </row>
     <row r="123" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
       <c r="A123" s="314"/>
       <c r="B123" s="204" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C123" s="205" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D123" s="189"/>
     </row>
     <row r="124" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
       <c r="A124" s="314"/>
       <c r="B124" s="204" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C124" s="205" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D124" s="189"/>
     </row>
     <row r="125" spans="1:4" s="190" customFormat="1" ht="38.25" customHeight="1">
       <c r="A125" s="314"/>
       <c r="B125" s="204" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C125" s="205" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D125" s="189"/>
     </row>
     <row r="126" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A126" s="314"/>
       <c r="B126" s="204" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C126" s="205" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D126" s="189"/>
     </row>
     <row r="127" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A127" s="314"/>
       <c r="B127" s="204" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C127" s="205" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D127" s="189"/>
     </row>
     <row r="128" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A128" s="314"/>
       <c r="B128" s="204" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C128" s="205" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D128" s="189"/>
     </row>
     <row r="129" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A129" s="201" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B129" s="202"/>
       <c r="C129" s="203"/>
@@ -22248,66 +21717,66 @@
     <row r="130" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A130" s="314"/>
       <c r="B130" s="204" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C130" s="205" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D130" s="189"/>
     </row>
     <row r="131" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
       <c r="A131" s="314"/>
       <c r="B131" s="204" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C131" s="205" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D131" s="189"/>
     </row>
     <row r="132" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
       <c r="A132" s="314"/>
       <c r="B132" s="204" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C132" s="205" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D132" s="189"/>
     </row>
     <row r="133" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A133" s="314"/>
       <c r="B133" s="204" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C133" s="205" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D133" s="189"/>
     </row>
     <row r="134" spans="1:4" s="190" customFormat="1" ht="25.5" customHeight="1">
       <c r="A134" s="314"/>
       <c r="B134" s="204" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C134" s="205" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D134" s="189"/>
     </row>
     <row r="135" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A135" s="314"/>
       <c r="B135" s="204" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C135" s="205" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D135" s="189"/>
     </row>
     <row r="136" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A136" s="201" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B136" s="202"/>
       <c r="C136" s="203"/>
@@ -22316,66 +21785,66 @@
     <row r="137" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A137" s="314"/>
       <c r="B137" s="204" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C137" s="205" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D137" s="189"/>
     </row>
     <row r="138" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A138" s="314"/>
       <c r="B138" s="204" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C138" s="205" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D138" s="189"/>
     </row>
     <row r="139" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A139" s="314"/>
       <c r="B139" s="204" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C139" s="205" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D139" s="189"/>
     </row>
     <row r="140" spans="1:4" s="190" customFormat="1" ht="25.5" customHeight="1">
       <c r="A140" s="314"/>
       <c r="B140" s="204" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C140" s="205" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D140" s="189"/>
     </row>
     <row r="141" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A141" s="314"/>
       <c r="B141" s="204" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C141" s="205" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D141" s="192"/>
     </row>
     <row r="142" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A142" s="314"/>
       <c r="B142" s="204" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C142" s="205" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D142" s="192"/>
     </row>
     <row r="143" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A143" s="201" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B143" s="202"/>
       <c r="C143" s="203"/>
@@ -22384,66 +21853,66 @@
     <row r="144" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A144" s="314"/>
       <c r="B144" s="204" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C144" s="205" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D144" s="192"/>
     </row>
     <row r="145" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A145" s="314"/>
       <c r="B145" s="204" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C145" s="205" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D145" s="192"/>
     </row>
     <row r="146" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A146" s="314"/>
       <c r="B146" s="204" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C146" s="205" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D146" s="192"/>
     </row>
     <row r="147" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A147" s="314"/>
       <c r="B147" s="204" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C147" s="205" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D147" s="195"/>
     </row>
     <row r="148" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A148" s="314"/>
       <c r="B148" s="204" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C148" s="205" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D148" s="193"/>
     </row>
     <row r="149" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A149" s="314"/>
       <c r="B149" s="204" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C149" s="205" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D149" s="194"/>
     </row>
     <row r="150" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A150" s="201" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B150" s="202"/>
       <c r="C150" s="203"/>
@@ -22452,66 +21921,66 @@
     <row r="151" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A151" s="314"/>
       <c r="B151" s="204" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C151" s="205" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D151" s="191"/>
     </row>
     <row r="152" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A152" s="314"/>
       <c r="B152" s="204" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C152" s="205" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D152" s="194"/>
     </row>
     <row r="153" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A153" s="314"/>
       <c r="B153" s="204" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C153" s="205" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D153" s="194"/>
     </row>
     <row r="154" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A154" s="314"/>
       <c r="B154" s="204" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C154" s="205" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D154" s="191"/>
     </row>
     <row r="155" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A155" s="314"/>
       <c r="B155" s="204" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C155" s="205" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D155" s="194"/>
     </row>
     <row r="156" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A156" s="314"/>
       <c r="B156" s="204" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C156" s="205" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D156" s="194"/>
     </row>
     <row r="157" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A157" s="199" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B157" s="200"/>
       <c r="C157" s="200"/>
@@ -22519,7 +21988,7 @@
     </row>
     <row r="158" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A158" s="201" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B158" s="202"/>
       <c r="C158" s="203"/>
@@ -22528,66 +21997,66 @@
     <row r="159" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A159" s="314"/>
       <c r="B159" s="204" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C159" s="205" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D159" s="194"/>
     </row>
     <row r="160" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A160" s="314"/>
       <c r="B160" s="204" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C160" s="205" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D160" s="194"/>
     </row>
     <row r="161" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A161" s="314"/>
       <c r="B161" s="204" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C161" s="205" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D161" s="194"/>
     </row>
     <row r="162" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A162" s="314"/>
       <c r="B162" s="204" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C162" s="205" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D162" s="194"/>
     </row>
     <row r="163" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A163" s="314"/>
       <c r="B163" s="204" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C163" s="205" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D163" s="194"/>
     </row>
     <row r="164" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A164" s="314"/>
       <c r="B164" s="204" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C164" s="205" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D164" s="194"/>
     </row>
     <row r="165" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
       <c r="A165" s="201" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B165" s="202"/>
       <c r="C165" s="203"/>
@@ -22596,66 +22065,66 @@
     <row r="166" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
       <c r="A166" s="314"/>
       <c r="B166" s="204" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C166" s="205" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D166" s="194"/>
     </row>
     <row r="167" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
       <c r="A167" s="314"/>
       <c r="B167" s="204" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C167" s="205" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D167" s="194"/>
     </row>
     <row r="168" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
       <c r="A168" s="314"/>
       <c r="B168" s="204" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C168" s="205" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D168" s="194"/>
     </row>
     <row r="169" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
       <c r="A169" s="314"/>
       <c r="B169" s="204" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C169" s="205" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D169" s="194"/>
     </row>
     <row r="170" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
       <c r="A170" s="314"/>
       <c r="B170" s="204" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C170" s="205" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D170" s="194"/>
     </row>
     <row r="171" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A171" s="314"/>
       <c r="B171" s="204" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C171" s="205" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D171" s="194"/>
     </row>
     <row r="172" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
       <c r="A172" s="201" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B172" s="202"/>
       <c r="C172" s="203"/>
@@ -22664,46 +22133,46 @@
     <row r="173" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
       <c r="A173" s="314"/>
       <c r="B173" s="204" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C173" s="205" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D173" s="194"/>
     </row>
     <row r="174" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
       <c r="A174" s="314"/>
       <c r="B174" s="204" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C174" s="205" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D174" s="194"/>
     </row>
     <row r="175" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
       <c r="A175" s="314"/>
       <c r="B175" s="204" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C175" s="205" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D175" s="194"/>
     </row>
     <row r="176" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
       <c r="A176" s="314"/>
       <c r="B176" s="204" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C176" s="205" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D176" s="194"/>
     </row>
     <row r="177" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
       <c r="A177" s="201" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B177" s="202"/>
       <c r="C177" s="203"/>
@@ -22712,46 +22181,46 @@
     <row r="178" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A178" s="314"/>
       <c r="B178" s="204" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C178" s="205" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D178" s="194"/>
     </row>
     <row r="179" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A179" s="314"/>
       <c r="B179" s="204" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C179" s="205" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D179" s="191"/>
     </row>
     <row r="180" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A180" s="314"/>
       <c r="B180" s="204" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C180" s="205" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D180" s="194"/>
     </row>
     <row r="181" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A181" s="314"/>
       <c r="B181" s="204" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C181" s="205" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D181" s="194"/>
     </row>
     <row r="182" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A182" s="199" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B182" s="200"/>
       <c r="C182" s="200"/>
@@ -22759,7 +22228,7 @@
     </row>
     <row r="183" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A183" s="201" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B183" s="202"/>
       <c r="C183" s="203"/>
@@ -22768,26 +22237,26 @@
     <row r="184" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A184" s="314"/>
       <c r="B184" s="204" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C184" s="205" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D184" s="194"/>
     </row>
     <row r="185" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A185" s="314"/>
       <c r="B185" s="204" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C185" s="205" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D185" s="194"/>
     </row>
     <row r="186" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A186" s="201" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B186" s="202"/>
       <c r="C186" s="203"/>
@@ -22796,36 +22265,36 @@
     <row r="187" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A187" s="314"/>
       <c r="B187" s="204" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C187" s="205" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D187" s="194"/>
     </row>
     <row r="188" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A188" s="314"/>
       <c r="B188" s="204" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C188" s="205" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D188" s="194"/>
     </row>
     <row r="189" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A189" s="314"/>
       <c r="B189" s="204" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C189" s="205" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D189" s="191"/>
     </row>
     <row r="190" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A190" s="201" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B190" s="202"/>
       <c r="C190" s="203"/>
@@ -22834,36 +22303,36 @@
     <row r="191" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A191" s="314"/>
       <c r="B191" s="204" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C191" s="205" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D191" s="194"/>
     </row>
     <row r="192" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A192" s="314"/>
       <c r="B192" s="204" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C192" s="205" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D192" s="194"/>
     </row>
     <row r="193" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A193" s="314"/>
       <c r="B193" s="204" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C193" s="205" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D193" s="194"/>
     </row>
     <row r="194" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A194" s="201" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B194" s="202"/>
       <c r="C194" s="203"/>
@@ -22872,36 +22341,36 @@
     <row r="195" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A195" s="314"/>
       <c r="B195" s="204" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C195" s="205" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D195" s="191"/>
     </row>
     <row r="196" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A196" s="314"/>
       <c r="B196" s="204" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C196" s="205" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D196" s="194"/>
     </row>
     <row r="197" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A197" s="314"/>
       <c r="B197" s="204" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C197" s="205" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D197" s="194"/>
     </row>
     <row r="198" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A198" s="199" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B198" s="200"/>
       <c r="C198" s="200"/>
@@ -22909,7 +22378,7 @@
     </row>
     <row r="199" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A199" s="201" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B199" s="202"/>
       <c r="C199" s="203"/>
@@ -22918,46 +22387,46 @@
     <row r="200" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A200" s="315"/>
       <c r="B200" s="204" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C200" s="205" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D200" s="194"/>
     </row>
     <row r="201" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A201" s="315"/>
       <c r="B201" s="204" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C201" s="205" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D201" s="195"/>
     </row>
     <row r="202" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
       <c r="A202" s="315"/>
       <c r="B202" s="204" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C202" s="205" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D202" s="191"/>
     </row>
     <row r="203" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A203" s="315"/>
       <c r="B203" s="204" t="s">
+        <v>544</v>
+      </c>
+      <c r="C203" s="205" t="s">
         <v>543</v>
-      </c>
-      <c r="C203" s="205" t="s">
-        <v>542</v>
       </c>
       <c r="D203" s="194"/>
     </row>
     <row r="204" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A204" s="201" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B204" s="202"/>
       <c r="C204" s="203"/>
@@ -22966,26 +22435,26 @@
     <row r="205" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A205" s="315"/>
       <c r="B205" s="204" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C205" s="205" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D205" s="194"/>
     </row>
     <row r="206" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A206" s="315"/>
       <c r="B206" s="204" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C206" s="205" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D206" s="194"/>
     </row>
     <row r="207" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A207" s="201" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B207" s="202"/>
       <c r="C207" s="203"/>
@@ -22994,36 +22463,36 @@
     <row r="208" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A208" s="314"/>
       <c r="B208" s="204" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C208" s="205" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D208" s="191"/>
     </row>
     <row r="209" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A209" s="314"/>
       <c r="B209" s="204" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C209" s="205" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D209" s="194"/>
     </row>
     <row r="210" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A210" s="314"/>
       <c r="B210" s="204" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C210" s="205" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D210" s="194"/>
     </row>
     <row r="211" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A211" s="199" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B211" s="200"/>
       <c r="C211" s="200"/>
@@ -23031,7 +22500,7 @@
     </row>
     <row r="212" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A212" s="201" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B212" s="202"/>
       <c r="C212" s="203"/>
@@ -23040,76 +22509,76 @@
     <row r="213" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A213" s="315"/>
       <c r="B213" s="204" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C213" s="205" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D213" s="194"/>
     </row>
     <row r="214" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A214" s="315"/>
       <c r="B214" s="204" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C214" s="205" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D214" s="194"/>
     </row>
     <row r="215" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A215" s="315"/>
       <c r="B215" s="204" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C215" s="205" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D215" s="194"/>
     </row>
     <row r="216" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A216" s="315"/>
       <c r="B216" s="204" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C216" s="205" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D216" s="195"/>
     </row>
     <row r="217" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A217" s="315"/>
       <c r="B217" s="204" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C217" s="205" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D217" s="191"/>
     </row>
     <row r="218" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A218" s="315"/>
       <c r="B218" s="204" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C218" s="205" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D218" s="194"/>
     </row>
     <row r="219" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A219" s="315"/>
       <c r="B219" s="204" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C219" s="205" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D219" s="194"/>
     </row>
     <row r="220" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A220" s="201" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B220" s="202"/>
       <c r="C220" s="203"/>
@@ -23118,46 +22587,46 @@
     <row r="221" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
       <c r="A221" s="315"/>
       <c r="B221" s="204" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C221" s="205" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D221" s="191"/>
     </row>
     <row r="222" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A222" s="315"/>
       <c r="B222" s="204" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C222" s="205" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D222" s="194"/>
     </row>
     <row r="223" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A223" s="315"/>
       <c r="B223" s="204" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C223" s="205" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D223" s="194"/>
     </row>
     <row r="224" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A224" s="315"/>
       <c r="B224" s="204" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C224" s="205" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D224" s="194"/>
     </row>
     <row r="225" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A225" s="201" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B225" s="202"/>
       <c r="C225" s="203"/>
@@ -23166,56 +22635,56 @@
     <row r="226" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A226" s="315"/>
       <c r="B226" s="204" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C226" s="205" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D226" s="194"/>
     </row>
     <row r="227" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A227" s="315"/>
       <c r="B227" s="204" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C227" s="205" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D227" s="191"/>
     </row>
     <row r="228" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A228" s="315"/>
       <c r="B228" s="204" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C228" s="205" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D228" s="194"/>
     </row>
     <row r="229" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A229" s="315"/>
       <c r="B229" s="204" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C229" s="205" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D229" s="194"/>
     </row>
     <row r="230" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
       <c r="A230" s="315"/>
       <c r="B230" s="204" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C230" s="205" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D230" s="191"/>
     </row>
     <row r="231" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A231" s="201" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B231" s="202"/>
       <c r="C231" s="203"/>
@@ -23224,46 +22693,46 @@
     <row r="232" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A232" s="315"/>
       <c r="B232" s="204" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C232" s="205" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D232" s="194"/>
     </row>
     <row r="233" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A233" s="315"/>
       <c r="B233" s="204" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C233" s="205" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D233" s="194"/>
     </row>
     <row r="234" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A234" s="315"/>
       <c r="B234" s="204" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C234" s="205" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D234" s="194"/>
     </row>
     <row r="235" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A235" s="315"/>
       <c r="B235" s="204" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C235" s="205" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D235" s="195"/>
     </row>
     <row r="236" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
       <c r="A236" s="199" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B236" s="200"/>
       <c r="C236" s="200"/>
@@ -23271,7 +22740,7 @@
     </row>
     <row r="237" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A237" s="201" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B237" s="202"/>
       <c r="C237" s="203"/>
@@ -23280,46 +22749,46 @@
     <row r="238" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A238" s="314"/>
       <c r="B238" s="204" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C238" s="205" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D238" s="191"/>
     </row>
     <row r="239" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A239" s="314"/>
       <c r="B239" s="204" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C239" s="205" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D239" s="191"/>
     </row>
     <row r="240" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A240" s="314"/>
       <c r="B240" s="204" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C240" s="205" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D240" s="191"/>
     </row>
     <row r="241" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A241" s="314"/>
       <c r="B241" s="204" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C241" s="205" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D241" s="191"/>
     </row>
     <row r="242" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A242" s="201" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B242" s="202"/>
       <c r="C242" s="203"/>
@@ -23328,46 +22797,46 @@
     <row r="243" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A243" s="314"/>
       <c r="B243" s="204" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C243" s="205" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D243" s="191"/>
     </row>
     <row r="244" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A244" s="314"/>
       <c r="B244" s="204" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C244" s="205" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D244" s="191"/>
     </row>
     <row r="245" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A245" s="314"/>
       <c r="B245" s="204" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C245" s="205" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D245" s="191"/>
     </row>
     <row r="246" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A246" s="314"/>
       <c r="B246" s="204" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C246" s="205" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D246" s="191"/>
     </row>
     <row r="247" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A247" s="201" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B247" s="202"/>
       <c r="C247" s="203"/>
@@ -23376,26 +22845,26 @@
     <row r="248" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A248" s="314"/>
       <c r="B248" s="204" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C248" s="205" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D248" s="191"/>
     </row>
     <row r="249" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
       <c r="A249" s="314"/>
       <c r="B249" s="204" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C249" s="205" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D249" s="191"/>
     </row>
     <row r="250" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A250" s="199" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B250" s="200"/>
       <c r="C250" s="200"/>
@@ -23403,7 +22872,7 @@
     </row>
     <row r="251" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A251" s="201" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B251" s="202"/>
       <c r="C251" s="203"/>
@@ -23412,36 +22881,36 @@
     <row r="252" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A252" s="314"/>
       <c r="B252" s="204" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C252" s="205" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D252" s="191"/>
     </row>
     <row r="253" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A253" s="314"/>
       <c r="B253" s="204" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C253" s="205" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D253" s="191"/>
     </row>
     <row r="254" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A254" s="314"/>
       <c r="B254" s="204" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C254" s="205" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D254" s="191"/>
     </row>
     <row r="255" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A255" s="201" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B255" s="202"/>
       <c r="C255" s="203"/>
@@ -23450,46 +22919,46 @@
     <row r="256" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A256" s="315"/>
       <c r="B256" s="204" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C256" s="205" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D256" s="191"/>
     </row>
     <row r="257" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A257" s="315"/>
       <c r="B257" s="204" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C257" s="205" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D257" s="191"/>
     </row>
     <row r="258" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A258" s="315"/>
       <c r="B258" s="204" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C258" s="205" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D258" s="191"/>
     </row>
     <row r="259" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A259" s="315"/>
       <c r="B259" s="204" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C259" s="205" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D259" s="191"/>
     </row>
     <row r="260" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A260" s="201" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B260" s="202"/>
       <c r="C260" s="203"/>
@@ -23498,36 +22967,36 @@
     <row r="261" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A261" s="314"/>
       <c r="B261" s="204" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C261" s="205" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D261" s="191"/>
     </row>
     <row r="262" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A262" s="314"/>
       <c r="B262" s="204" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C262" s="205" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D262" s="191"/>
     </row>
     <row r="263" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
       <c r="A263" s="314"/>
       <c r="B263" s="204" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C263" s="205" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D263" s="191"/>
     </row>
     <row r="264" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A264" s="201" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B264" s="202"/>
       <c r="C264" s="203"/>
@@ -23536,36 +23005,36 @@
     <row r="265" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A265" s="314"/>
       <c r="B265" s="204" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C265" s="205" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D265" s="191"/>
     </row>
     <row r="266" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A266" s="314"/>
       <c r="B266" s="204" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C266" s="205" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D266" s="191"/>
     </row>
     <row r="267" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A267" s="314"/>
       <c r="B267" s="204" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C267" s="205" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D267" s="191"/>
     </row>
     <row r="268" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
       <c r="A268" s="201" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B268" s="202"/>
       <c r="C268" s="203"/>
@@ -23574,36 +23043,36 @@
     <row r="269" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A269" s="314"/>
       <c r="B269" s="204" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C269" s="205" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D269" s="191"/>
     </row>
     <row r="270" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A270" s="314"/>
       <c r="B270" s="204" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C270" s="205" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D270" s="191"/>
     </row>
     <row r="271" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A271" s="314"/>
       <c r="B271" s="204" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C271" s="205" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D271" s="191"/>
     </row>
     <row r="272" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A272" s="199" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B272" s="200"/>
       <c r="C272" s="200"/>
@@ -23612,10 +23081,10 @@
     <row r="273" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A273" s="314"/>
       <c r="B273" s="204" t="s">
+        <v>666</v>
+      </c>
+      <c r="C273" s="205" t="s">
         <v>665</v>
-      </c>
-      <c r="C273" s="205" t="s">
-        <v>664</v>
       </c>
       <c r="D273" s="191"/>
     </row>
@@ -23633,7 +23102,7 @@
     </row>
     <row r="276" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A276" s="199" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B276" s="200"/>
       <c r="C276" s="200"/>
@@ -23642,10 +23111,10 @@
     <row r="277" spans="1:4" s="190" customFormat="1" ht="15.75">
       <c r="A277" s="314"/>
       <c r="B277" s="204" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C277" s="205" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D277" s="192"/>
     </row>
@@ -23858,7 +23327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист7">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>

--- a/prices_for_processing/price_sota/price_sota(xlsx)/Sota_price_bn.xlsx
+++ b/prices_for_processing/price_sota/price_sota(xlsx)/Sota_price_bn.xlsx
@@ -412,7 +412,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="914">
   <si>
     <t>KVR16LS11S6/2</t>
   </si>
@@ -14815,7 +14815,7 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:K222"/>
+  <dimension ref="B1:V222"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -14848,7 +14848,7 @@
         <v>2</v>
       </c>
       <c r="K1" s="155">
-        <v>44623</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="2" spans="2:11">
@@ -18279,18 +18279,10 @@
       </c>
       <c r="E136" s="104"/>
       <c r="F136" s="77"/>
-      <c r="G136" s="78">
-        <v>260.26</v>
-      </c>
-      <c r="H136" s="81">
-        <v>255.26</v>
-      </c>
-      <c r="I136" s="78">
-        <v>250.25</v>
-      </c>
-      <c r="J136" s="73" t="s">
-        <v>3</v>
-      </c>
+      <c r="G136" s="78"/>
+      <c r="H136" s="81"/>
+      <c r="I136" s="78"/>
+      <c r="J136" s="73"/>
       <c r="K136" s="162" t="s">
         <v>20</v>
       </c>
@@ -18512,13 +18504,13 @@
       <c r="E146" s="104"/>
       <c r="F146" s="77"/>
       <c r="G146" s="78">
-        <v>498.68</v>
+        <v>473.2</v>
       </c>
       <c r="H146" s="81">
-        <v>489.09</v>
+        <v>464.1</v>
       </c>
       <c r="I146" s="78">
-        <v>479.5</v>
+        <v>455</v>
       </c>
       <c r="J146" s="73" t="s">
         <v>3</v>
@@ -18540,13 +18532,13 @@
       <c r="E147" s="104"/>
       <c r="F147" s="77"/>
       <c r="G147" s="78">
-        <v>997.36</v>
+        <v>946.4</v>
       </c>
       <c r="H147" s="81">
-        <v>978.18</v>
+        <v>928.2</v>
       </c>
       <c r="I147" s="78">
-        <v>959</v>
+        <v>910</v>
       </c>
       <c r="J147" s="73" t="s">
         <v>3</v>
@@ -18568,13 +18560,13 @@
       <c r="E148" s="104"/>
       <c r="F148" s="77"/>
       <c r="G148" s="78">
-        <v>520.52</v>
+        <v>491.4</v>
       </c>
       <c r="H148" s="81">
-        <v>510.51</v>
+        <v>481.95</v>
       </c>
       <c r="I148" s="78">
-        <v>500.5</v>
+        <v>472.5</v>
       </c>
       <c r="J148" s="73" t="s">
         <v>3</v>
@@ -18596,13 +18588,13 @@
       <c r="E149" s="104"/>
       <c r="F149" s="77"/>
       <c r="G149" s="78">
-        <v>1041.04</v>
+        <v>982.8</v>
       </c>
       <c r="H149" s="81">
-        <v>1021.02</v>
+        <v>963.9</v>
       </c>
       <c r="I149" s="78">
-        <v>1001</v>
+        <v>945</v>
       </c>
       <c r="J149" s="73" t="s">
         <v>3</v>
@@ -18624,13 +18616,13 @@
       <c r="E150" s="104"/>
       <c r="F150" s="77"/>
       <c r="G150" s="78">
-        <v>560.55999999999995</v>
+        <v>531.44000000000005</v>
       </c>
       <c r="H150" s="81">
-        <v>549.78</v>
+        <v>521.22</v>
       </c>
       <c r="I150" s="78">
-        <v>539</v>
+        <v>511</v>
       </c>
       <c r="J150" s="73" t="s">
         <v>3</v>
@@ -18652,13 +18644,13 @@
       <c r="E151" s="104"/>
       <c r="F151" s="77"/>
       <c r="G151" s="78">
-        <v>1121.1199999999999</v>
+        <v>1062.8800000000001</v>
       </c>
       <c r="H151" s="81">
-        <v>1099.56</v>
+        <v>1042.44</v>
       </c>
       <c r="I151" s="78">
-        <v>1078</v>
+        <v>1022</v>
       </c>
       <c r="J151" s="73" t="s">
         <v>3</v>
@@ -18680,13 +18672,13 @@
       <c r="E152" s="104"/>
       <c r="F152" s="77"/>
       <c r="G152" s="78">
-        <v>637</v>
+        <v>604.24</v>
       </c>
       <c r="H152" s="81">
-        <v>624.75</v>
+        <v>592.62</v>
       </c>
       <c r="I152" s="78">
-        <v>612.5</v>
+        <v>581</v>
       </c>
       <c r="J152" s="73" t="s">
         <v>3</v>
@@ -18708,13 +18700,13 @@
       <c r="E153" s="104"/>
       <c r="F153" s="77"/>
       <c r="G153" s="78">
-        <v>1274</v>
+        <v>1208.48</v>
       </c>
       <c r="H153" s="81">
-        <v>1249.5</v>
+        <v>1185.24</v>
       </c>
       <c r="I153" s="78">
-        <v>1225</v>
+        <v>1162</v>
       </c>
       <c r="J153" s="73" t="s">
         <v>3</v>

--- a/prices_for_processing/price_sota/price_sota(xlsx)/Sota_price_bn.xlsx
+++ b/prices_for_processing/price_sota/price_sota(xlsx)/Sota_price_bn.xlsx
@@ -412,7 +412,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="912">
   <si>
     <t>KVR16LS11S6/2</t>
   </si>
@@ -14754,7 +14754,7 @@
         <v>2</v>
       </c>
       <c r="K1" s="155">
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="2" spans="2:11">
@@ -16720,13 +16720,13 @@
       <c r="E80" s="104"/>
       <c r="F80" s="109"/>
       <c r="G80" s="110">
-        <v>400.4</v>
+        <v>418.6</v>
       </c>
       <c r="H80" s="110">
-        <v>392.7</v>
+        <v>410.55</v>
       </c>
       <c r="I80" s="80">
-        <v>385</v>
+        <v>402.5</v>
       </c>
       <c r="J80" s="73" t="s">
         <v>3</v>
@@ -16748,13 +16748,13 @@
       <c r="E81" s="104"/>
       <c r="F81" s="109"/>
       <c r="G81" s="110">
-        <v>109.2</v>
+        <v>114.66</v>
       </c>
       <c r="H81" s="110">
-        <v>107.1</v>
+        <v>112.46000000000001</v>
       </c>
       <c r="I81" s="80">
-        <v>105</v>
+        <v>110.25</v>
       </c>
       <c r="J81" s="73" t="s">
         <v>3</v>
@@ -16796,13 +16796,13 @@
       <c r="E83" s="104"/>
       <c r="F83" s="109"/>
       <c r="G83" s="110">
-        <v>152.88</v>
+        <v>160.16</v>
       </c>
       <c r="H83" s="110">
-        <v>149.94</v>
+        <v>157.08000000000001</v>
       </c>
       <c r="I83" s="80">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="J83" s="73" t="s">
         <v>3</v>
@@ -16824,13 +16824,13 @@
       <c r="E84" s="104"/>
       <c r="F84" s="109"/>
       <c r="G84" s="80">
-        <v>80.08</v>
+        <v>83.72</v>
       </c>
       <c r="H84" s="110">
-        <v>78.540000000000006</v>
+        <v>82.11</v>
       </c>
       <c r="I84" s="80">
-        <v>77</v>
+        <v>80.5</v>
       </c>
       <c r="J84" s="73" t="s">
         <v>3</v>
@@ -16852,13 +16852,13 @@
       <c r="E85" s="104"/>
       <c r="F85" s="109"/>
       <c r="G85" s="80">
-        <v>40.04</v>
+        <v>41.86</v>
       </c>
       <c r="H85" s="110">
-        <v>39.270000000000003</v>
+        <v>41.059999999999995</v>
       </c>
       <c r="I85" s="80">
-        <v>38.5</v>
+        <v>40.25</v>
       </c>
       <c r="J85" s="73" t="s">
         <v>3</v>
@@ -16880,13 +16880,13 @@
       <c r="E86" s="104"/>
       <c r="F86" s="109"/>
       <c r="G86" s="80">
-        <v>28.03</v>
+        <v>29.12</v>
       </c>
       <c r="H86" s="110">
-        <v>27.490000000000002</v>
+        <v>28.56</v>
       </c>
       <c r="I86" s="80">
-        <v>26.95</v>
+        <v>28</v>
       </c>
       <c r="J86" s="73" t="s">
         <v>3</v>
@@ -16908,13 +16908,13 @@
       <c r="E87" s="104"/>
       <c r="F87" s="109"/>
       <c r="G87" s="80">
-        <v>28.03</v>
+        <v>29.12</v>
       </c>
       <c r="H87" s="110">
-        <v>27.490000000000002</v>
+        <v>28.56</v>
       </c>
       <c r="I87" s="80">
-        <v>26.95</v>
+        <v>28</v>
       </c>
       <c r="J87" s="73" t="s">
         <v>3</v>
@@ -16936,13 +16936,13 @@
       <c r="E88" s="104"/>
       <c r="F88" s="109"/>
       <c r="G88" s="80">
-        <v>50.96</v>
+        <v>52.78</v>
       </c>
       <c r="H88" s="110">
-        <v>49.98</v>
+        <v>51.769999999999996</v>
       </c>
       <c r="I88" s="80">
-        <v>49</v>
+        <v>50.75</v>
       </c>
       <c r="J88" s="73" t="s">
         <v>3</v>
@@ -16964,13 +16964,13 @@
       <c r="E89" s="104"/>
       <c r="F89" s="109"/>
       <c r="G89" s="80">
-        <v>52.78</v>
+        <v>54.6</v>
       </c>
       <c r="H89" s="110">
-        <v>51.769999999999996</v>
+        <v>53.55</v>
       </c>
       <c r="I89" s="80">
-        <v>50.75</v>
+        <v>52.5</v>
       </c>
       <c r="J89" s="73" t="s">
         <v>3</v>
@@ -17020,13 +17020,13 @@
       <c r="E92" s="104"/>
       <c r="F92" s="105"/>
       <c r="G92" s="110">
-        <v>20.39</v>
+        <v>22.57</v>
       </c>
       <c r="H92" s="116">
-        <v>20</v>
+        <v>22.14</v>
       </c>
       <c r="I92" s="80">
-        <v>19.600000000000001</v>
+        <v>21.7</v>
       </c>
       <c r="J92" s="73" t="s">
         <v>3</v>
@@ -17048,13 +17048,13 @@
       <c r="E93" s="104"/>
       <c r="F93" s="103"/>
       <c r="G93" s="110">
-        <v>37.129999999999995</v>
+        <v>40.769999999999996</v>
       </c>
       <c r="H93" s="115">
-        <v>36.419999999999995</v>
+        <v>39.989999999999995</v>
       </c>
       <c r="I93" s="80">
-        <v>35.700000000000003</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="J93" s="73" t="s">
         <v>3</v>
@@ -17076,13 +17076,13 @@
       <c r="E94" s="104"/>
       <c r="F94" s="103"/>
       <c r="G94" s="110">
-        <v>72.8</v>
+        <v>80.08</v>
       </c>
       <c r="H94" s="115">
-        <v>71.400000000000006</v>
+        <v>78.540000000000006</v>
       </c>
       <c r="I94" s="80">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="J94" s="73" t="s">
         <v>3</v>
@@ -17104,13 +17104,13 @@
       <c r="E95" s="104"/>
       <c r="F95" s="103"/>
       <c r="G95" s="110">
-        <v>132.5</v>
+        <v>145.6</v>
       </c>
       <c r="H95" s="115">
-        <v>129.94999999999999</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="I95" s="80">
-        <v>127.4</v>
+        <v>140</v>
       </c>
       <c r="J95" s="73" t="s">
         <v>3</v>
@@ -17146,13 +17146,13 @@
       <c r="E97" s="104"/>
       <c r="F97" s="213"/>
       <c r="G97" s="110">
-        <v>12.02</v>
+        <v>12.74</v>
       </c>
       <c r="H97" s="116">
-        <v>11.79</v>
+        <v>12.5</v>
       </c>
       <c r="I97" s="80">
-        <v>11.55</v>
+        <v>12.25</v>
       </c>
       <c r="J97" s="73" t="s">
         <v>3</v>
@@ -17174,13 +17174,13 @@
       <c r="E98" s="104"/>
       <c r="F98" s="213"/>
       <c r="G98" s="110">
-        <v>20.39</v>
+        <v>21.84</v>
       </c>
       <c r="H98" s="116">
-        <v>20</v>
+        <v>21.42</v>
       </c>
       <c r="I98" s="80">
-        <v>19.600000000000001</v>
+        <v>21</v>
       </c>
       <c r="J98" s="73" t="s">
         <v>3</v>
@@ -17202,13 +17202,13 @@
       <c r="E99" s="104"/>
       <c r="F99" s="213"/>
       <c r="G99" s="110">
-        <v>39.32</v>
+        <v>41.86</v>
       </c>
       <c r="H99" s="116">
-        <v>38.559999999999995</v>
+        <v>41.059999999999995</v>
       </c>
       <c r="I99" s="80">
-        <v>37.799999999999997</v>
+        <v>40.25</v>
       </c>
       <c r="J99" s="73" t="s">
         <v>3</v>
@@ -17230,13 +17230,13 @@
       <c r="E100" s="104"/>
       <c r="F100" s="105"/>
       <c r="G100" s="110">
-        <v>94.64</v>
+        <v>100.1</v>
       </c>
       <c r="H100" s="116">
-        <v>92.82</v>
+        <v>98.18</v>
       </c>
       <c r="I100" s="80">
-        <v>91</v>
+        <v>96.25</v>
       </c>
       <c r="J100" s="73" t="s">
         <v>3</v>
@@ -17258,13 +17258,13 @@
       <c r="E101" s="104"/>
       <c r="F101" s="105"/>
       <c r="G101" s="110">
-        <v>30.580000000000002</v>
+        <v>32.76</v>
       </c>
       <c r="H101" s="116">
-        <v>29.990000000000002</v>
+        <v>32.130000000000003</v>
       </c>
       <c r="I101" s="80">
-        <v>29.4</v>
+        <v>31.5</v>
       </c>
       <c r="J101" s="73" t="s">
         <v>3</v>
@@ -17286,13 +17286,13 @@
       <c r="E102" s="104"/>
       <c r="F102" s="105"/>
       <c r="G102" s="110">
-        <v>60.06</v>
+        <v>63.7</v>
       </c>
       <c r="H102" s="116">
-        <v>58.91</v>
+        <v>62.48</v>
       </c>
       <c r="I102" s="80">
-        <v>57.75</v>
+        <v>61.25</v>
       </c>
       <c r="J102" s="73" t="s">
         <v>3</v>
@@ -17314,13 +17314,13 @@
       <c r="E103" s="104"/>
       <c r="F103" s="105"/>
       <c r="G103" s="110">
-        <v>109.2</v>
+        <v>116.48</v>
       </c>
       <c r="H103" s="116">
-        <v>107.1</v>
+        <v>114.24</v>
       </c>
       <c r="I103" s="80">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="J103" s="73" t="s">
         <v>3</v>
@@ -17356,13 +17356,13 @@
       <c r="E105" s="104"/>
       <c r="F105" s="105"/>
       <c r="G105" s="110">
-        <v>10.92</v>
+        <v>11.65</v>
       </c>
       <c r="H105" s="116">
-        <v>10.71</v>
+        <v>11.43</v>
       </c>
       <c r="I105" s="80">
-        <v>10.5</v>
+        <v>11.2</v>
       </c>
       <c r="J105" s="73" t="s">
         <v>3</v>
@@ -17384,13 +17384,13 @@
       <c r="E106" s="104"/>
       <c r="F106" s="105"/>
       <c r="G106" s="110">
-        <v>17.84</v>
+        <v>18.57</v>
       </c>
       <c r="H106" s="116">
-        <v>17.5</v>
+        <v>18.21</v>
       </c>
       <c r="I106" s="80">
-        <v>17.149999999999999</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="J106" s="73" t="s">
         <v>3</v>
@@ -17412,13 +17412,13 @@
       <c r="E107" s="104"/>
       <c r="F107" s="105"/>
       <c r="G107" s="110">
-        <v>35.68</v>
+        <v>37.5</v>
       </c>
       <c r="H107" s="116">
-        <v>34.989999999999995</v>
+        <v>36.78</v>
       </c>
       <c r="I107" s="80">
-        <v>34.299999999999997</v>
+        <v>36.049999999999997</v>
       </c>
       <c r="J107" s="73" t="s">
         <v>3</v>
@@ -17440,13 +17440,13 @@
       <c r="E108" s="104"/>
       <c r="F108" s="105"/>
       <c r="G108" s="80">
-        <v>87.36</v>
+        <v>91.73</v>
       </c>
       <c r="H108" s="81">
-        <v>85.68</v>
+        <v>89.97</v>
       </c>
       <c r="I108" s="80">
-        <v>84</v>
+        <v>88.2</v>
       </c>
       <c r="J108" s="73" t="s">
         <v>3</v>
@@ -17468,13 +17468,13 @@
       <c r="E109" s="104"/>
       <c r="F109" s="105"/>
       <c r="G109" s="110">
-        <v>10.92</v>
+        <v>11.65</v>
       </c>
       <c r="H109" s="116">
-        <v>10.71</v>
+        <v>11.43</v>
       </c>
       <c r="I109" s="80">
-        <v>10.5</v>
+        <v>11.2</v>
       </c>
       <c r="J109" s="73" t="s">
         <v>3</v>
@@ -17496,13 +17496,13 @@
       <c r="E110" s="104"/>
       <c r="F110" s="105"/>
       <c r="G110" s="110">
-        <v>18.2</v>
+        <v>19.3</v>
       </c>
       <c r="H110" s="116">
-        <v>17.850000000000001</v>
+        <v>18.930000000000003</v>
       </c>
       <c r="I110" s="80">
-        <v>17.5</v>
+        <v>18.55</v>
       </c>
       <c r="J110" s="73" t="s">
         <v>3</v>
@@ -17524,13 +17524,13 @@
       <c r="E111" s="104"/>
       <c r="F111" s="105"/>
       <c r="G111" s="110">
-        <v>36.769999999999996</v>
+        <v>38.589999999999996</v>
       </c>
       <c r="H111" s="116">
-        <v>36.059999999999995</v>
+        <v>37.85</v>
       </c>
       <c r="I111" s="80">
-        <v>35.35</v>
+        <v>37.1</v>
       </c>
       <c r="J111" s="73" t="s">
         <v>3</v>
@@ -17552,13 +17552,13 @@
       <c r="E112" s="104"/>
       <c r="F112" s="105"/>
       <c r="G112" s="110">
-        <v>19.66</v>
+        <v>20.75</v>
       </c>
       <c r="H112" s="116">
-        <v>19.28</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="I112" s="80">
-        <v>18.899999999999999</v>
+        <v>19.95</v>
       </c>
       <c r="J112" s="73" t="s">
         <v>3</v>
@@ -17580,13 +17580,13 @@
       <c r="E113" s="104"/>
       <c r="F113" s="105"/>
       <c r="G113" s="110">
-        <v>29.490000000000002</v>
+        <v>30.94</v>
       </c>
       <c r="H113" s="116">
-        <v>28.92</v>
+        <v>30.35</v>
       </c>
       <c r="I113" s="80">
-        <v>28.35</v>
+        <v>29.75</v>
       </c>
       <c r="J113" s="73" t="s">
         <v>3</v>
@@ -17608,13 +17608,13 @@
       <c r="E114" s="104"/>
       <c r="F114" s="105"/>
       <c r="G114" s="110">
-        <v>50.96</v>
+        <v>53.51</v>
       </c>
       <c r="H114" s="116">
-        <v>49.98</v>
+        <v>52.48</v>
       </c>
       <c r="I114" s="80">
-        <v>49</v>
+        <v>51.45</v>
       </c>
       <c r="J114" s="73" t="s">
         <v>3</v>
@@ -17636,13 +17636,13 @@
       <c r="E115" s="104"/>
       <c r="F115" s="105"/>
       <c r="G115" s="110">
-        <v>115.39</v>
+        <v>121.22</v>
       </c>
       <c r="H115" s="116">
-        <v>113.17</v>
+        <v>118.89</v>
       </c>
       <c r="I115" s="80">
-        <v>110.95</v>
+        <v>116.55</v>
       </c>
       <c r="J115" s="73" t="s">
         <v>3</v>
@@ -17684,13 +17684,13 @@
       <c r="E117" s="104"/>
       <c r="F117" s="105"/>
       <c r="G117" s="110">
-        <v>41.14</v>
+        <v>43.32</v>
       </c>
       <c r="H117" s="116">
-        <v>40.35</v>
+        <v>42.489999999999995</v>
       </c>
       <c r="I117" s="80">
-        <v>39.549999999999997</v>
+        <v>41.65</v>
       </c>
       <c r="J117" s="101" t="s">
         <v>3</v>
@@ -17712,13 +17712,13 @@
       <c r="E118" s="104"/>
       <c r="F118" s="105"/>
       <c r="G118" s="110">
-        <v>84.45</v>
+        <v>88.820000000000007</v>
       </c>
       <c r="H118" s="116">
-        <v>82.83</v>
+        <v>87.11</v>
       </c>
       <c r="I118" s="80">
-        <v>81.2</v>
+        <v>85.4</v>
       </c>
       <c r="J118" s="73" t="s">
         <v>3</v>
@@ -17740,13 +17740,13 @@
       <c r="E119" s="104"/>
       <c r="F119" s="105"/>
       <c r="G119" s="110">
-        <v>29.12</v>
+        <v>30.580000000000002</v>
       </c>
       <c r="H119" s="116">
-        <v>28.56</v>
+        <v>29.990000000000002</v>
       </c>
       <c r="I119" s="80">
-        <v>28</v>
+        <v>29.4</v>
       </c>
       <c r="J119" s="73" t="s">
         <v>3</v>
@@ -17768,13 +17768,13 @@
       <c r="E120" s="104"/>
       <c r="F120" s="105"/>
       <c r="G120" s="110">
-        <v>42.23</v>
+        <v>44.41</v>
       </c>
       <c r="H120" s="116">
-        <v>41.419999999999995</v>
+        <v>43.559999999999995</v>
       </c>
       <c r="I120" s="80">
-        <v>40.6</v>
+        <v>42.7</v>
       </c>
       <c r="J120" s="73" t="s">
         <v>3</v>
@@ -17796,13 +17796,13 @@
       <c r="E121" s="104"/>
       <c r="F121" s="105"/>
       <c r="G121" s="110">
-        <v>81.900000000000006</v>
+        <v>85.910000000000011</v>
       </c>
       <c r="H121" s="116">
-        <v>80.33</v>
+        <v>84.26</v>
       </c>
       <c r="I121" s="80">
-        <v>78.75</v>
+        <v>82.6</v>
       </c>
       <c r="J121" s="73" t="s">
         <v>3</v>
@@ -17824,13 +17824,13 @@
       <c r="E122" s="104"/>
       <c r="F122" s="105"/>
       <c r="G122" s="110">
-        <v>174.72</v>
+        <v>183.45999999999998</v>
       </c>
       <c r="H122" s="116">
-        <v>171.36</v>
+        <v>179.92999999999998</v>
       </c>
       <c r="I122" s="80">
-        <v>168</v>
+        <v>176.4</v>
       </c>
       <c r="J122" s="73" t="s">
         <v>3</v>
@@ -17852,13 +17852,13 @@
       <c r="E123" s="104"/>
       <c r="F123" s="105"/>
       <c r="G123" s="110">
-        <v>305.76</v>
+        <v>321.05</v>
       </c>
       <c r="H123" s="116">
-        <v>299.88</v>
+        <v>314.88</v>
       </c>
       <c r="I123" s="80">
-        <v>294</v>
+        <v>308.7</v>
       </c>
       <c r="J123" s="73" t="s">
         <v>3</v>
@@ -17880,13 +17880,13 @@
       <c r="E124" s="104"/>
       <c r="F124" s="105"/>
       <c r="G124" s="110">
-        <v>502.32</v>
+        <v>527.43999999999994</v>
       </c>
       <c r="H124" s="116">
-        <v>492.66</v>
+        <v>517.29999999999995</v>
       </c>
       <c r="I124" s="80">
-        <v>483</v>
+        <v>507.15</v>
       </c>
       <c r="J124" s="73" t="s">
         <v>3</v>
@@ -17907,18 +17907,10 @@
       </c>
       <c r="E125" s="104"/>
       <c r="F125" s="105"/>
-      <c r="G125" s="80">
-        <v>112.84</v>
-      </c>
-      <c r="H125" s="81">
-        <v>110.67</v>
-      </c>
-      <c r="I125" s="80">
-        <v>108.5</v>
-      </c>
-      <c r="J125" s="73" t="s">
-        <v>3</v>
-      </c>
+      <c r="G125" s="80"/>
+      <c r="H125" s="81"/>
+      <c r="I125" s="80"/>
+      <c r="J125" s="73"/>
       <c r="K125" s="162">
         <v>12</v>
       </c>
@@ -17936,13 +17928,13 @@
       <c r="E126" s="104"/>
       <c r="F126" s="105"/>
       <c r="G126" s="80">
-        <v>174.72</v>
+        <v>183.45999999999998</v>
       </c>
       <c r="H126" s="81">
-        <v>171.36</v>
+        <v>179.92999999999998</v>
       </c>
       <c r="I126" s="80">
-        <v>168</v>
+        <v>176.4</v>
       </c>
       <c r="J126" s="73" t="s">
         <v>3</v>
@@ -17992,13 +17984,13 @@
       <c r="E129" s="104"/>
       <c r="F129" s="77"/>
       <c r="G129" s="78">
-        <v>123.76</v>
+        <v>152.88</v>
       </c>
       <c r="H129" s="81">
-        <v>121.38</v>
+        <v>149.94</v>
       </c>
       <c r="I129" s="78">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="J129" s="73" t="s">
         <v>3</v>
@@ -18045,18 +18037,10 @@
       </c>
       <c r="E131" s="104"/>
       <c r="F131" s="77"/>
-      <c r="G131" s="78">
-        <v>451.36</v>
-      </c>
-      <c r="H131" s="81">
-        <v>442.68</v>
-      </c>
-      <c r="I131" s="78">
-        <v>434</v>
-      </c>
-      <c r="J131" s="73" t="s">
-        <v>3</v>
-      </c>
+      <c r="G131" s="78"/>
+      <c r="H131" s="81"/>
+      <c r="I131" s="78"/>
+      <c r="J131" s="73"/>
       <c r="K131" s="162" t="s">
         <v>20</v>
       </c>
@@ -18074,13 +18058,13 @@
       <c r="E132" s="104"/>
       <c r="F132" s="77"/>
       <c r="G132" s="78">
-        <v>247.52</v>
+        <v>305.76</v>
       </c>
       <c r="H132" s="81">
-        <v>242.76</v>
+        <v>299.88</v>
       </c>
       <c r="I132" s="78">
-        <v>238</v>
+        <v>294</v>
       </c>
       <c r="J132" s="73" t="s">
         <v>3</v>
@@ -18102,13 +18086,13 @@
       <c r="E133" s="104"/>
       <c r="F133" s="77"/>
       <c r="G133" s="78">
-        <v>465.92</v>
+        <v>578.76</v>
       </c>
       <c r="H133" s="81">
-        <v>456.96</v>
+        <v>567.63</v>
       </c>
       <c r="I133" s="78">
-        <v>448</v>
+        <v>556.5</v>
       </c>
       <c r="J133" s="73" t="s">
         <v>3</v>
@@ -18176,13 +18160,13 @@
       <c r="E136" s="104"/>
       <c r="F136" s="77"/>
       <c r="G136" s="78">
-        <v>302.84999999999997</v>
+        <v>374.92</v>
       </c>
       <c r="H136" s="81">
-        <v>297.02999999999997</v>
+        <v>367.71</v>
       </c>
       <c r="I136" s="78">
-        <v>291.2</v>
+        <v>360.5</v>
       </c>
       <c r="J136" s="73" t="s">
         <v>3</v>
@@ -18204,13 +18188,13 @@
       <c r="E137" s="104"/>
       <c r="F137" s="77"/>
       <c r="G137" s="78">
-        <v>504.14</v>
+        <v>604.24</v>
       </c>
       <c r="H137" s="81">
-        <v>494.45</v>
+        <v>592.62</v>
       </c>
       <c r="I137" s="78">
-        <v>484.75</v>
+        <v>581</v>
       </c>
       <c r="J137" s="73" t="s">
         <v>3</v>
@@ -18352,13 +18336,13 @@
       <c r="E144" s="104"/>
       <c r="F144" s="77"/>
       <c r="G144" s="78">
-        <v>604.24</v>
+        <v>615.16</v>
       </c>
       <c r="H144" s="81">
-        <v>592.62</v>
+        <v>603.33000000000004</v>
       </c>
       <c r="I144" s="78">
-        <v>581</v>
+        <v>591.5</v>
       </c>
       <c r="J144" s="73" t="s">
         <v>3</v>
@@ -18618,13 +18602,13 @@
       <c r="E154" s="104"/>
       <c r="F154" s="77"/>
       <c r="G154" s="78">
-        <v>134.68</v>
+        <v>148.14999999999998</v>
       </c>
       <c r="H154" s="81">
-        <v>132.09</v>
+        <v>145.29999999999998</v>
       </c>
       <c r="I154" s="78">
-        <v>129.5</v>
+        <v>142.44999999999999</v>
       </c>
       <c r="J154" s="73" t="s">
         <v>3</v>
@@ -18646,13 +18630,13 @@
       <c r="E155" s="104"/>
       <c r="F155" s="77"/>
       <c r="G155" s="78">
-        <v>64.800000000000011</v>
+        <v>74.62</v>
       </c>
       <c r="H155" s="81">
-        <v>63.55</v>
+        <v>73.190000000000012</v>
       </c>
       <c r="I155" s="78">
-        <v>62.3</v>
+        <v>71.75</v>
       </c>
       <c r="J155" s="73" t="s">
         <v>3</v>
@@ -18674,13 +18658,13 @@
       <c r="E156" s="104"/>
       <c r="F156" s="77"/>
       <c r="G156" s="78">
-        <v>100.1</v>
+        <v>115.03</v>
       </c>
       <c r="H156" s="81">
-        <v>98.18</v>
+        <v>112.82000000000001</v>
       </c>
       <c r="I156" s="78">
-        <v>96.25</v>
+        <v>110.6</v>
       </c>
       <c r="J156" s="73" t="s">
         <v>3</v>
@@ -18702,13 +18686,13 @@
       <c r="E157" s="104"/>
       <c r="F157" s="77"/>
       <c r="G157" s="78">
-        <v>214.76</v>
+        <v>247.52</v>
       </c>
       <c r="H157" s="81">
-        <v>210.63</v>
+        <v>242.76</v>
       </c>
       <c r="I157" s="78">
-        <v>206.5</v>
+        <v>238</v>
       </c>
       <c r="J157" s="101" t="s">
         <v>3</v>
@@ -18730,13 +18714,13 @@
       <c r="E158" s="104"/>
       <c r="F158" s="77"/>
       <c r="G158" s="78">
-        <v>189.28</v>
+        <v>218.4</v>
       </c>
       <c r="H158" s="81">
-        <v>185.64</v>
+        <v>214.2</v>
       </c>
       <c r="I158" s="78">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="J158" s="101" t="s">
         <v>3</v>
@@ -18778,13 +18762,13 @@
       <c r="E160" s="104"/>
       <c r="F160" s="77"/>
       <c r="G160" s="78">
-        <v>226.41</v>
+        <v>266.45</v>
       </c>
       <c r="H160" s="81">
-        <v>222.06</v>
+        <v>261.33</v>
       </c>
       <c r="I160" s="78">
-        <v>217.7</v>
+        <v>256.2</v>
       </c>
       <c r="J160" s="73" t="s">
         <v>3</v>
@@ -18806,13 +18790,13 @@
       <c r="E161" s="104"/>
       <c r="F161" s="77"/>
       <c r="G161" s="78">
-        <v>63.7</v>
+        <v>72.8</v>
       </c>
       <c r="H161" s="81">
-        <v>62.48</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="I161" s="78">
-        <v>61.25</v>
+        <v>70</v>
       </c>
       <c r="J161" s="73" t="s">
         <v>3</v>
@@ -18834,13 +18818,13 @@
       <c r="E162" s="104"/>
       <c r="F162" s="77"/>
       <c r="G162" s="78">
-        <v>110.66000000000001</v>
+        <v>129.22</v>
       </c>
       <c r="H162" s="81">
-        <v>108.53</v>
+        <v>126.74000000000001</v>
       </c>
       <c r="I162" s="78">
-        <v>106.4</v>
+        <v>124.25</v>
       </c>
       <c r="J162" s="73" t="s">
         <v>3</v>
@@ -18896,13 +18880,13 @@
       <c r="E165" s="104"/>
       <c r="F165" s="77"/>
       <c r="G165" s="78">
-        <v>64.800000000000011</v>
+        <v>74.62</v>
       </c>
       <c r="H165" s="81">
-        <v>63.55</v>
+        <v>73.190000000000012</v>
       </c>
       <c r="I165" s="78">
-        <v>62.3</v>
+        <v>71.75</v>
       </c>
       <c r="J165" s="73" t="s">
         <v>3</v>
@@ -18924,13 +18908,13 @@
       <c r="E166" s="104"/>
       <c r="F166" s="77"/>
       <c r="G166" s="78">
-        <v>100.1</v>
+        <v>115.03</v>
       </c>
       <c r="H166" s="81">
-        <v>98.18</v>
+        <v>112.82000000000001</v>
       </c>
       <c r="I166" s="78">
-        <v>96.25</v>
+        <v>110.6</v>
       </c>
       <c r="J166" s="73" t="s">
         <v>3</v>
@@ -18952,13 +18936,13 @@
       <c r="E167" s="104"/>
       <c r="F167" s="77"/>
       <c r="G167" s="78">
-        <v>214.76</v>
+        <v>247.52</v>
       </c>
       <c r="H167" s="81">
-        <v>210.63</v>
+        <v>242.76</v>
       </c>
       <c r="I167" s="78">
-        <v>206.5</v>
+        <v>238</v>
       </c>
       <c r="J167" s="101" t="s">
         <v>3</v>
@@ -18980,13 +18964,13 @@
       <c r="E168" s="104"/>
       <c r="F168" s="77"/>
       <c r="G168" s="78">
-        <v>189.28</v>
+        <v>218.4</v>
       </c>
       <c r="H168" s="81">
-        <v>185.64</v>
+        <v>214.2</v>
       </c>
       <c r="I168" s="78">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="J168" s="73" t="s">
         <v>3</v>
@@ -19008,13 +18992,13 @@
       <c r="E169" s="104"/>
       <c r="F169" s="77"/>
       <c r="G169" s="78">
-        <v>118.3</v>
+        <v>141.96</v>
       </c>
       <c r="H169" s="81">
-        <v>116.03</v>
+        <v>139.22999999999999</v>
       </c>
       <c r="I169" s="78">
-        <v>113.75</v>
+        <v>136.5</v>
       </c>
       <c r="J169" s="73" t="s">
         <v>3</v>
@@ -19035,18 +19019,10 @@
       </c>
       <c r="E170" s="104"/>
       <c r="F170" s="77"/>
-      <c r="G170" s="78">
-        <v>226.41</v>
-      </c>
-      <c r="H170" s="81">
-        <v>222.06</v>
-      </c>
-      <c r="I170" s="78">
-        <v>217.7</v>
-      </c>
-      <c r="J170" s="73" t="s">
-        <v>3</v>
-      </c>
+      <c r="G170" s="78"/>
+      <c r="H170" s="81"/>
+      <c r="I170" s="78"/>
+      <c r="J170" s="73"/>
       <c r="K170" s="162" t="s">
         <v>20</v>
       </c>
@@ -19084,13 +19060,13 @@
       <c r="E172" s="104"/>
       <c r="F172" s="77"/>
       <c r="G172" s="78">
-        <v>63.7</v>
+        <v>72.8</v>
       </c>
       <c r="H172" s="81">
-        <v>62.48</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="I172" s="78">
-        <v>61.25</v>
+        <v>70</v>
       </c>
       <c r="J172" s="73" t="s">
         <v>3</v>
@@ -19112,13 +19088,13 @@
       <c r="E173" s="104"/>
       <c r="F173" s="77"/>
       <c r="G173" s="78">
-        <v>110.66000000000001</v>
+        <v>129.22</v>
       </c>
       <c r="H173" s="81">
-        <v>108.53</v>
+        <v>126.74000000000001</v>
       </c>
       <c r="I173" s="78">
-        <v>106.4</v>
+        <v>124.25</v>
       </c>
       <c r="J173" s="73" t="s">
         <v>3</v>
@@ -19179,18 +19155,10 @@
       </c>
       <c r="E176" s="104"/>
       <c r="F176" s="77"/>
-      <c r="G176" s="78">
-        <v>425.88</v>
-      </c>
-      <c r="H176" s="81">
-        <v>417.69</v>
-      </c>
-      <c r="I176" s="78">
-        <v>409.5</v>
-      </c>
-      <c r="J176" s="73" t="s">
-        <v>3</v>
-      </c>
+      <c r="G176" s="78"/>
+      <c r="H176" s="81"/>
+      <c r="I176" s="78"/>
+      <c r="J176" s="73"/>
       <c r="K176" s="162">
         <v>36</v>
       </c>
@@ -19222,13 +19190,13 @@
       <c r="E178" s="104"/>
       <c r="F178" s="77"/>
       <c r="G178" s="80">
-        <v>382.2</v>
+        <v>418.6</v>
       </c>
       <c r="H178" s="79">
-        <v>374.85</v>
+        <v>410.55</v>
       </c>
       <c r="I178" s="81">
-        <v>367.5</v>
+        <v>402.5</v>
       </c>
       <c r="J178" s="73" t="s">
         <v>3</v>
@@ -19250,13 +19218,13 @@
       <c r="E179" s="104"/>
       <c r="F179" s="77"/>
       <c r="G179" s="80">
-        <v>400.4</v>
+        <v>436.8</v>
       </c>
       <c r="H179" s="79">
-        <v>392.7</v>
+        <v>428.4</v>
       </c>
       <c r="I179" s="81">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="J179" s="73" t="s">
         <v>3</v>
@@ -19278,13 +19246,13 @@
       <c r="E180" s="104"/>
       <c r="F180" s="77"/>
       <c r="G180" s="80">
-        <v>185.64</v>
+        <v>214.76</v>
       </c>
       <c r="H180" s="81">
-        <v>182.07</v>
+        <v>210.63</v>
       </c>
       <c r="I180" s="81">
-        <v>178.5</v>
+        <v>206.5</v>
       </c>
       <c r="J180" s="73" t="s">
         <v>3</v>
@@ -19306,13 +19274,13 @@
       <c r="E181" s="104"/>
       <c r="F181" s="77"/>
       <c r="G181" s="187">
-        <v>350.53999999999996</v>
+        <v>404.04</v>
       </c>
       <c r="H181" s="79">
-        <v>343.8</v>
+        <v>396.27</v>
       </c>
       <c r="I181" s="79">
-        <v>337.05</v>
+        <v>388.5</v>
       </c>
       <c r="J181" s="73" t="s">
         <v>3</v>
@@ -19334,13 +19302,13 @@
       <c r="E182" s="104"/>
       <c r="F182" s="77"/>
       <c r="G182" s="187">
-        <v>680.68</v>
+        <v>782.6</v>
       </c>
       <c r="H182" s="79">
-        <v>667.59</v>
+        <v>767.55</v>
       </c>
       <c r="I182" s="79">
-        <v>654.5</v>
+        <v>752.5</v>
       </c>
       <c r="J182" s="73" t="s">
         <v>3</v>
@@ -19362,13 +19330,13 @@
       <c r="E183" s="104"/>
       <c r="F183" s="77"/>
       <c r="G183" s="80">
-        <v>196.56</v>
+        <v>229.32</v>
       </c>
       <c r="H183" s="81">
-        <v>192.78</v>
+        <v>224.91</v>
       </c>
       <c r="I183" s="81">
-        <v>189</v>
+        <v>220.5</v>
       </c>
       <c r="J183" s="73" t="s">
         <v>3</v>
@@ -19390,13 +19358,13 @@
       <c r="E184" s="104"/>
       <c r="F184" s="77"/>
       <c r="G184" s="80">
-        <v>370.19</v>
+        <v>425.88</v>
       </c>
       <c r="H184" s="81">
-        <v>363.07</v>
+        <v>417.69</v>
       </c>
       <c r="I184" s="81">
-        <v>355.95</v>
+        <v>409.5</v>
       </c>
       <c r="J184" s="73" t="s">
         <v>3</v>
@@ -19418,13 +19386,13 @@
       <c r="E185" s="104"/>
       <c r="F185" s="77"/>
       <c r="G185" s="80">
-        <v>684.32</v>
+        <v>789.88</v>
       </c>
       <c r="H185" s="79">
-        <v>671.16</v>
+        <v>774.69</v>
       </c>
       <c r="I185" s="81">
-        <v>658</v>
+        <v>759.5</v>
       </c>
       <c r="J185" s="73" t="s">
         <v>3</v>
@@ -19446,13 +19414,13 @@
       <c r="E186" s="104"/>
       <c r="F186" s="77"/>
       <c r="G186" s="80">
-        <v>684.32</v>
+        <v>789.88</v>
       </c>
       <c r="H186" s="79">
-        <v>671.16</v>
+        <v>774.69</v>
       </c>
       <c r="I186" s="81">
-        <v>658</v>
+        <v>759.5</v>
       </c>
       <c r="J186" s="73" t="s">
         <v>3</v>
@@ -19474,13 +19442,13 @@
       <c r="E187" s="104"/>
       <c r="F187" s="77"/>
       <c r="G187" s="80">
-        <v>709.8</v>
+        <v>819</v>
       </c>
       <c r="H187" s="79">
-        <v>696.15</v>
+        <v>803.25</v>
       </c>
       <c r="I187" s="81">
-        <v>682.5</v>
+        <v>787.5</v>
       </c>
       <c r="J187" s="73" t="s">
         <v>3</v>
@@ -19516,13 +19484,13 @@
       <c r="E189" s="104"/>
       <c r="F189" s="103"/>
       <c r="G189" s="80">
-        <v>187.46</v>
+        <v>196.92999999999998</v>
       </c>
       <c r="H189" s="80">
-        <v>183.85999999999999</v>
+        <v>193.14</v>
       </c>
       <c r="I189" s="80">
-        <v>180.25</v>
+        <v>189.35</v>
       </c>
       <c r="J189" s="73" t="s">
         <v>3</v>
@@ -19544,13 +19512,13 @@
       <c r="E190" s="104"/>
       <c r="F190" s="105"/>
       <c r="G190" s="80">
-        <v>251.16</v>
+        <v>263.89999999999998</v>
       </c>
       <c r="H190" s="80">
-        <v>246.33</v>
+        <v>258.83</v>
       </c>
       <c r="I190" s="80">
-        <v>241.5</v>
+        <v>253.75</v>
       </c>
       <c r="J190" s="73" t="s">
         <v>3</v>
@@ -19572,13 +19540,13 @@
       <c r="E191" s="104"/>
       <c r="F191" s="223"/>
       <c r="G191" s="224">
-        <v>345.8</v>
+        <v>380.38</v>
       </c>
       <c r="H191" s="224">
-        <v>339.15</v>
+        <v>373.07</v>
       </c>
       <c r="I191" s="224">
-        <v>332.5</v>
+        <v>365.75</v>
       </c>
       <c r="J191" s="225" t="s">
         <v>3</v>
@@ -19600,13 +19568,13 @@
       <c r="E192" s="104"/>
       <c r="F192" s="105"/>
       <c r="G192" s="80">
-        <v>189.28</v>
+        <v>198.75</v>
       </c>
       <c r="H192" s="80">
-        <v>185.64</v>
+        <v>194.92999999999998</v>
       </c>
       <c r="I192" s="80">
-        <v>182</v>
+        <v>191.1</v>
       </c>
       <c r="J192" s="73" t="s">
         <v>3</v>
@@ -19628,13 +19596,13 @@
       <c r="E193" s="104"/>
       <c r="F193" s="105"/>
       <c r="G193" s="80">
-        <v>258.44</v>
+        <v>271.55</v>
       </c>
       <c r="H193" s="80">
-        <v>253.47</v>
+        <v>266.33</v>
       </c>
       <c r="I193" s="80">
-        <v>248.5</v>
+        <v>261.10000000000002</v>
       </c>
       <c r="J193" s="73" t="s">
         <v>3</v>
@@ -19656,13 +19624,13 @@
       <c r="E194" s="104"/>
       <c r="F194" s="77"/>
       <c r="G194" s="78">
-        <v>320.32</v>
+        <v>336.34</v>
       </c>
       <c r="H194" s="78">
-        <v>314.16000000000003</v>
+        <v>329.87</v>
       </c>
       <c r="I194" s="78">
-        <v>308</v>
+        <v>323.39999999999998</v>
       </c>
       <c r="J194" s="73" t="s">
         <v>3</v>
@@ -19684,13 +19652,13 @@
       <c r="E195" s="104"/>
       <c r="F195" s="77"/>
       <c r="G195" s="78">
-        <v>538.72</v>
+        <v>565.66</v>
       </c>
       <c r="H195" s="78">
-        <v>528.36</v>
+        <v>554.78</v>
       </c>
       <c r="I195" s="78">
-        <v>518</v>
+        <v>543.9</v>
       </c>
       <c r="J195" s="73" t="s">
         <v>3</v>
@@ -19712,13 +19680,13 @@
       <c r="E196" s="104"/>
       <c r="F196" s="77"/>
       <c r="G196" s="78">
-        <v>964.6</v>
+        <v>1013.02</v>
       </c>
       <c r="H196" s="78">
-        <v>946.05</v>
+        <v>993.54</v>
       </c>
       <c r="I196" s="78">
-        <v>927.5</v>
+        <v>974.05</v>
       </c>
       <c r="J196" s="73" t="s">
         <v>3</v>
@@ -19768,13 +19736,13 @@
       <c r="E199" s="104"/>
       <c r="F199" s="77"/>
       <c r="G199" s="78">
-        <v>81.900000000000006</v>
+        <v>90.28</v>
       </c>
       <c r="H199" s="78">
-        <v>80.33</v>
+        <v>88.54</v>
       </c>
       <c r="I199" s="78">
-        <v>78.75</v>
+        <v>86.8</v>
       </c>
       <c r="J199" s="73" t="s">
         <v>3</v>
@@ -19796,13 +19764,13 @@
       <c r="E200" s="104"/>
       <c r="F200" s="77"/>
       <c r="G200" s="78">
-        <v>105.56</v>
+        <v>116.48</v>
       </c>
       <c r="H200" s="78">
-        <v>103.53</v>
+        <v>114.24</v>
       </c>
       <c r="I200" s="78">
-        <v>101.5</v>
+        <v>112</v>
       </c>
       <c r="J200" s="73" t="s">
         <v>3</v>
@@ -19824,13 +19792,13 @@
       <c r="E201" s="104"/>
       <c r="F201" s="77"/>
       <c r="G201" s="78">
-        <v>178.36</v>
+        <v>196.92999999999998</v>
       </c>
       <c r="H201" s="78">
-        <v>174.93</v>
+        <v>193.14</v>
       </c>
       <c r="I201" s="78">
-        <v>171.5</v>
+        <v>189.35</v>
       </c>
       <c r="J201" s="73" t="s">
         <v>3</v>
@@ -19852,13 +19820,13 @@
       <c r="E202" s="104"/>
       <c r="F202" s="77"/>
       <c r="G202" s="78">
-        <v>332.34</v>
+        <v>366.55</v>
       </c>
       <c r="H202" s="78">
-        <v>325.95</v>
+        <v>359.5</v>
       </c>
       <c r="I202" s="78">
-        <v>319.55</v>
+        <v>352.45</v>
       </c>
       <c r="J202" s="73" t="s">
         <v>3</v>
@@ -19880,13 +19848,13 @@
       <c r="E203" s="104"/>
       <c r="F203" s="77"/>
       <c r="G203" s="78">
-        <v>149.24</v>
+        <v>164.89999999999998</v>
       </c>
       <c r="H203" s="78">
-        <v>146.37</v>
+        <v>161.72999999999999</v>
       </c>
       <c r="I203" s="78">
-        <v>143.5</v>
+        <v>158.55000000000001</v>
       </c>
       <c r="J203" s="73" t="s">
         <v>3</v>
@@ -19908,13 +19876,13 @@
       <c r="E204" s="104"/>
       <c r="F204" s="77"/>
       <c r="G204" s="78">
-        <v>262.08</v>
+        <v>289.02</v>
       </c>
       <c r="H204" s="78">
-        <v>257.04000000000002</v>
+        <v>283.45999999999998</v>
       </c>
       <c r="I204" s="78">
-        <v>252</v>
+        <v>277.89999999999998</v>
       </c>
       <c r="J204" s="73" t="s">
         <v>3</v>
@@ -19935,18 +19903,10 @@
       </c>
       <c r="E205" s="104"/>
       <c r="F205" s="77"/>
-      <c r="G205" s="78">
-        <v>473.2</v>
-      </c>
-      <c r="H205" s="78">
-        <v>464.1</v>
-      </c>
-      <c r="I205" s="78">
-        <v>455</v>
-      </c>
-      <c r="J205" s="73" t="s">
-        <v>3</v>
-      </c>
+      <c r="G205" s="78"/>
+      <c r="H205" s="78"/>
+      <c r="I205" s="78"/>
+      <c r="J205" s="73"/>
       <c r="K205" s="162" t="s">
         <v>113</v>
       </c>
@@ -19964,13 +19924,13 @@
       <c r="E206" s="104"/>
       <c r="F206" s="77"/>
       <c r="G206" s="78">
-        <v>819</v>
+        <v>902</v>
       </c>
       <c r="H206" s="78">
-        <v>803.25</v>
+        <v>884.65</v>
       </c>
       <c r="I206" s="78">
-        <v>787.5</v>
+        <v>867.3</v>
       </c>
       <c r="J206" s="101" t="s">
         <v>3</v>
@@ -19992,13 +19952,13 @@
       <c r="E207" s="135"/>
       <c r="F207" s="77"/>
       <c r="G207" s="78">
-        <v>9.1</v>
+        <v>9.83</v>
       </c>
       <c r="H207" s="78">
-        <v>8.93</v>
+        <v>9.64</v>
       </c>
       <c r="I207" s="78">
-        <v>8.75</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="J207" s="101" t="s">
         <v>3</v>
@@ -20032,13 +19992,13 @@
       <c r="E209" s="104"/>
       <c r="F209" s="77"/>
       <c r="G209" s="78">
-        <v>81.900000000000006</v>
+        <v>90.28</v>
       </c>
       <c r="H209" s="78">
-        <v>80.33</v>
+        <v>88.54</v>
       </c>
       <c r="I209" s="78">
-        <v>78.75</v>
+        <v>86.8</v>
       </c>
       <c r="J209" s="73" t="s">
         <v>3</v>
@@ -20060,13 +20020,13 @@
       <c r="E210" s="104"/>
       <c r="F210" s="77"/>
       <c r="G210" s="78">
-        <v>145.6</v>
+        <v>160.53</v>
       </c>
       <c r="H210" s="78">
-        <v>142.80000000000001</v>
+        <v>157.44</v>
       </c>
       <c r="I210" s="78">
-        <v>140</v>
+        <v>154.35</v>
       </c>
       <c r="J210" s="101" t="s">
         <v>3</v>
@@ -20088,13 +20048,13 @@
       <c r="E211" s="104"/>
       <c r="F211" s="77"/>
       <c r="G211" s="78">
-        <v>180.18</v>
+        <v>198.75</v>
       </c>
       <c r="H211" s="78">
-        <v>176.72</v>
+        <v>194.92999999999998</v>
       </c>
       <c r="I211" s="78">
-        <v>173.25</v>
+        <v>191.1</v>
       </c>
       <c r="J211" s="73" t="s">
         <v>3</v>
@@ -20116,13 +20076,13 @@
       <c r="E212" s="104"/>
       <c r="F212" s="77"/>
       <c r="G212" s="78">
-        <v>313.04000000000002</v>
+        <v>345.08</v>
       </c>
       <c r="H212" s="78">
-        <v>307.02</v>
+        <v>338.44</v>
       </c>
       <c r="I212" s="78">
-        <v>301</v>
+        <v>331.8</v>
       </c>
       <c r="J212" s="73" t="s">
         <v>3</v>
@@ -20144,13 +20104,13 @@
       <c r="E213" s="104"/>
       <c r="F213" s="77"/>
       <c r="G213" s="78">
-        <v>797.16</v>
+        <v>879.06</v>
       </c>
       <c r="H213" s="78">
-        <v>781.83</v>
+        <v>862.16</v>
       </c>
       <c r="I213" s="78">
-        <v>766.5</v>
+        <v>845.25</v>
       </c>
       <c r="J213" s="73" t="s">
         <v>3</v>
@@ -20172,13 +20132,13 @@
       <c r="E214" s="104"/>
       <c r="F214" s="77"/>
       <c r="G214" s="78">
-        <v>349.44</v>
+        <v>385.12</v>
       </c>
       <c r="H214" s="78">
-        <v>342.72</v>
+        <v>377.71</v>
       </c>
       <c r="I214" s="78">
-        <v>336</v>
+        <v>370.3</v>
       </c>
       <c r="J214" s="73" t="s">
         <v>3</v>
@@ -20200,13 +20160,13 @@
       <c r="E215" s="104"/>
       <c r="F215" s="77"/>
       <c r="G215" s="78">
-        <v>578.76</v>
+        <v>638.46</v>
       </c>
       <c r="H215" s="78">
-        <v>567.63</v>
+        <v>626.17999999999995</v>
       </c>
       <c r="I215" s="78">
-        <v>556.5</v>
+        <v>613.9</v>
       </c>
       <c r="J215" s="73" t="s">
         <v>3</v>
@@ -20228,13 +20188,13 @@
       <c r="E216" s="104"/>
       <c r="F216" s="77"/>
       <c r="G216" s="78">
-        <v>1128.4000000000001</v>
+        <v>1241.24</v>
       </c>
       <c r="H216" s="78">
-        <v>1106.7</v>
+        <v>1217.3699999999999</v>
       </c>
       <c r="I216" s="78">
-        <v>1085</v>
+        <v>1193.5</v>
       </c>
       <c r="J216" s="73" t="s">
         <v>3</v>
@@ -20276,13 +20236,13 @@
       <c r="E218" s="104"/>
       <c r="F218" s="77"/>
       <c r="G218" s="78">
-        <v>378.56</v>
+        <v>418.6</v>
       </c>
       <c r="H218" s="78">
-        <v>371.28</v>
+        <v>410.55</v>
       </c>
       <c r="I218" s="78">
-        <v>364</v>
+        <v>402.5</v>
       </c>
       <c r="J218" s="73" t="s">
         <v>3</v>

--- a/prices_for_processing/price_sota/price_sota(xlsx)/Sota_price_bn.xlsx
+++ b/prices_for_processing/price_sota/price_sota(xlsx)/Sota_price_bn.xlsx
@@ -412,7 +412,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="912">
   <si>
     <t>KVR16LS11S6/2</t>
   </si>
@@ -7550,6 +7550,126 @@
     <xf numFmtId="0" fontId="80" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -7577,126 +7697,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7709,10 +7709,43 @@
     <xf numFmtId="0" fontId="45" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="53" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="77" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7723,9 +7756,6 @@
     </xf>
     <xf numFmtId="164" fontId="77" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="77" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7743,36 +7773,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -14215,15 +14215,15 @@
       <c r="O7" s="20"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickTop="1">
-      <c r="B8" s="266"/>
-      <c r="C8" s="266"/>
-      <c r="D8" s="266"/>
-      <c r="E8" s="266"/>
-      <c r="F8" s="266"/>
-      <c r="G8" s="266"/>
-      <c r="H8" s="266"/>
-      <c r="I8" s="266"/>
-      <c r="J8" s="266"/>
+      <c r="B8" s="264"/>
+      <c r="C8" s="264"/>
+      <c r="D8" s="264"/>
+      <c r="E8" s="264"/>
+      <c r="F8" s="264"/>
+      <c r="G8" s="264"/>
+      <c r="H8" s="264"/>
+      <c r="I8" s="264"/>
+      <c r="J8" s="264"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
@@ -14235,41 +14235,41 @@
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="26"/>
-      <c r="E9" s="267"/>
-      <c r="F9" s="267"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="267"/>
-      <c r="I9" s="267"/>
-      <c r="J9" s="267"/>
-      <c r="K9" s="267"/>
-      <c r="L9" s="267"/>
-      <c r="M9" s="267"/>
+      <c r="E9" s="265"/>
+      <c r="F9" s="265"/>
+      <c r="G9" s="265"/>
+      <c r="H9" s="265"/>
+      <c r="I9" s="265"/>
+      <c r="J9" s="265"/>
+      <c r="K9" s="265"/>
+      <c r="L9" s="265"/>
+      <c r="M9" s="265"/>
       <c r="O9" s="20"/>
     </row>
     <row r="10" spans="1:15" ht="14.25" thickTop="1" thickBot="1">
       <c r="A10" s="20"/>
-      <c r="B10" s="268" t="s">
+      <c r="B10" s="266" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="269"/>
-      <c r="D10" s="269"/>
-      <c r="E10" s="270" t="s">
+      <c r="C10" s="267"/>
+      <c r="D10" s="267"/>
+      <c r="E10" s="268" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="270"/>
-      <c r="G10" s="270"/>
-      <c r="H10" s="271" t="s">
+      <c r="F10" s="268"/>
+      <c r="G10" s="268"/>
+      <c r="H10" s="269" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="273"/>
-      <c r="J10" s="271" t="s">
+      <c r="I10" s="271"/>
+      <c r="J10" s="269" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="273"/>
-      <c r="L10" s="271" t="s">
+      <c r="K10" s="271"/>
+      <c r="L10" s="269" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="272"/>
+      <c r="M10" s="270"/>
       <c r="N10" s="8"/>
       <c r="O10" s="20"/>
     </row>
@@ -14280,23 +14280,23 @@
       </c>
       <c r="C11" s="175"/>
       <c r="D11" s="176"/>
-      <c r="E11" s="274" t="s">
+      <c r="E11" s="254" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="274"/>
-      <c r="G11" s="274"/>
+      <c r="F11" s="254"/>
+      <c r="G11" s="254"/>
       <c r="H11" s="260" t="s">
         <v>185</v>
       </c>
       <c r="I11" s="261"/>
-      <c r="J11" s="278" t="s">
+      <c r="J11" s="258" t="s">
         <v>124</v>
       </c>
-      <c r="K11" s="279"/>
-      <c r="L11" s="278" t="s">
+      <c r="K11" s="259"/>
+      <c r="L11" s="258" t="s">
         <v>124</v>
       </c>
-      <c r="M11" s="280"/>
+      <c r="M11" s="262"/>
       <c r="N11" s="8"/>
       <c r="O11" s="20"/>
     </row>
@@ -14305,96 +14305,96 @@
       <c r="B12" s="174"/>
       <c r="C12" s="175"/>
       <c r="D12" s="176"/>
-      <c r="E12" s="274"/>
-      <c r="F12" s="274"/>
-      <c r="G12" s="274"/>
+      <c r="E12" s="254"/>
+      <c r="F12" s="254"/>
+      <c r="G12" s="254"/>
       <c r="H12" s="260"/>
       <c r="I12" s="261"/>
-      <c r="J12" s="278"/>
-      <c r="K12" s="279"/>
-      <c r="L12" s="281"/>
-      <c r="M12" s="280"/>
+      <c r="J12" s="258"/>
+      <c r="K12" s="259"/>
+      <c r="L12" s="263"/>
+      <c r="M12" s="262"/>
       <c r="N12" s="8"/>
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="20"/>
-      <c r="B13" s="275" t="s">
+      <c r="B13" s="255" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="276"/>
-      <c r="D13" s="277"/>
-      <c r="E13" s="290" t="s">
+      <c r="C13" s="256"/>
+      <c r="D13" s="257"/>
+      <c r="E13" s="251" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="291"/>
-      <c r="G13" s="292"/>
+      <c r="F13" s="252"/>
+      <c r="G13" s="253"/>
       <c r="H13" s="260" t="s">
         <v>185</v>
       </c>
       <c r="I13" s="261"/>
-      <c r="J13" s="278" t="s">
+      <c r="J13" s="258" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="279"/>
-      <c r="L13" s="264" t="s">
+      <c r="K13" s="259"/>
+      <c r="L13" s="280" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="265"/>
+      <c r="M13" s="281"/>
       <c r="N13" s="8"/>
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="20"/>
-      <c r="B14" s="284" t="s">
+      <c r="B14" s="244" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="285"/>
-      <c r="D14" s="286"/>
-      <c r="E14" s="287" t="s">
+      <c r="C14" s="245"/>
+      <c r="D14" s="246"/>
+      <c r="E14" s="247" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="288"/>
-      <c r="G14" s="289"/>
+      <c r="F14" s="248"/>
+      <c r="G14" s="249"/>
       <c r="H14" s="260" t="s">
         <v>186</v>
       </c>
       <c r="I14" s="261"/>
-      <c r="J14" s="258" t="s">
+      <c r="J14" s="276" t="s">
         <v>209</v>
       </c>
-      <c r="K14" s="259"/>
-      <c r="L14" s="262" t="s">
+      <c r="K14" s="277"/>
+      <c r="L14" s="278" t="s">
         <v>95</v>
       </c>
-      <c r="M14" s="263"/>
+      <c r="M14" s="279"/>
       <c r="N14" s="8"/>
       <c r="O14" s="20"/>
     </row>
     <row r="15" spans="1:15" ht="13.5" thickBot="1">
       <c r="A15" s="20"/>
-      <c r="B15" s="282" t="s">
+      <c r="B15" s="242" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="283"/>
-      <c r="D15" s="283"/>
-      <c r="E15" s="257" t="s">
+      <c r="C15" s="243"/>
+      <c r="D15" s="243"/>
+      <c r="E15" s="250" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="257"/>
-      <c r="G15" s="257"/>
-      <c r="H15" s="255" t="s">
+      <c r="F15" s="250"/>
+      <c r="G15" s="250"/>
+      <c r="H15" s="274" t="s">
         <v>187</v>
       </c>
-      <c r="I15" s="256"/>
-      <c r="J15" s="253" t="s">
+      <c r="I15" s="275"/>
+      <c r="J15" s="272" t="s">
         <v>768</v>
       </c>
-      <c r="K15" s="257"/>
-      <c r="L15" s="253" t="s">
+      <c r="K15" s="250"/>
+      <c r="L15" s="272" t="s">
         <v>768</v>
       </c>
-      <c r="M15" s="254"/>
+      <c r="M15" s="273"/>
       <c r="N15" s="8"/>
       <c r="O15" s="20"/>
     </row>
@@ -14431,50 +14431,50 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="20"/>
-      <c r="B18" s="247" t="s">
+      <c r="B18" s="287" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="248"/>
-      <c r="D18" s="249"/>
-      <c r="E18" s="247" t="s">
+      <c r="C18" s="288"/>
+      <c r="D18" s="289"/>
+      <c r="E18" s="287" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="248"/>
-      <c r="G18" s="249"/>
-      <c r="H18" s="247" t="s">
+      <c r="F18" s="288"/>
+      <c r="G18" s="289"/>
+      <c r="H18" s="287" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="248"/>
-      <c r="J18" s="248"/>
-      <c r="K18" s="249"/>
-      <c r="L18" s="247" t="s">
+      <c r="I18" s="288"/>
+      <c r="J18" s="288"/>
+      <c r="K18" s="289"/>
+      <c r="L18" s="287" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="249"/>
+      <c r="M18" s="289"/>
       <c r="N18" s="8"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="20"/>
-      <c r="B19" s="242" t="s">
+      <c r="B19" s="282" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="243"/>
-      <c r="D19" s="244"/>
-      <c r="E19" s="250" t="s">
+      <c r="C19" s="283"/>
+      <c r="D19" s="284"/>
+      <c r="E19" s="290" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="251"/>
-      <c r="G19" s="252"/>
-      <c r="H19" s="242" t="s">
+      <c r="F19" s="291"/>
+      <c r="G19" s="292"/>
+      <c r="H19" s="282" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="243"/>
-      <c r="J19" s="243"/>
-      <c r="K19" s="244"/>
-      <c r="L19" s="245" t="s">
+      <c r="I19" s="283"/>
+      <c r="J19" s="283"/>
+      <c r="K19" s="284"/>
+      <c r="L19" s="285" t="s">
         <v>188</v>
       </c>
-      <c r="M19" s="246"/>
+      <c r="M19" s="286"/>
       <c r="N19" s="8"/>
     </row>
     <row r="21" spans="1:14">
@@ -14661,11 +14661,29 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="J11:K11"/>
@@ -14676,29 +14694,11 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="E11:G11"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E13:G13"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -14721,7 +14721,7 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:V221"/>
+  <dimension ref="B1:K221"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -14754,7 +14754,7 @@
         <v>2</v>
       </c>
       <c r="K1" s="155">
-        <v>44634</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="2" spans="2:11">
@@ -17313,18 +17313,10 @@
       </c>
       <c r="E103" s="104"/>
       <c r="F103" s="105"/>
-      <c r="G103" s="110">
-        <v>116.48</v>
-      </c>
-      <c r="H103" s="116">
-        <v>114.24</v>
-      </c>
-      <c r="I103" s="80">
-        <v>112</v>
-      </c>
-      <c r="J103" s="73" t="s">
-        <v>3</v>
-      </c>
+      <c r="G103" s="110"/>
+      <c r="H103" s="116"/>
+      <c r="I103" s="80"/>
+      <c r="J103" s="73"/>
       <c r="K103" s="162">
         <v>60</v>
       </c>
@@ -17411,18 +17403,10 @@
       </c>
       <c r="E107" s="104"/>
       <c r="F107" s="105"/>
-      <c r="G107" s="110">
-        <v>37.5</v>
-      </c>
-      <c r="H107" s="116">
-        <v>36.78</v>
-      </c>
-      <c r="I107" s="80">
-        <v>36.049999999999997</v>
-      </c>
-      <c r="J107" s="73" t="s">
-        <v>3</v>
-      </c>
+      <c r="G107" s="110"/>
+      <c r="H107" s="116"/>
+      <c r="I107" s="80"/>
+      <c r="J107" s="73"/>
       <c r="K107" s="162">
         <v>60</v>
       </c>
@@ -17683,18 +17667,10 @@
       </c>
       <c r="E117" s="104"/>
       <c r="F117" s="105"/>
-      <c r="G117" s="110">
-        <v>43.32</v>
-      </c>
-      <c r="H117" s="116">
-        <v>42.489999999999995</v>
-      </c>
-      <c r="I117" s="80">
-        <v>41.65</v>
-      </c>
-      <c r="J117" s="101" t="s">
-        <v>3</v>
-      </c>
+      <c r="G117" s="110"/>
+      <c r="H117" s="116"/>
+      <c r="I117" s="80"/>
+      <c r="J117" s="101"/>
       <c r="K117" s="162">
         <v>60</v>
       </c>
@@ -18085,18 +18061,10 @@
       </c>
       <c r="E133" s="104"/>
       <c r="F133" s="77"/>
-      <c r="G133" s="78">
-        <v>578.76</v>
-      </c>
-      <c r="H133" s="81">
-        <v>567.63</v>
-      </c>
-      <c r="I133" s="78">
-        <v>556.5</v>
-      </c>
-      <c r="J133" s="73" t="s">
-        <v>3</v>
-      </c>
+      <c r="G133" s="78"/>
+      <c r="H133" s="81"/>
+      <c r="I133" s="78"/>
+      <c r="J133" s="73"/>
       <c r="K133" s="162" t="s">
         <v>20</v>
       </c>
@@ -18187,18 +18155,10 @@
       </c>
       <c r="E137" s="104"/>
       <c r="F137" s="77"/>
-      <c r="G137" s="78">
-        <v>604.24</v>
-      </c>
-      <c r="H137" s="81">
-        <v>592.62</v>
-      </c>
-      <c r="I137" s="78">
-        <v>581</v>
-      </c>
-      <c r="J137" s="73" t="s">
-        <v>3</v>
-      </c>
+      <c r="G137" s="78"/>
+      <c r="H137" s="81"/>
+      <c r="I137" s="78"/>
+      <c r="J137" s="73"/>
       <c r="K137" s="162" t="s">
         <v>20</v>
       </c>
@@ -18879,18 +18839,10 @@
       </c>
       <c r="E165" s="104"/>
       <c r="F165" s="77"/>
-      <c r="G165" s="78">
-        <v>74.62</v>
-      </c>
-      <c r="H165" s="81">
-        <v>73.190000000000012</v>
-      </c>
-      <c r="I165" s="78">
-        <v>71.75</v>
-      </c>
-      <c r="J165" s="73" t="s">
-        <v>3</v>
-      </c>
+      <c r="G165" s="78"/>
+      <c r="H165" s="81"/>
+      <c r="I165" s="78"/>
+      <c r="J165" s="73"/>
       <c r="K165" s="162" t="s">
         <v>20</v>
       </c>
@@ -18992,13 +18944,13 @@
       <c r="E169" s="104"/>
       <c r="F169" s="77"/>
       <c r="G169" s="78">
-        <v>141.96</v>
+        <v>145.6</v>
       </c>
       <c r="H169" s="81">
-        <v>139.22999999999999</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="I169" s="78">
-        <v>136.5</v>
+        <v>140</v>
       </c>
       <c r="J169" s="73" t="s">
         <v>3</v>
@@ -19088,13 +19040,13 @@
       <c r="E173" s="104"/>
       <c r="F173" s="77"/>
       <c r="G173" s="78">
-        <v>129.22</v>
+        <v>134.68</v>
       </c>
       <c r="H173" s="81">
-        <v>126.74000000000001</v>
+        <v>132.09</v>
       </c>
       <c r="I173" s="78">
-        <v>124.25</v>
+        <v>129.5</v>
       </c>
       <c r="J173" s="73" t="s">
         <v>3</v>
@@ -19441,18 +19393,10 @@
       </c>
       <c r="E187" s="104"/>
       <c r="F187" s="77"/>
-      <c r="G187" s="80">
-        <v>819</v>
-      </c>
-      <c r="H187" s="79">
-        <v>803.25</v>
-      </c>
-      <c r="I187" s="81">
-        <v>787.5</v>
-      </c>
-      <c r="J187" s="73" t="s">
-        <v>3</v>
-      </c>
+      <c r="G187" s="80"/>
+      <c r="H187" s="79"/>
+      <c r="I187" s="81"/>
+      <c r="J187" s="73"/>
       <c r="K187" s="162" t="s">
         <v>20</v>
       </c>
@@ -19483,18 +19427,10 @@
       </c>
       <c r="E189" s="104"/>
       <c r="F189" s="103"/>
-      <c r="G189" s="80">
-        <v>196.92999999999998</v>
-      </c>
-      <c r="H189" s="80">
-        <v>193.14</v>
-      </c>
-      <c r="I189" s="80">
-        <v>189.35</v>
-      </c>
-      <c r="J189" s="73" t="s">
-        <v>3</v>
-      </c>
+      <c r="G189" s="80"/>
+      <c r="H189" s="80"/>
+      <c r="I189" s="80"/>
+      <c r="J189" s="73"/>
       <c r="K189" s="162">
         <v>12</v>
       </c>
@@ -19567,18 +19503,10 @@
       </c>
       <c r="E192" s="104"/>
       <c r="F192" s="105"/>
-      <c r="G192" s="80">
-        <v>198.75</v>
-      </c>
-      <c r="H192" s="80">
-        <v>194.92999999999998</v>
-      </c>
-      <c r="I192" s="80">
-        <v>191.1</v>
-      </c>
-      <c r="J192" s="73" t="s">
-        <v>3</v>
-      </c>
+      <c r="G192" s="80"/>
+      <c r="H192" s="80"/>
+      <c r="I192" s="80"/>
+      <c r="J192" s="73"/>
       <c r="K192" s="162">
         <v>12</v>
       </c>
@@ -19819,18 +19747,10 @@
       </c>
       <c r="E202" s="104"/>
       <c r="F202" s="77"/>
-      <c r="G202" s="78">
-        <v>366.55</v>
-      </c>
-      <c r="H202" s="78">
-        <v>359.5</v>
-      </c>
-      <c r="I202" s="78">
-        <v>352.45</v>
-      </c>
-      <c r="J202" s="73" t="s">
-        <v>3</v>
-      </c>
+      <c r="G202" s="78"/>
+      <c r="H202" s="78"/>
+      <c r="I202" s="78"/>
+      <c r="J202" s="73"/>
       <c r="K202" s="162" t="s">
         <v>56</v>
       </c>
@@ -19991,18 +19911,10 @@
       </c>
       <c r="E209" s="104"/>
       <c r="F209" s="77"/>
-      <c r="G209" s="78">
-        <v>90.28</v>
-      </c>
-      <c r="H209" s="78">
-        <v>88.54</v>
-      </c>
-      <c r="I209" s="78">
-        <v>86.8</v>
-      </c>
-      <c r="J209" s="73" t="s">
-        <v>3</v>
-      </c>
+      <c r="G209" s="78"/>
+      <c r="H209" s="78"/>
+      <c r="I209" s="78"/>
+      <c r="J209" s="73"/>
       <c r="K209" s="162" t="s">
         <v>56</v>
       </c>
@@ -20159,18 +20071,10 @@
       </c>
       <c r="E215" s="104"/>
       <c r="F215" s="77"/>
-      <c r="G215" s="78">
-        <v>638.46</v>
-      </c>
-      <c r="H215" s="78">
-        <v>626.17999999999995</v>
-      </c>
-      <c r="I215" s="78">
-        <v>613.9</v>
-      </c>
-      <c r="J215" s="73" t="s">
-        <v>3</v>
-      </c>
+      <c r="G215" s="78"/>
+      <c r="H215" s="78"/>
+      <c r="I215" s="78"/>
+      <c r="J215" s="73"/>
       <c r="K215" s="162" t="s">
         <v>113</v>
       </c>
@@ -20354,18 +20258,18 @@
       <c r="C1" s="209"/>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1">
-      <c r="A2" s="299" t="s">
+      <c r="A2" s="310" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="299"/>
-      <c r="C2" s="299"/>
+      <c r="B2" s="310"/>
+      <c r="C2" s="310"/>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
-      <c r="A3" s="300" t="s">
+      <c r="A3" s="311" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="300"/>
-      <c r="C3" s="300"/>
+      <c r="B3" s="311"/>
+      <c r="C3" s="311"/>
     </row>
     <row r="4" spans="1:4" ht="11.25" customHeight="1">
       <c r="A4" s="150"/>
@@ -20373,10 +20277,10 @@
       <c r="C4" s="210"/>
     </row>
     <row r="5" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A5" s="301" t="s">
+      <c r="A5" s="312" t="s">
         <v>234</v>
       </c>
-      <c r="B5" s="301"/>
+      <c r="B5" s="312"/>
       <c r="C5" s="198" t="s">
         <v>235</v>
       </c>
@@ -20399,7 +20303,7 @@
       <c r="D7" s="189"/>
     </row>
     <row r="8" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A8" s="297"/>
+      <c r="A8" s="300"/>
       <c r="B8" s="204" t="s">
         <v>238</v>
       </c>
@@ -20409,7 +20313,7 @@
       <c r="D8" s="189"/>
     </row>
     <row r="9" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A9" s="297"/>
+      <c r="A9" s="300"/>
       <c r="B9" s="204" t="s">
         <v>240</v>
       </c>
@@ -20419,7 +20323,7 @@
       <c r="D9" s="189"/>
     </row>
     <row r="10" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A10" s="297"/>
+      <c r="A10" s="300"/>
       <c r="B10" s="204" t="s">
         <v>242</v>
       </c>
@@ -20429,7 +20333,7 @@
       <c r="D10" s="189"/>
     </row>
     <row r="11" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A11" s="297"/>
+      <c r="A11" s="300"/>
       <c r="B11" s="204" t="s">
         <v>244</v>
       </c>
@@ -20447,7 +20351,7 @@
       <c r="D12" s="189"/>
     </row>
     <row r="13" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A13" s="303"/>
+      <c r="A13" s="313"/>
       <c r="B13" s="206" t="s">
         <v>247</v>
       </c>
@@ -20457,7 +20361,7 @@
       <c r="D13" s="189"/>
     </row>
     <row r="14" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A14" s="304"/>
+      <c r="A14" s="314"/>
       <c r="B14" s="206" t="s">
         <v>249</v>
       </c>
@@ -20467,7 +20371,7 @@
       <c r="D14" s="189"/>
     </row>
     <row r="15" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A15" s="305"/>
+      <c r="A15" s="315"/>
       <c r="B15" s="206" t="s">
         <v>251</v>
       </c>
@@ -20485,7 +20389,7 @@
       <c r="D16" s="189"/>
     </row>
     <row r="17" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A17" s="306"/>
+      <c r="A17" s="316"/>
       <c r="B17" s="206" t="s">
         <v>254</v>
       </c>
@@ -20495,7 +20399,7 @@
       <c r="D17" s="189"/>
     </row>
     <row r="18" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A18" s="307"/>
+      <c r="A18" s="317"/>
       <c r="B18" s="206" t="s">
         <v>256</v>
       </c>
@@ -20505,7 +20409,7 @@
       <c r="D18" s="189"/>
     </row>
     <row r="19" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A19" s="307"/>
+      <c r="A19" s="317"/>
       <c r="B19" s="206" t="s">
         <v>258</v>
       </c>
@@ -20515,7 +20419,7 @@
       <c r="D19" s="189"/>
     </row>
     <row r="20" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A20" s="308"/>
+      <c r="A20" s="318"/>
       <c r="B20" s="206" t="s">
         <v>260</v>
       </c>
@@ -20533,7 +20437,7 @@
       <c r="D21" s="189"/>
     </row>
     <row r="22" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A22" s="302"/>
+      <c r="A22" s="305"/>
       <c r="B22" s="206" t="s">
         <v>263</v>
       </c>
@@ -20543,7 +20447,7 @@
       <c r="D22" s="189"/>
     </row>
     <row r="23" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A23" s="302"/>
+      <c r="A23" s="305"/>
       <c r="B23" s="206" t="s">
         <v>265</v>
       </c>
@@ -20553,7 +20457,7 @@
       <c r="D23" s="189"/>
     </row>
     <row r="24" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A24" s="302"/>
+      <c r="A24" s="305"/>
       <c r="B24" s="206" t="s">
         <v>267</v>
       </c>
@@ -20563,7 +20467,7 @@
       <c r="D24" s="189"/>
     </row>
     <row r="25" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A25" s="302"/>
+      <c r="A25" s="305"/>
       <c r="B25" s="206" t="s">
         <v>269</v>
       </c>
@@ -20573,7 +20477,7 @@
       <c r="D25" s="189"/>
     </row>
     <row r="26" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A26" s="302"/>
+      <c r="A26" s="305"/>
       <c r="B26" s="206" t="s">
         <v>271</v>
       </c>
@@ -20583,7 +20487,7 @@
       <c r="D26" s="189"/>
     </row>
     <row r="27" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A27" s="302"/>
+      <c r="A27" s="305"/>
       <c r="B27" s="206" t="s">
         <v>273</v>
       </c>
@@ -20593,7 +20497,7 @@
       <c r="D27" s="189"/>
     </row>
     <row r="28" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A28" s="302"/>
+      <c r="A28" s="305"/>
       <c r="B28" s="206" t="s">
         <v>275</v>
       </c>
@@ -20611,7 +20515,7 @@
       <c r="D29" s="189"/>
     </row>
     <row r="30" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A30" s="302"/>
+      <c r="A30" s="305"/>
       <c r="B30" s="206" t="s">
         <v>278</v>
       </c>
@@ -20621,7 +20525,7 @@
       <c r="D30" s="189"/>
     </row>
     <row r="31" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A31" s="302"/>
+      <c r="A31" s="305"/>
       <c r="B31" s="206" t="s">
         <v>280</v>
       </c>
@@ -20631,7 +20535,7 @@
       <c r="D31" s="189"/>
     </row>
     <row r="32" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A32" s="302"/>
+      <c r="A32" s="305"/>
       <c r="B32" s="206" t="s">
         <v>282</v>
       </c>
@@ -20641,7 +20545,7 @@
       <c r="D32" s="189"/>
     </row>
     <row r="33" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A33" s="302"/>
+      <c r="A33" s="305"/>
       <c r="B33" s="206" t="s">
         <v>284</v>
       </c>
@@ -20651,7 +20555,7 @@
       <c r="D33" s="189"/>
     </row>
     <row r="34" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A34" s="302"/>
+      <c r="A34" s="305"/>
       <c r="B34" s="206" t="s">
         <v>286</v>
       </c>
@@ -20877,7 +20781,7 @@
       <c r="D57" s="189"/>
     </row>
     <row r="58" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A58" s="302"/>
+      <c r="A58" s="305"/>
       <c r="B58" s="206" t="s">
         <v>324</v>
       </c>
@@ -20887,7 +20791,7 @@
       <c r="D58" s="189"/>
     </row>
     <row r="59" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A59" s="302"/>
+      <c r="A59" s="305"/>
       <c r="B59" s="206" t="s">
         <v>326</v>
       </c>
@@ -20897,7 +20801,7 @@
       <c r="D59" s="189"/>
     </row>
     <row r="60" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A60" s="302"/>
+      <c r="A60" s="305"/>
       <c r="B60" s="206" t="s">
         <v>328</v>
       </c>
@@ -20907,7 +20811,7 @@
       <c r="D60" s="189"/>
     </row>
     <row r="61" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A61" s="302"/>
+      <c r="A61" s="305"/>
       <c r="B61" s="206" t="s">
         <v>330</v>
       </c>
@@ -20917,7 +20821,7 @@
       <c r="D61" s="189"/>
     </row>
     <row r="62" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A62" s="302"/>
+      <c r="A62" s="305"/>
       <c r="B62" s="206" t="s">
         <v>332</v>
       </c>
@@ -20935,7 +20839,7 @@
       <c r="D63" s="189"/>
     </row>
     <row r="64" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A64" s="302"/>
+      <c r="A64" s="305"/>
       <c r="B64" s="206" t="s">
         <v>335</v>
       </c>
@@ -20945,7 +20849,7 @@
       <c r="D64" s="189"/>
     </row>
     <row r="65" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A65" s="302"/>
+      <c r="A65" s="305"/>
       <c r="B65" s="206" t="s">
         <v>337</v>
       </c>
@@ -20955,7 +20859,7 @@
       <c r="D65" s="189"/>
     </row>
     <row r="66" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A66" s="302"/>
+      <c r="A66" s="305"/>
       <c r="B66" s="206" t="s">
         <v>339</v>
       </c>
@@ -20965,7 +20869,7 @@
       <c r="D66" s="189"/>
     </row>
     <row r="67" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A67" s="302"/>
+      <c r="A67" s="305"/>
       <c r="B67" s="206" t="s">
         <v>341</v>
       </c>
@@ -20975,7 +20879,7 @@
       <c r="D67" s="189"/>
     </row>
     <row r="68" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A68" s="302"/>
+      <c r="A68" s="305"/>
       <c r="B68" s="206" t="s">
         <v>343</v>
       </c>
@@ -20985,7 +20889,7 @@
       <c r="D68" s="189"/>
     </row>
     <row r="69" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A69" s="302"/>
+      <c r="A69" s="305"/>
       <c r="B69" s="206" t="s">
         <v>345</v>
       </c>
@@ -21011,7 +20915,7 @@
       <c r="D71" s="189"/>
     </row>
     <row r="72" spans="1:4" s="190" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A72" s="302"/>
+      <c r="A72" s="305"/>
       <c r="B72" s="206" t="s">
         <v>349</v>
       </c>
@@ -21021,7 +20925,7 @@
       <c r="D72" s="189"/>
     </row>
     <row r="73" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A73" s="302"/>
+      <c r="A73" s="305"/>
       <c r="B73" s="206" t="s">
         <v>59</v>
       </c>
@@ -21031,7 +20935,7 @@
       <c r="D73" s="189"/>
     </row>
     <row r="74" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A74" s="302"/>
+      <c r="A74" s="305"/>
       <c r="B74" s="206" t="s">
         <v>58</v>
       </c>
@@ -21041,7 +20945,7 @@
       <c r="D74" s="189"/>
     </row>
     <row r="75" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A75" s="302"/>
+      <c r="A75" s="305"/>
       <c r="B75" s="206" t="s">
         <v>57</v>
       </c>
@@ -21051,7 +20955,7 @@
       <c r="D75" s="189"/>
     </row>
     <row r="76" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A76" s="302"/>
+      <c r="A76" s="305"/>
       <c r="B76" s="206" t="s">
         <v>354</v>
       </c>
@@ -21069,7 +20973,7 @@
       <c r="D77" s="189"/>
     </row>
     <row r="78" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A78" s="313"/>
+      <c r="A78" s="299"/>
       <c r="B78" s="206" t="s">
         <v>357</v>
       </c>
@@ -21079,7 +20983,7 @@
       <c r="D78" s="189"/>
     </row>
     <row r="79" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A79" s="313"/>
+      <c r="A79" s="299"/>
       <c r="B79" s="206" t="s">
         <v>359</v>
       </c>
@@ -21089,7 +20993,7 @@
       <c r="D79" s="189"/>
     </row>
     <row r="80" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A80" s="313"/>
+      <c r="A80" s="299"/>
       <c r="B80" s="206" t="s">
         <v>81</v>
       </c>
@@ -21099,7 +21003,7 @@
       <c r="D80" s="189"/>
     </row>
     <row r="81" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A81" s="313"/>
+      <c r="A81" s="299"/>
       <c r="B81" s="206" t="s">
         <v>362</v>
       </c>
@@ -21137,7 +21041,7 @@
       <c r="D84" s="189"/>
     </row>
     <row r="85" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A85" s="313"/>
+      <c r="A85" s="299"/>
       <c r="B85" s="206" t="s">
         <v>87</v>
       </c>
@@ -21147,7 +21051,7 @@
       <c r="D85" s="189"/>
     </row>
     <row r="86" spans="1:4" s="190" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A86" s="313"/>
+      <c r="A86" s="299"/>
       <c r="B86" s="206" t="s">
         <v>86</v>
       </c>
@@ -21157,7 +21061,7 @@
       <c r="D86" s="189"/>
     </row>
     <row r="87" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A87" s="313"/>
+      <c r="A87" s="299"/>
       <c r="B87" s="206" t="s">
         <v>371</v>
       </c>
@@ -21167,7 +21071,7 @@
       <c r="D87" s="189"/>
     </row>
     <row r="88" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A88" s="313"/>
+      <c r="A88" s="299"/>
       <c r="B88" s="206" t="s">
         <v>85</v>
       </c>
@@ -21177,7 +21081,7 @@
       <c r="D88" s="189"/>
     </row>
     <row r="89" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A89" s="313"/>
+      <c r="A89" s="299"/>
       <c r="B89" s="206" t="s">
         <v>84</v>
       </c>
@@ -21187,7 +21091,7 @@
       <c r="D89" s="189"/>
     </row>
     <row r="90" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A90" s="313"/>
+      <c r="A90" s="299"/>
       <c r="B90" s="206" t="s">
         <v>83</v>
       </c>
@@ -21197,7 +21101,7 @@
       <c r="D90" s="189"/>
     </row>
     <row r="91" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A91" s="313"/>
+      <c r="A91" s="299"/>
       <c r="B91" s="206" t="s">
         <v>82</v>
       </c>
@@ -21207,7 +21111,7 @@
       <c r="D91" s="189"/>
     </row>
     <row r="92" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A92" s="313"/>
+      <c r="A92" s="299"/>
       <c r="B92" s="206" t="s">
         <v>377</v>
       </c>
@@ -21217,7 +21121,7 @@
       <c r="D92" s="189"/>
     </row>
     <row r="93" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A93" s="313"/>
+      <c r="A93" s="299"/>
       <c r="B93" s="206" t="s">
         <v>379</v>
       </c>
@@ -21235,7 +21139,7 @@
       <c r="D94" s="189"/>
     </row>
     <row r="95" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A95" s="313"/>
+      <c r="A95" s="299"/>
       <c r="B95" s="206" t="s">
         <v>382</v>
       </c>
@@ -21245,7 +21149,7 @@
       <c r="D95" s="189"/>
     </row>
     <row r="96" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A96" s="313"/>
+      <c r="A96" s="299"/>
       <c r="B96" s="206" t="s">
         <v>383</v>
       </c>
@@ -21255,7 +21159,7 @@
       <c r="D96" s="189"/>
     </row>
     <row r="97" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A97" s="313"/>
+      <c r="A97" s="299"/>
       <c r="B97" s="206" t="s">
         <v>384</v>
       </c>
@@ -21265,7 +21169,7 @@
       <c r="D97" s="189"/>
     </row>
     <row r="98" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A98" s="313"/>
+      <c r="A98" s="299"/>
       <c r="B98" s="206" t="s">
         <v>385</v>
       </c>
@@ -21275,7 +21179,7 @@
       <c r="D98" s="189"/>
     </row>
     <row r="99" spans="1:4" s="190" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A99" s="313"/>
+      <c r="A99" s="299"/>
       <c r="B99" s="206" t="s">
         <v>386</v>
       </c>
@@ -21293,7 +21197,7 @@
       <c r="D100" s="189"/>
     </row>
     <row r="101" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A101" s="297"/>
+      <c r="A101" s="300"/>
       <c r="B101" s="206" t="s">
         <v>388</v>
       </c>
@@ -21303,7 +21207,7 @@
       <c r="D101" s="189"/>
     </row>
     <row r="102" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A102" s="297"/>
+      <c r="A102" s="300"/>
       <c r="B102" s="206" t="s">
         <v>88</v>
       </c>
@@ -21329,7 +21233,7 @@
       <c r="D104" s="189"/>
     </row>
     <row r="105" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A105" s="316"/>
+      <c r="A105" s="301"/>
       <c r="B105" s="206" t="s">
         <v>66</v>
       </c>
@@ -21339,7 +21243,7 @@
       <c r="D105" s="189"/>
     </row>
     <row r="106" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A106" s="317"/>
+      <c r="A106" s="302"/>
       <c r="B106" s="206" t="s">
         <v>65</v>
       </c>
@@ -21349,7 +21253,7 @@
       <c r="D106" s="189"/>
     </row>
     <row r="107" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A107" s="317"/>
+      <c r="A107" s="302"/>
       <c r="B107" s="206" t="s">
         <v>393</v>
       </c>
@@ -21359,7 +21263,7 @@
       <c r="D107" s="189"/>
     </row>
     <row r="108" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A108" s="317"/>
+      <c r="A108" s="302"/>
       <c r="B108" s="206" t="s">
         <v>395</v>
       </c>
@@ -21369,7 +21273,7 @@
       <c r="D108" s="189"/>
     </row>
     <row r="109" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A109" s="318"/>
+      <c r="A109" s="303"/>
       <c r="B109" s="206" t="s">
         <v>397</v>
       </c>
@@ -21387,7 +21291,7 @@
       <c r="D110" s="189"/>
     </row>
     <row r="111" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A111" s="297"/>
+      <c r="A111" s="300"/>
       <c r="B111" s="208" t="s">
         <v>400</v>
       </c>
@@ -21397,7 +21301,7 @@
       <c r="D111" s="189"/>
     </row>
     <row r="112" spans="1:4" s="190" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A112" s="297"/>
+      <c r="A112" s="300"/>
       <c r="B112" s="206" t="s">
         <v>402</v>
       </c>
@@ -21423,7 +21327,7 @@
       <c r="D114" s="189"/>
     </row>
     <row r="115" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A115" s="310"/>
+      <c r="A115" s="306"/>
       <c r="B115" s="206" t="s">
         <v>406</v>
       </c>
@@ -21433,25 +21337,25 @@
       <c r="D115" s="189"/>
     </row>
     <row r="116" spans="1:4" s="190" customFormat="1">
-      <c r="A116" s="311"/>
+      <c r="A116" s="307"/>
       <c r="B116" s="147"/>
       <c r="C116" s="148"/>
       <c r="D116" s="189"/>
     </row>
     <row r="117" spans="1:4" s="190" customFormat="1">
-      <c r="A117" s="311"/>
+      <c r="A117" s="307"/>
       <c r="B117" s="147"/>
       <c r="C117" s="148"/>
       <c r="D117" s="189"/>
     </row>
     <row r="118" spans="1:4" s="190" customFormat="1">
-      <c r="A118" s="311"/>
+      <c r="A118" s="307"/>
       <c r="B118" s="147"/>
       <c r="C118" s="148"/>
       <c r="D118" s="189"/>
     </row>
     <row r="119" spans="1:4" s="190" customFormat="1">
-      <c r="A119" s="312"/>
+      <c r="A119" s="308"/>
       <c r="B119" s="147"/>
       <c r="C119" s="148"/>
       <c r="D119" s="189"/>
@@ -21473,7 +21377,7 @@
       <c r="D121" s="189"/>
     </row>
     <row r="122" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A122" s="297"/>
+      <c r="A122" s="300"/>
       <c r="B122" s="204" t="s">
         <v>410</v>
       </c>
@@ -21483,7 +21387,7 @@
       <c r="D122" s="189"/>
     </row>
     <row r="123" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A123" s="297"/>
+      <c r="A123" s="300"/>
       <c r="B123" s="204" t="s">
         <v>412</v>
       </c>
@@ -21493,7 +21397,7 @@
       <c r="D123" s="189"/>
     </row>
     <row r="124" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A124" s="297"/>
+      <c r="A124" s="300"/>
       <c r="B124" s="204" t="s">
         <v>414</v>
       </c>
@@ -21503,7 +21407,7 @@
       <c r="D124" s="189"/>
     </row>
     <row r="125" spans="1:4" s="190" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A125" s="297"/>
+      <c r="A125" s="300"/>
       <c r="B125" s="204" t="s">
         <v>416</v>
       </c>
@@ -21513,7 +21417,7 @@
       <c r="D125" s="189"/>
     </row>
     <row r="126" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A126" s="297"/>
+      <c r="A126" s="300"/>
       <c r="B126" s="204" t="s">
         <v>418</v>
       </c>
@@ -21523,7 +21427,7 @@
       <c r="D126" s="189"/>
     </row>
     <row r="127" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A127" s="297"/>
+      <c r="A127" s="300"/>
       <c r="B127" s="204" t="s">
         <v>420</v>
       </c>
@@ -21533,7 +21437,7 @@
       <c r="D127" s="189"/>
     </row>
     <row r="128" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A128" s="297"/>
+      <c r="A128" s="300"/>
       <c r="B128" s="204" t="s">
         <v>422</v>
       </c>
@@ -21551,7 +21455,7 @@
       <c r="D129" s="189"/>
     </row>
     <row r="130" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A130" s="297"/>
+      <c r="A130" s="300"/>
       <c r="B130" s="204" t="s">
         <v>425</v>
       </c>
@@ -21561,7 +21465,7 @@
       <c r="D130" s="189"/>
     </row>
     <row r="131" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A131" s="297"/>
+      <c r="A131" s="300"/>
       <c r="B131" s="204" t="s">
         <v>427</v>
       </c>
@@ -21571,7 +21475,7 @@
       <c r="D131" s="189"/>
     </row>
     <row r="132" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A132" s="297"/>
+      <c r="A132" s="300"/>
       <c r="B132" s="204" t="s">
         <v>429</v>
       </c>
@@ -21581,7 +21485,7 @@
       <c r="D132" s="189"/>
     </row>
     <row r="133" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A133" s="297"/>
+      <c r="A133" s="300"/>
       <c r="B133" s="204" t="s">
         <v>431</v>
       </c>
@@ -21591,7 +21495,7 @@
       <c r="D133" s="189"/>
     </row>
     <row r="134" spans="1:4" s="190" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A134" s="297"/>
+      <c r="A134" s="300"/>
       <c r="B134" s="204" t="s">
         <v>433</v>
       </c>
@@ -21601,7 +21505,7 @@
       <c r="D134" s="189"/>
     </row>
     <row r="135" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A135" s="297"/>
+      <c r="A135" s="300"/>
       <c r="B135" s="204" t="s">
         <v>435</v>
       </c>
@@ -21619,7 +21523,7 @@
       <c r="D136" s="189"/>
     </row>
     <row r="137" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A137" s="297"/>
+      <c r="A137" s="300"/>
       <c r="B137" s="204" t="s">
         <v>438</v>
       </c>
@@ -21629,7 +21533,7 @@
       <c r="D137" s="189"/>
     </row>
     <row r="138" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A138" s="297"/>
+      <c r="A138" s="300"/>
       <c r="B138" s="204" t="s">
         <v>440</v>
       </c>
@@ -21639,7 +21543,7 @@
       <c r="D138" s="189"/>
     </row>
     <row r="139" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A139" s="297"/>
+      <c r="A139" s="300"/>
       <c r="B139" s="204" t="s">
         <v>442</v>
       </c>
@@ -21649,7 +21553,7 @@
       <c r="D139" s="189"/>
     </row>
     <row r="140" spans="1:4" s="190" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A140" s="297"/>
+      <c r="A140" s="300"/>
       <c r="B140" s="204" t="s">
         <v>444</v>
       </c>
@@ -21659,7 +21563,7 @@
       <c r="D140" s="189"/>
     </row>
     <row r="141" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A141" s="297"/>
+      <c r="A141" s="300"/>
       <c r="B141" s="204" t="s">
         <v>446</v>
       </c>
@@ -21669,7 +21573,7 @@
       <c r="D141" s="192"/>
     </row>
     <row r="142" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A142" s="297"/>
+      <c r="A142" s="300"/>
       <c r="B142" s="204" t="s">
         <v>448</v>
       </c>
@@ -21687,7 +21591,7 @@
       <c r="D143" s="192"/>
     </row>
     <row r="144" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A144" s="297"/>
+      <c r="A144" s="300"/>
       <c r="B144" s="204" t="s">
         <v>451</v>
       </c>
@@ -21697,7 +21601,7 @@
       <c r="D144" s="192"/>
     </row>
     <row r="145" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A145" s="297"/>
+      <c r="A145" s="300"/>
       <c r="B145" s="204" t="s">
         <v>452</v>
       </c>
@@ -21707,7 +21611,7 @@
       <c r="D145" s="192"/>
     </row>
     <row r="146" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A146" s="297"/>
+      <c r="A146" s="300"/>
       <c r="B146" s="204" t="s">
         <v>453</v>
       </c>
@@ -21717,7 +21621,7 @@
       <c r="D146" s="192"/>
     </row>
     <row r="147" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A147" s="297"/>
+      <c r="A147" s="300"/>
       <c r="B147" s="204" t="s">
         <v>454</v>
       </c>
@@ -21727,7 +21631,7 @@
       <c r="D147" s="195"/>
     </row>
     <row r="148" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A148" s="297"/>
+      <c r="A148" s="300"/>
       <c r="B148" s="204" t="s">
         <v>455</v>
       </c>
@@ -21737,7 +21641,7 @@
       <c r="D148" s="193"/>
     </row>
     <row r="149" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A149" s="297"/>
+      <c r="A149" s="300"/>
       <c r="B149" s="204" t="s">
         <v>456</v>
       </c>
@@ -21755,7 +21659,7 @@
       <c r="D150" s="194"/>
     </row>
     <row r="151" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A151" s="297"/>
+      <c r="A151" s="300"/>
       <c r="B151" s="204" t="s">
         <v>458</v>
       </c>
@@ -21765,7 +21669,7 @@
       <c r="D151" s="191"/>
     </row>
     <row r="152" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A152" s="297"/>
+      <c r="A152" s="300"/>
       <c r="B152" s="204" t="s">
         <v>459</v>
       </c>
@@ -21775,7 +21679,7 @@
       <c r="D152" s="194"/>
     </row>
     <row r="153" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A153" s="297"/>
+      <c r="A153" s="300"/>
       <c r="B153" s="204" t="s">
         <v>460</v>
       </c>
@@ -21785,7 +21689,7 @@
       <c r="D153" s="194"/>
     </row>
     <row r="154" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A154" s="297"/>
+      <c r="A154" s="300"/>
       <c r="B154" s="204" t="s">
         <v>461</v>
       </c>
@@ -21795,7 +21699,7 @@
       <c r="D154" s="191"/>
     </row>
     <row r="155" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A155" s="297"/>
+      <c r="A155" s="300"/>
       <c r="B155" s="204" t="s">
         <v>462</v>
       </c>
@@ -21805,7 +21709,7 @@
       <c r="D155" s="194"/>
     </row>
     <row r="156" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A156" s="297"/>
+      <c r="A156" s="300"/>
       <c r="B156" s="204" t="s">
         <v>463</v>
       </c>
@@ -21831,7 +21735,7 @@
       <c r="D158" s="191"/>
     </row>
     <row r="159" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A159" s="297"/>
+      <c r="A159" s="300"/>
       <c r="B159" s="204" t="s">
         <v>466</v>
       </c>
@@ -21841,7 +21745,7 @@
       <c r="D159" s="194"/>
     </row>
     <row r="160" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A160" s="297"/>
+      <c r="A160" s="300"/>
       <c r="B160" s="204" t="s">
         <v>468</v>
       </c>
@@ -21851,7 +21755,7 @@
       <c r="D160" s="194"/>
     </row>
     <row r="161" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A161" s="297"/>
+      <c r="A161" s="300"/>
       <c r="B161" s="204" t="s">
         <v>470</v>
       </c>
@@ -21861,7 +21765,7 @@
       <c r="D161" s="194"/>
     </row>
     <row r="162" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A162" s="297"/>
+      <c r="A162" s="300"/>
       <c r="B162" s="204" t="s">
         <v>472</v>
       </c>
@@ -21871,7 +21775,7 @@
       <c r="D162" s="194"/>
     </row>
     <row r="163" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A163" s="297"/>
+      <c r="A163" s="300"/>
       <c r="B163" s="204" t="s">
         <v>474</v>
       </c>
@@ -21881,7 +21785,7 @@
       <c r="D163" s="194"/>
     </row>
     <row r="164" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A164" s="297"/>
+      <c r="A164" s="300"/>
       <c r="B164" s="204" t="s">
         <v>476</v>
       </c>
@@ -21899,7 +21803,7 @@
       <c r="D165" s="191"/>
     </row>
     <row r="166" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A166" s="297"/>
+      <c r="A166" s="300"/>
       <c r="B166" s="204" t="s">
         <v>479</v>
       </c>
@@ -21909,7 +21813,7 @@
       <c r="D166" s="194"/>
     </row>
     <row r="167" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A167" s="297"/>
+      <c r="A167" s="300"/>
       <c r="B167" s="204" t="s">
         <v>481</v>
       </c>
@@ -21919,7 +21823,7 @@
       <c r="D167" s="194"/>
     </row>
     <row r="168" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A168" s="297"/>
+      <c r="A168" s="300"/>
       <c r="B168" s="204" t="s">
         <v>483</v>
       </c>
@@ -21929,7 +21833,7 @@
       <c r="D168" s="194"/>
     </row>
     <row r="169" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A169" s="297"/>
+      <c r="A169" s="300"/>
       <c r="B169" s="204" t="s">
         <v>485</v>
       </c>
@@ -21939,7 +21843,7 @@
       <c r="D169" s="194"/>
     </row>
     <row r="170" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A170" s="297"/>
+      <c r="A170" s="300"/>
       <c r="B170" s="204" t="s">
         <v>487</v>
       </c>
@@ -21949,7 +21853,7 @@
       <c r="D170" s="194"/>
     </row>
     <row r="171" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A171" s="297"/>
+      <c r="A171" s="300"/>
       <c r="B171" s="204" t="s">
         <v>489</v>
       </c>
@@ -21967,7 +21871,7 @@
       <c r="D172" s="191"/>
     </row>
     <row r="173" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A173" s="297"/>
+      <c r="A173" s="300"/>
       <c r="B173" s="204" t="s">
         <v>492</v>
       </c>
@@ -21977,7 +21881,7 @@
       <c r="D173" s="194"/>
     </row>
     <row r="174" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A174" s="297"/>
+      <c r="A174" s="300"/>
       <c r="B174" s="204" t="s">
         <v>494</v>
       </c>
@@ -21987,7 +21891,7 @@
       <c r="D174" s="194"/>
     </row>
     <row r="175" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A175" s="297"/>
+      <c r="A175" s="300"/>
       <c r="B175" s="204" t="s">
         <v>496</v>
       </c>
@@ -21997,7 +21901,7 @@
       <c r="D175" s="194"/>
     </row>
     <row r="176" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A176" s="297"/>
+      <c r="A176" s="300"/>
       <c r="B176" s="204" t="s">
         <v>498</v>
       </c>
@@ -22015,7 +21919,7 @@
       <c r="D177" s="194"/>
     </row>
     <row r="178" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A178" s="297"/>
+      <c r="A178" s="300"/>
       <c r="B178" s="204" t="s">
         <v>500</v>
       </c>
@@ -22025,7 +21929,7 @@
       <c r="D178" s="194"/>
     </row>
     <row r="179" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A179" s="297"/>
+      <c r="A179" s="300"/>
       <c r="B179" s="204" t="s">
         <v>502</v>
       </c>
@@ -22035,7 +21939,7 @@
       <c r="D179" s="191"/>
     </row>
     <row r="180" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A180" s="297"/>
+      <c r="A180" s="300"/>
       <c r="B180" s="204" t="s">
         <v>504</v>
       </c>
@@ -22045,7 +21949,7 @@
       <c r="D180" s="194"/>
     </row>
     <row r="181" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A181" s="297"/>
+      <c r="A181" s="300"/>
       <c r="B181" s="204" t="s">
         <v>506</v>
       </c>
@@ -22071,7 +21975,7 @@
       <c r="D183" s="191"/>
     </row>
     <row r="184" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A184" s="297"/>
+      <c r="A184" s="300"/>
       <c r="B184" s="204" t="s">
         <v>510</v>
       </c>
@@ -22081,7 +21985,7 @@
       <c r="D184" s="194"/>
     </row>
     <row r="185" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A185" s="297"/>
+      <c r="A185" s="300"/>
       <c r="B185" s="204" t="s">
         <v>512</v>
       </c>
@@ -22099,7 +22003,7 @@
       <c r="D186" s="194"/>
     </row>
     <row r="187" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A187" s="297"/>
+      <c r="A187" s="300"/>
       <c r="B187" s="204" t="s">
         <v>515</v>
       </c>
@@ -22109,7 +22013,7 @@
       <c r="D187" s="194"/>
     </row>
     <row r="188" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A188" s="297"/>
+      <c r="A188" s="300"/>
       <c r="B188" s="204" t="s">
         <v>517</v>
       </c>
@@ -22119,7 +22023,7 @@
       <c r="D188" s="194"/>
     </row>
     <row r="189" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A189" s="297"/>
+      <c r="A189" s="300"/>
       <c r="B189" s="204" t="s">
         <v>519</v>
       </c>
@@ -22137,7 +22041,7 @@
       <c r="D190" s="194"/>
     </row>
     <row r="191" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A191" s="297"/>
+      <c r="A191" s="300"/>
       <c r="B191" s="204" t="s">
         <v>522</v>
       </c>
@@ -22147,7 +22051,7 @@
       <c r="D191" s="194"/>
     </row>
     <row r="192" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A192" s="297"/>
+      <c r="A192" s="300"/>
       <c r="B192" s="204" t="s">
         <v>524</v>
       </c>
@@ -22157,7 +22061,7 @@
       <c r="D192" s="194"/>
     </row>
     <row r="193" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A193" s="297"/>
+      <c r="A193" s="300"/>
       <c r="B193" s="204" t="s">
         <v>526</v>
       </c>
@@ -22175,7 +22079,7 @@
       <c r="D194" s="194"/>
     </row>
     <row r="195" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A195" s="297"/>
+      <c r="A195" s="300"/>
       <c r="B195" s="204" t="s">
         <v>529</v>
       </c>
@@ -22185,7 +22089,7 @@
       <c r="D195" s="191"/>
     </row>
     <row r="196" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A196" s="297"/>
+      <c r="A196" s="300"/>
       <c r="B196" s="204" t="s">
         <v>530</v>
       </c>
@@ -22195,7 +22099,7 @@
       <c r="D196" s="194"/>
     </row>
     <row r="197" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A197" s="297"/>
+      <c r="A197" s="300"/>
       <c r="B197" s="204" t="s">
         <v>532</v>
       </c>
@@ -22221,7 +22125,7 @@
       <c r="D199" s="194"/>
     </row>
     <row r="200" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A200" s="298"/>
+      <c r="A200" s="304"/>
       <c r="B200" s="204" t="s">
         <v>536</v>
       </c>
@@ -22231,7 +22135,7 @@
       <c r="D200" s="194"/>
     </row>
     <row r="201" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A201" s="298"/>
+      <c r="A201" s="304"/>
       <c r="B201" s="204" t="s">
         <v>538</v>
       </c>
@@ -22241,7 +22145,7 @@
       <c r="D201" s="195"/>
     </row>
     <row r="202" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A202" s="298"/>
+      <c r="A202" s="304"/>
       <c r="B202" s="204" t="s">
         <v>540</v>
       </c>
@@ -22251,7 +22155,7 @@
       <c r="D202" s="191"/>
     </row>
     <row r="203" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A203" s="298"/>
+      <c r="A203" s="304"/>
       <c r="B203" s="204" t="s">
         <v>542</v>
       </c>
@@ -22269,7 +22173,7 @@
       <c r="D204" s="194"/>
     </row>
     <row r="205" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A205" s="298"/>
+      <c r="A205" s="304"/>
       <c r="B205" s="204" t="s">
         <v>544</v>
       </c>
@@ -22279,7 +22183,7 @@
       <c r="D205" s="194"/>
     </row>
     <row r="206" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A206" s="298"/>
+      <c r="A206" s="304"/>
       <c r="B206" s="204" t="s">
         <v>546</v>
       </c>
@@ -22297,7 +22201,7 @@
       <c r="D207" s="195"/>
     </row>
     <row r="208" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A208" s="297"/>
+      <c r="A208" s="300"/>
       <c r="B208" s="204" t="s">
         <v>549</v>
       </c>
@@ -22307,7 +22211,7 @@
       <c r="D208" s="191"/>
     </row>
     <row r="209" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A209" s="297"/>
+      <c r="A209" s="300"/>
       <c r="B209" s="204" t="s">
         <v>551</v>
       </c>
@@ -22317,7 +22221,7 @@
       <c r="D209" s="194"/>
     </row>
     <row r="210" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A210" s="297"/>
+      <c r="A210" s="300"/>
       <c r="B210" s="204" t="s">
         <v>553</v>
       </c>
@@ -22343,7 +22247,7 @@
       <c r="D212" s="194"/>
     </row>
     <row r="213" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A213" s="298"/>
+      <c r="A213" s="304"/>
       <c r="B213" s="204" t="s">
         <v>557</v>
       </c>
@@ -22353,7 +22257,7 @@
       <c r="D213" s="194"/>
     </row>
     <row r="214" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A214" s="298"/>
+      <c r="A214" s="304"/>
       <c r="B214" s="204" t="s">
         <v>559</v>
       </c>
@@ -22363,7 +22267,7 @@
       <c r="D214" s="194"/>
     </row>
     <row r="215" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A215" s="298"/>
+      <c r="A215" s="304"/>
       <c r="B215" s="204" t="s">
         <v>561</v>
       </c>
@@ -22373,7 +22277,7 @@
       <c r="D215" s="194"/>
     </row>
     <row r="216" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A216" s="298"/>
+      <c r="A216" s="304"/>
       <c r="B216" s="204" t="s">
         <v>563</v>
       </c>
@@ -22383,7 +22287,7 @@
       <c r="D216" s="195"/>
     </row>
     <row r="217" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A217" s="298"/>
+      <c r="A217" s="304"/>
       <c r="B217" s="204" t="s">
         <v>565</v>
       </c>
@@ -22393,7 +22297,7 @@
       <c r="D217" s="191"/>
     </row>
     <row r="218" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A218" s="298"/>
+      <c r="A218" s="304"/>
       <c r="B218" s="204" t="s">
         <v>567</v>
       </c>
@@ -22403,7 +22307,7 @@
       <c r="D218" s="194"/>
     </row>
     <row r="219" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A219" s="298"/>
+      <c r="A219" s="304"/>
       <c r="B219" s="204" t="s">
         <v>569</v>
       </c>
@@ -22421,7 +22325,7 @@
       <c r="D220" s="195"/>
     </row>
     <row r="221" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A221" s="298"/>
+      <c r="A221" s="304"/>
       <c r="B221" s="204" t="s">
         <v>572</v>
       </c>
@@ -22431,7 +22335,7 @@
       <c r="D221" s="191"/>
     </row>
     <row r="222" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A222" s="298"/>
+      <c r="A222" s="304"/>
       <c r="B222" s="204" t="s">
         <v>574</v>
       </c>
@@ -22441,7 +22345,7 @@
       <c r="D222" s="194"/>
     </row>
     <row r="223" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A223" s="298"/>
+      <c r="A223" s="304"/>
       <c r="B223" s="204" t="s">
         <v>576</v>
       </c>
@@ -22451,7 +22355,7 @@
       <c r="D223" s="194"/>
     </row>
     <row r="224" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A224" s="298"/>
+      <c r="A224" s="304"/>
       <c r="B224" s="204" t="s">
         <v>578</v>
       </c>
@@ -22469,7 +22373,7 @@
       <c r="D225" s="194"/>
     </row>
     <row r="226" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A226" s="298"/>
+      <c r="A226" s="304"/>
       <c r="B226" s="204" t="s">
         <v>581</v>
       </c>
@@ -22479,7 +22383,7 @@
       <c r="D226" s="194"/>
     </row>
     <row r="227" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A227" s="298"/>
+      <c r="A227" s="304"/>
       <c r="B227" s="204" t="s">
         <v>583</v>
       </c>
@@ -22489,7 +22393,7 @@
       <c r="D227" s="191"/>
     </row>
     <row r="228" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A228" s="298"/>
+      <c r="A228" s="304"/>
       <c r="B228" s="204" t="s">
         <v>585</v>
       </c>
@@ -22499,7 +22403,7 @@
       <c r="D228" s="194"/>
     </row>
     <row r="229" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A229" s="298"/>
+      <c r="A229" s="304"/>
       <c r="B229" s="204" t="s">
         <v>587</v>
       </c>
@@ -22509,7 +22413,7 @@
       <c r="D229" s="194"/>
     </row>
     <row r="230" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A230" s="298"/>
+      <c r="A230" s="304"/>
       <c r="B230" s="204" t="s">
         <v>589</v>
       </c>
@@ -22527,7 +22431,7 @@
       <c r="D231" s="194"/>
     </row>
     <row r="232" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A232" s="298"/>
+      <c r="A232" s="304"/>
       <c r="B232" s="204" t="s">
         <v>592</v>
       </c>
@@ -22537,7 +22441,7 @@
       <c r="D232" s="194"/>
     </row>
     <row r="233" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A233" s="298"/>
+      <c r="A233" s="304"/>
       <c r="B233" s="204" t="s">
         <v>594</v>
       </c>
@@ -22547,7 +22451,7 @@
       <c r="D233" s="194"/>
     </row>
     <row r="234" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A234" s="298"/>
+      <c r="A234" s="304"/>
       <c r="B234" s="204" t="s">
         <v>596</v>
       </c>
@@ -22557,7 +22461,7 @@
       <c r="D234" s="194"/>
     </row>
     <row r="235" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A235" s="298"/>
+      <c r="A235" s="304"/>
       <c r="B235" s="204" t="s">
         <v>598</v>
       </c>
@@ -22583,7 +22487,7 @@
       <c r="D237" s="191"/>
     </row>
     <row r="238" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A238" s="297"/>
+      <c r="A238" s="300"/>
       <c r="B238" s="204" t="s">
         <v>602</v>
       </c>
@@ -22593,7 +22497,7 @@
       <c r="D238" s="191"/>
     </row>
     <row r="239" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A239" s="297"/>
+      <c r="A239" s="300"/>
       <c r="B239" s="204" t="s">
         <v>604</v>
       </c>
@@ -22603,7 +22507,7 @@
       <c r="D239" s="191"/>
     </row>
     <row r="240" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A240" s="297"/>
+      <c r="A240" s="300"/>
       <c r="B240" s="204" t="s">
         <v>606</v>
       </c>
@@ -22613,7 +22517,7 @@
       <c r="D240" s="191"/>
     </row>
     <row r="241" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A241" s="297"/>
+      <c r="A241" s="300"/>
       <c r="B241" s="204" t="s">
         <v>608</v>
       </c>
@@ -22631,7 +22535,7 @@
       <c r="D242" s="191"/>
     </row>
     <row r="243" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A243" s="297"/>
+      <c r="A243" s="300"/>
       <c r="B243" s="204" t="s">
         <v>611</v>
       </c>
@@ -22641,7 +22545,7 @@
       <c r="D243" s="191"/>
     </row>
     <row r="244" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A244" s="297"/>
+      <c r="A244" s="300"/>
       <c r="B244" s="204" t="s">
         <v>613</v>
       </c>
@@ -22651,7 +22555,7 @@
       <c r="D244" s="191"/>
     </row>
     <row r="245" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A245" s="297"/>
+      <c r="A245" s="300"/>
       <c r="B245" s="204" t="s">
         <v>615</v>
       </c>
@@ -22661,7 +22565,7 @@
       <c r="D245" s="191"/>
     </row>
     <row r="246" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A246" s="297"/>
+      <c r="A246" s="300"/>
       <c r="B246" s="204" t="s">
         <v>617</v>
       </c>
@@ -22679,7 +22583,7 @@
       <c r="D247" s="191"/>
     </row>
     <row r="248" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A248" s="297"/>
+      <c r="A248" s="300"/>
       <c r="B248" s="204" t="s">
         <v>620</v>
       </c>
@@ -22689,7 +22593,7 @@
       <c r="D248" s="191"/>
     </row>
     <row r="249" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A249" s="297"/>
+      <c r="A249" s="300"/>
       <c r="B249" s="204" t="s">
         <v>622</v>
       </c>
@@ -22715,7 +22619,7 @@
       <c r="D251" s="191"/>
     </row>
     <row r="252" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A252" s="297"/>
+      <c r="A252" s="300"/>
       <c r="B252" s="204" t="s">
         <v>626</v>
       </c>
@@ -22725,7 +22629,7 @@
       <c r="D252" s="191"/>
     </row>
     <row r="253" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A253" s="297"/>
+      <c r="A253" s="300"/>
       <c r="B253" s="204" t="s">
         <v>628</v>
       </c>
@@ -22735,7 +22639,7 @@
       <c r="D253" s="191"/>
     </row>
     <row r="254" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A254" s="297"/>
+      <c r="A254" s="300"/>
       <c r="B254" s="204" t="s">
         <v>630</v>
       </c>
@@ -22753,7 +22657,7 @@
       <c r="D255" s="191"/>
     </row>
     <row r="256" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A256" s="298"/>
+      <c r="A256" s="304"/>
       <c r="B256" s="204" t="s">
         <v>633</v>
       </c>
@@ -22763,7 +22667,7 @@
       <c r="D256" s="191"/>
     </row>
     <row r="257" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A257" s="298"/>
+      <c r="A257" s="304"/>
       <c r="B257" s="204" t="s">
         <v>635</v>
       </c>
@@ -22773,7 +22677,7 @@
       <c r="D257" s="191"/>
     </row>
     <row r="258" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A258" s="298"/>
+      <c r="A258" s="304"/>
       <c r="B258" s="204" t="s">
         <v>637</v>
       </c>
@@ -22783,7 +22687,7 @@
       <c r="D258" s="191"/>
     </row>
     <row r="259" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A259" s="298"/>
+      <c r="A259" s="304"/>
       <c r="B259" s="204" t="s">
         <v>639</v>
       </c>
@@ -22801,7 +22705,7 @@
       <c r="D260" s="191"/>
     </row>
     <row r="261" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A261" s="297"/>
+      <c r="A261" s="300"/>
       <c r="B261" s="204" t="s">
         <v>642</v>
       </c>
@@ -22811,7 +22715,7 @@
       <c r="D261" s="191"/>
     </row>
     <row r="262" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A262" s="297"/>
+      <c r="A262" s="300"/>
       <c r="B262" s="204" t="s">
         <v>644</v>
       </c>
@@ -22821,7 +22725,7 @@
       <c r="D262" s="191"/>
     </row>
     <row r="263" spans="1:4" s="190" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A263" s="297"/>
+      <c r="A263" s="300"/>
       <c r="B263" s="204" t="s">
         <v>646</v>
       </c>
@@ -22839,7 +22743,7 @@
       <c r="D264" s="191"/>
     </row>
     <row r="265" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A265" s="297"/>
+      <c r="A265" s="300"/>
       <c r="B265" s="204" t="s">
         <v>649</v>
       </c>
@@ -22849,7 +22753,7 @@
       <c r="D265" s="191"/>
     </row>
     <row r="266" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A266" s="297"/>
+      <c r="A266" s="300"/>
       <c r="B266" s="204" t="s">
         <v>651</v>
       </c>
@@ -22859,7 +22763,7 @@
       <c r="D266" s="191"/>
     </row>
     <row r="267" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A267" s="297"/>
+      <c r="A267" s="300"/>
       <c r="B267" s="204" t="s">
         <v>653</v>
       </c>
@@ -22877,7 +22781,7 @@
       <c r="D268" s="191"/>
     </row>
     <row r="269" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A269" s="297"/>
+      <c r="A269" s="300"/>
       <c r="B269" s="204" t="s">
         <v>656</v>
       </c>
@@ -22887,7 +22791,7 @@
       <c r="D269" s="191"/>
     </row>
     <row r="270" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A270" s="297"/>
+      <c r="A270" s="300"/>
       <c r="B270" s="204" t="s">
         <v>658</v>
       </c>
@@ -22897,7 +22801,7 @@
       <c r="D270" s="191"/>
     </row>
     <row r="271" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A271" s="297"/>
+      <c r="A271" s="300"/>
       <c r="B271" s="204" t="s">
         <v>660</v>
       </c>
@@ -22915,7 +22819,7 @@
       <c r="D272" s="191"/>
     </row>
     <row r="273" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A273" s="297"/>
+      <c r="A273" s="300"/>
       <c r="B273" s="204" t="s">
         <v>664</v>
       </c>
@@ -22925,13 +22829,13 @@
       <c r="D273" s="191"/>
     </row>
     <row r="274" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A274" s="297"/>
+      <c r="A274" s="300"/>
       <c r="B274" s="204"/>
       <c r="C274" s="205"/>
       <c r="D274" s="191"/>
     </row>
     <row r="275" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A275" s="297"/>
+      <c r="A275" s="300"/>
       <c r="B275" s="204"/>
       <c r="C275" s="205"/>
       <c r="D275" s="191"/>
@@ -22945,7 +22849,7 @@
       <c r="D276" s="192"/>
     </row>
     <row r="277" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A277" s="297"/>
+      <c r="A277" s="300"/>
       <c r="B277" s="204" t="s">
         <v>666</v>
       </c>
@@ -22955,13 +22859,13 @@
       <c r="D277" s="192"/>
     </row>
     <row r="278" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A278" s="297"/>
+      <c r="A278" s="300"/>
       <c r="B278" s="204"/>
       <c r="C278" s="205"/>
       <c r="D278" s="192"/>
     </row>
     <row r="279" spans="1:4" s="190" customFormat="1" ht="15.75">
-      <c r="A279" s="297"/>
+      <c r="A279" s="300"/>
       <c r="B279" s="204"/>
       <c r="C279" s="205"/>
       <c r="D279" s="192"/>
@@ -22991,9 +22895,9 @@
       <c r="D283" s="192"/>
     </row>
     <row r="284" spans="1:4" s="190" customFormat="1">
-      <c r="A284" s="314"/>
-      <c r="B284" s="314"/>
-      <c r="C284" s="314"/>
+      <c r="A284" s="297"/>
+      <c r="B284" s="297"/>
+      <c r="C284" s="297"/>
       <c r="D284" s="192"/>
     </row>
     <row r="285" spans="1:4" s="190" customFormat="1">
@@ -23009,15 +22913,15 @@
       <c r="D286" s="192"/>
     </row>
     <row r="287" spans="1:4" s="190" customFormat="1">
-      <c r="A287" s="315"/>
-      <c r="B287" s="315"/>
-      <c r="C287" s="315"/>
+      <c r="A287" s="298"/>
+      <c r="B287" s="298"/>
+      <c r="C287" s="298"/>
       <c r="D287" s="192"/>
     </row>
     <row r="288" spans="1:4" s="190" customFormat="1">
-      <c r="A288" s="314"/>
-      <c r="B288" s="314"/>
-      <c r="C288" s="314"/>
+      <c r="A288" s="297"/>
+      <c r="B288" s="297"/>
+      <c r="C288" s="297"/>
       <c r="D288" s="192"/>
     </row>
     <row r="289" spans="1:4" s="190" customFormat="1">
@@ -23033,9 +22937,9 @@
       <c r="D290" s="192"/>
     </row>
     <row r="291" spans="1:4" s="190" customFormat="1">
-      <c r="A291" s="314"/>
-      <c r="B291" s="314"/>
-      <c r="C291" s="314"/>
+      <c r="A291" s="297"/>
+      <c r="B291" s="297"/>
+      <c r="C291" s="297"/>
       <c r="D291" s="192"/>
     </row>
     <row r="292" spans="1:4" s="190" customFormat="1">
@@ -23081,9 +22985,9 @@
       <c r="D298" s="192"/>
     </row>
     <row r="299" spans="1:4" s="190" customFormat="1">
-      <c r="A299" s="315"/>
-      <c r="B299" s="315"/>
-      <c r="C299" s="315"/>
+      <c r="A299" s="298"/>
+      <c r="B299" s="298"/>
+      <c r="C299" s="298"/>
       <c r="D299" s="192"/>
     </row>
     <row r="300" spans="1:4" s="190" customFormat="1">
@@ -23098,6 +23002,48 @@
     <row r="304" spans="1:4" s="190" customFormat="1"/>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="A273:A275"/>
+    <mergeCell ref="A277:A279"/>
+    <mergeCell ref="A213:A219"/>
+    <mergeCell ref="A221:A224"/>
+    <mergeCell ref="A226:A230"/>
+    <mergeCell ref="A232:A235"/>
+    <mergeCell ref="A238:A241"/>
+    <mergeCell ref="A243:A246"/>
+    <mergeCell ref="A248:A249"/>
+    <mergeCell ref="A252:A254"/>
+    <mergeCell ref="A265:A267"/>
+    <mergeCell ref="A269:A271"/>
+    <mergeCell ref="A191:A193"/>
+    <mergeCell ref="A195:A197"/>
+    <mergeCell ref="A200:A203"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="A208:A210"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A137:A142"/>
+    <mergeCell ref="A144:A149"/>
+    <mergeCell ref="A151:A156"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A159:A164"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A64:A69"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A122:A128"/>
+    <mergeCell ref="A130:A135"/>
+    <mergeCell ref="A115:A119"/>
+    <mergeCell ref="A78:A83"/>
+    <mergeCell ref="A85:A93"/>
     <mergeCell ref="A288:C288"/>
     <mergeCell ref="A291:C291"/>
     <mergeCell ref="A299:C299"/>
@@ -23114,48 +23060,6 @@
     <mergeCell ref="A187:A189"/>
     <mergeCell ref="A256:A259"/>
     <mergeCell ref="A261:A263"/>
-    <mergeCell ref="A159:A164"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="A64:A69"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A122:A128"/>
-    <mergeCell ref="A130:A135"/>
-    <mergeCell ref="A115:A119"/>
-    <mergeCell ref="A78:A83"/>
-    <mergeCell ref="A85:A93"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A137:A142"/>
-    <mergeCell ref="A144:A149"/>
-    <mergeCell ref="A151:A156"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A191:A193"/>
-    <mergeCell ref="A195:A197"/>
-    <mergeCell ref="A200:A203"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="A208:A210"/>
-    <mergeCell ref="A273:A275"/>
-    <mergeCell ref="A277:A279"/>
-    <mergeCell ref="A213:A219"/>
-    <mergeCell ref="A221:A224"/>
-    <mergeCell ref="A226:A230"/>
-    <mergeCell ref="A232:A235"/>
-    <mergeCell ref="A238:A241"/>
-    <mergeCell ref="A243:A246"/>
-    <mergeCell ref="A248:A249"/>
-    <mergeCell ref="A252:A254"/>
-    <mergeCell ref="A265:A267"/>
-    <mergeCell ref="A269:A271"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
